--- a/builtins/data/helpdoc/DND/04_剑湾冒险者指南SCAG.xlsx
+++ b/builtins/data/helpdoc/DND/04_剑湾冒险者指南SCAG.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9300"/>
+    <workbookView windowWidth="18530" windowHeight="7270" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="SCAG法术" sheetId="1" r:id="rId1"/>
     <sheet name="SCAG种族" sheetId="3" r:id="rId2"/>
+    <sheet name="SCAG背景" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -190,8 +191,90 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>DicePP</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>查询关键字</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>选填, 关键字同义词, 用/分割</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>词条内容</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>选填, 对于词条的简短描述</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>选填, 该词条被归在哪一个目录下, 用/分割父子目录</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>选填, 内容的Tag, 如#核心 #法术</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="83">
   <si>
     <t>Key</t>
   </si>
@@ -211,7 +294,7 @@
     <t>Tag</t>
   </si>
   <si>
-    <t>5e 轰雷剑</t>
+    <t>轰雷剑</t>
   </si>
   <si>
     <t>轰雷剑 Booming Blade
@@ -228,7 +311,7 @@
     <t>剑湾冒险者指南中的法术</t>
   </si>
   <si>
-    <t>5e 翠炎剑</t>
+    <t>翠炎剑</t>
   </si>
   <si>
     <t xml:space="preserve">翠炎剑 Green-Flame Blade
@@ -243,7 +326,7 @@
 </t>
   </si>
   <si>
-    <t>5e 闪电牵引</t>
+    <t>闪电牵引</t>
   </si>
   <si>
     <t/>
@@ -260,7 +343,7 @@
 第5级时，本法术的伤害增加1d8（变为2d8）。11级时再增加1d8（变为3d8），17级时再增加1d8（变为4d8）。</t>
   </si>
   <si>
-    <t>5e 剑刃爆发</t>
+    <t>剑刃爆发</t>
   </si>
   <si>
     <t>剑刃爆发 Sword Burst
@@ -310,6 +393,345 @@
 魔鬼之舌：你知晓恶言相加戏法。当你到达3级时，你可以施展一次魅惑人类作为一个2环法术。当你到达5级时，你可以施展一次注目术。你必须完成一次长休息才能再次从这个特性中施展这些法术。魅力是你的施法主属性。这个特性取代了地狱遗赠特性。
 地狱之火：当你达到3级时，你可以每天施展一次燃烧之手作为2环法术。这个特性取代了地狱遗赠特性中的炼狱叱喝法术。
 飞翼：在你的肩胛骨下方有一双蝙蝠般的翅膀。你得到30尺飞行速度。这个特性取代了地狱遗赠特性。</t>
+  </si>
+  <si>
+    <t>城市守卫</t>
+  </si>
+  <si>
+    <t>城市守卫 City Watch
+当你长大之时，你加入了城市守卫，并且坚定的站在了对抗犯罪的第一线。你并不是一名士兵，注意着外来的敌人，相反你是服务于你的城镇，帮助民众们处理罪犯，从犯法者和作恶者们手上保护城市。
+技能熟练：运动，洞察
+语言：两种由你选择的语言
+装备：一件你所在组织的标示你军衔的制服，一个用来召唤帮手的号角，一副手铐，一个装有10金币的袋子
+特性：守护者之眼
+你对执行法律、处理犯法者有着丰富的经验，这给了你对法律和犯罪异常敏感的感觉。你能很容易的找到守卫的哨站或是一些类似的组织，也能轻易的发现犯罪者们活动的窝点，同时你也在前者更容易受到欢迎。
+变体：调查员
+比警戒或是巡逻人员更稀有的是组织的调查员，专门负责调查犯罪后的真相。尽管这些人很少出现在乡村地带，几乎每一个像样规模的案子都会有一个或者两个有调查犯罪现场和追踪罪犯技能的调查员。如果你曾经是一名调查员，则你可以将熟练项中的运动技能替换为调查技能。
+建议特性：使用PHB中士兵背景作为你的基础特征和动机，在适当的时候修改条目以适应你作为城市守卫的一员。</t>
+  </si>
+  <si>
+    <t>宗族工匠</t>
+  </si>
+  <si>
+    <t>氏族工匠</t>
+  </si>
+  <si>
+    <t>氏族工匠Clan Crafter
+矮人们以他们工艺和手工的价值而闻名，而你则一直在接受这门技艺的训练。多年来，你一直在一名矮人大师的门下学习磨练，为的就是今日你所拥有的好技艺。
+你一般来说应该是一名矮人，但这并不是必要的-特别是在北地，盾矮人部族们在很久之前就已经学到了只有自傲的傻瓜们才会在意学徒们的手艺会超过自己而拒绝收受徒弟，即使是其他种族的学徒。如果你不是一名矮人，无论如何你必须立下一个庄重的誓言，永远不接收这门工艺的学徒：这并不是为了非矮人们通过这门摩拉丁青睐的孩子们的技艺考核。你会毫无困难的找到一名矮人大师愿意接受你作为学徒并传授你这门技艺。
+技能熟练：历史，洞察
+工具熟练：一种自选的匠人工具
+语言：矮人语或者如果你已经熟悉矮人语了就自选一种语言
+装备：一种你所熟练的匠人工具，一个用来标示出你是从哪个宗族学习何种手工技艺的徽记，一件旅行者衣服，一个有5gp的小包和一块价值10gp的宝石。
+特性：矮人的尊敬
+没有人会像矮人们一样对作为宗族工匠的外来者一样高度尊重。你通常能在盾矮人或者金矮人居住的地方免费获得食宿，矮人们还可能会彼此竞争来决定谁提供给你（也可能是你的同胞）最好的食宿和帮助。
+建议特性：使用PHB中行会工匠的背景作为自己的基础特征和动机，在适当的时候修改点条目以适应你作为宗族工匠的一员。（例如考虑把“公会”和“宗族”互换）</t>
+  </si>
+  <si>
+    <t>隐修学者</t>
+  </si>
+  <si>
+    <t>与世隔绝的学者</t>
+  </si>
+  <si>
+    <t>隐修学者 Cloistered Scholar
+孩提时代，好奇的你与喧闹和孤独为伴。在你成长的岁月中，你发现了一所费伦最伟大的学习学院，你在那里学习，并认为知识是比黄金宝石更为有价值的财富。现在，你已经准备好了离开你的居所-并不是放弃它，而是寻找新的知识来充实它。
+费伦最知名的知识之所是烛堡。这所最伟大的图书馆总是会需要工人和仆人，一些人还会被升格成为拥有重大突出责任等级的角色。你可能是其中一名烛堡的拥有者，致力于做一个完善这个世界的学识体系和历史的管理者。
+技能熟练：历史，从奥秘，自然和宗教中选择一个
+语言：你选择的两种语言
+装备：代表你学院的学者长袍，一份书写工具（一个装着羽毛笔，墨水，折叠起来的羊皮纸，一把小拆信刀），一本从学院中借出阅读的书籍和一个装着10gp的小包。
+特性：图书馆使用权
+尽管在你的图书馆中其他人们需要经常忍受大量的面试和缴纳一定的费用来获得通用档案室的资料，你将能免费并且能进入图书馆的大部分区域，即使是那些不对外人开放的有着太多价值的知识，魔力，或是秘密的区域。
+你有着你学院人员和机构的应用知识，你知道如何将两者轻松的联系起来。
+此外，你作为一个专业礼貌的学者，在世界上其他的图书馆中也可能获得优惠待遇。
+建议特性：使用PHB中贤者的背景作为自己的基础特征和动机，在适当的时候修改点条目以适应你作为学者的一员。</t>
+  </si>
+  <si>
+    <t>朝臣</t>
+  </si>
+  <si>
+    <t>朝臣Courtier
+早些时候，你是一名贵族法院或者官场的重要人士。你可能或者不是来自某个上流社会的家族之中；你用你的才能，而不是你出生的背景让你赢得了这个位置。
+你可能是一名银月法庭的政府人员，仆人，或者是随从。亦或你旅行至深水城时被招募成为某个杀手公会，贵族，冒险家或秘密社团的一员。你可能是一个在博德之门或是无冬城维护法纪的幕后工作人员。亦可能成长在匕首滩城堡之中。
+即使你已不再是那个给了你生活的开始的组织中的一员，你与以前同事们之间的人际关机可以给你和你冒险伙伴们一些优势。你也可能会和现在新的伙伴们从之前的组织中接到任务。在任何情况下，你曾经作为朝臣的能力会使你在冒险生活中处于更有利的境地。
+技能熟练：洞察，游说
+语言：两种你选择的语言
+装备：一套华丽的服装和一个装有5gp的小包
+特性：官员
+你拥有的对官场如何运作的知识让你获得你所遇到过的贵族政议院和政府中访问档案和内部运作的能力。你了解是谁在背后操纵着神秘，你知道需要支持时应该去找谁，目前这些组织感兴趣的阴谋又是哪些。
+建议特性：使用PHB中行会工匠的背景作为自己的基础特征和动机，在适当的时候修改点条目以适应你作为一名朝臣。</t>
+  </si>
+  <si>
+    <t>派系特工</t>
+  </si>
+  <si>
+    <t>组织代理人</t>
+  </si>
+  <si>
+    <t>组织代理人/派系特工Faction Agent
+有许多的组织活跃在北地和费伦大陆的表面，他们并不会收到地理位置限制。这些组织会追寻他们的理念，有时候甚至不会遵循政治方面的界限，只要组织认为有必要，任何地点都可以有他们成员的存在。这些组织会雇佣一些听众，造谣者，走私者，佣兵，秘密守护者（那些专门守护为组织所用的财宝或是魔法的守卫们），港口看守，信使等等人员来做一些事情。
+一个组织的核心人员们并不只是执行某个细小的功能，而是成为组织的臂膀，心脏和脑袋。
+在你冒险故事的开始（准备阶段），你以某个费伦中特定组织代理人的身份存在。你可能由于你自身公开或私密的目的依靠这个组织和它追寻的理想。成为一个冒险者并不需要你放弃现有加入的组织（虽然你也可以这么做），说不定这段冒险还会提升你在组织中的地位呢。
+技能熟练：洞悉，一种自选的作为适合你组织的智力、感知、魅力技能
+语言：两种自选语言
+装备：一个标示你所属组织的徽章或标志。一份你们组织文件的手抄本（或一份你们组织使用的密文本），一套普通衣服，一个装有15gp的小包。
+剑湾各派系：见词条“剑湾各派系”
+特性：避风港
+作为一个组织的代理人，你可以组织秘密联络网中那些可以给你在冒险生涯中提供援助的支援者和工作人员。你知道那些可以用来识别这些秘密人员的记号和密语，这些人可以为你提供一个有免费食宿的隐秘安全屋，或是能够协助寻找你需要的讯息。但是这些家伙并不会为了你冒着暴露自己身份或者生命安全的危险来帮你做事。
+建议特性：使用PHB中侍僧的背景作为自己的基础特征和动机，在适当的时候修改点条目以适应你作为一名组织代理人。（例如考虑将“信仰”替换成“派系”）</t>
+  </si>
+  <si>
+    <t>剑湾各派系</t>
+  </si>
+  <si>
+    <t>剑湾各派系
+由于在北地缺乏大型集中政权的政府，在剑湾这片土地上分布着许许多多和剑湾政治阴谋有着密切关联的隐秘组织。如果你的背景是一名北地主要组织的代理人的话，以下介绍可能对你有所帮助。
+- 竖琴手联盟The Harper 
+- 铁手套教团The Order of the Gauntlet 
+- 翠绿闲庭 the Emerald Enclave 
+- 领主联盟 The Lords` Alliance 
+- 散塔林会 The Zhentarim 
+详情见单独词条。</t>
+  </si>
+  <si>
+    <t>竖琴手联盟</t>
+  </si>
+  <si>
+    <t>竖琴手联盟The Harper 
+自成立多年以来，竖琴手联盟经历了多次的解散和重组，如今他们仍旧是一个有着强大实力的幕后组织，他们喜欢更多的通过公理和知识来阻止邪恶的行为，而不是运用暴力。竖琴手表通常熟练于调查（Investigation），这让他们能够熟练的进行窃听，间谍活动。他们通常会向其他竖琴手，共同理念的吟游诗人，旅店老板，游侠和与竖琴手联盟相同理念的神的神职人员寻求援助。</t>
+  </si>
+  <si>
+    <t>铁手套教团</t>
+  </si>
+  <si>
+    <t>铁手套教团The Order of the Gauntlet 
+作为费伦大陆上一个新起的力量，铁手套教团有着和竖琴手联盟相似的理念。然而他们的方式截然不同：铁手套的教义是作为神圣的战士在寻求真理的道路上摧毁邪恶，倡导公正，他们从来不会将自己隐藏在阴影之下。教团成员们通常会向与他们理念相同的执法部门，或是教员们信仰的神的神职人员们寻求援助。</t>
+  </si>
+  <si>
+    <t>翠绿闲庭</t>
+  </si>
+  <si>
+    <t>翠绿闲庭 the Emerald Enclave 
+保持自然秩序的平衡和对抗破坏这种平衡的力量，这是翠绿闲庭的两个目标。这个组织中的人员通常是野外生存大师，并且以这片土地为生。他们通常熟练于自然（Nature）技能，当他们遇到困难时，会从树人，猎人，游侠，野蛮人部落，德鲁伊集舍和信奉自然之神的神职人员那里寻求帮助。</t>
+  </si>
+  <si>
+    <t>领主联盟</t>
+  </si>
+  <si>
+    <t>领主联盟 The Lords` Alliance 
+在某种程度上说，领主联盟的代理人们就代表了所在的城市，还有构成联盟的国家和政府。但是作为一个关切集体利益的联合组织，它跨越在本地政治和地理领土之上，领主联盟通过工作在各个联盟城市内的工作人员的日常工作，架设起了自己独有的组织结构。一个联盟代理人需要对历史（History）知识有深厚的了解，在他们遇到困难时，会向所属联盟的政府，还有其他支持联盟理念的领导人和组织寻求帮助。</t>
+  </si>
+  <si>
+    <t>散塔林会</t>
+  </si>
+  <si>
+    <t>散塔林会 The Zhentarim 
+近年来，散塔林会通过改善它们在普通人中的名声，成为世界上最显眼的一个组织。这个组织吸收来自各行各业的工作人员和合作者，让他们以达成以暗黑情报网目标为任务进行工作，但在本质上并不需要进行犯罪。暗黑情报网人员通常秘密的进行工作，并且非常熟练于 欺诈（ Deception）。他们会从法师，雇佣兵，商人和与散塔林会结盟的神职人员那寻求帮助。</t>
+  </si>
+  <si>
+    <t>远行者</t>
+  </si>
+  <si>
+    <t>远行者 Far Traveler
+在剑湾沿岸及北地遇见的所有民众和其他种族都有个共同之处：他们通常会旅行至距离自己出生地好几里处生活。而你就是这样的人群中一员。
+你来自一个遥远的地方，该偏远之地很多北地的普通民众都不知道其存在，而即使你遇到过一些听说过你家乡的人，他们也仅是知道其名字或者大概还知道一点骇人听闻的故事。你由于个人原因来到费伦大陆的现处之地，这个原因或许你未必会愿意将它分享给其他人。
+虽然你发现这片土地有一些冷漠和破败的地方，但你也确信这里的某些人文也有从未见过的新鲜之处。你是个无论走到什么地方都对周围环境中的善良或邪恶感兴趣之人。
+技能熟练项：洞悉，察觉
+工具熟练项：任何一项音乐或赌具，也许可以是源于你故乡本土的东西。
+语言：自选一门语言
+装备：旅行者服装，一件你熟练的乐器或赌具，来自你故乡的一张精度很差的费伦地图上面标记出正在何处，价值 10 gp的一小片你家乡技艺所作的珠宝，及一个装着 5 gp 的小包。
+特性：众目焦点 All Eyes on You
+你的口音，言谈举止，措辞风格甚至你的外表都表明你就是一个异乡人。无论你走到哪里，好奇的目光总会伴随着你。虽然这有些令人讨厌，但是也让你得以对那些感兴趣的学者们，和那些对远方好奇希望听你述说家乡故事之人的好感。
+与其他民众不同，你可以运用这种关注力为自己或旅伴们亲近想要接触之人。那些贵族领主、学者、商人望族等等可能会有兴趣听你那些有关远方故乡和人民的故事。</t>
+  </si>
+  <si>
+    <t>永聚岛</t>
+  </si>
+  <si>
+    <t>永聚岛 Evermeet
+这个遥远西方的岛屿是那些从未到过费伦之精灵们的故乡。这些精灵们来到费伦大陆时，他们通常会觉得这里是比自己预期更严酷的地方。如果你是一名精灵，永聚岛是个作为你故乡比较合理的选择（但不是必然选择）。大多从永聚岛上移民出去的人要么是违反精灵法则而被迫流放，要么就是作为使节抱持为精灵文化和社会带来更大利益的目标前往费伦。</t>
+  </si>
+  <si>
+    <t>哈鲁阿</t>
+  </si>
+  <si>
+    <t>哈鲁阿 Halruaa
+“光辉南方 Shining South”南部的边缘地带，群山环绕中坐落著法师之国哈鲁阿。众所周知，哈鲁阿的法师议会是费伦中最神奇的地方之一。许多人都听说在哈鲁阿有船帆上带着哈鲁阿标记的奇异天空之船，还有一些人声称那里即使最普通的人都懂得施展法术。
+哈鲁阿人通常是因为自己个人的原因在旅行于费伦，由于它们的政府严格反对人民未经许可参与到其他国家的组织或政治中，你可能会是个违反了哈鲁阿许多错综复杂法律而被流放之人，亦或者也可以是个寻找魔法之神圣地的朝圣者。</t>
+  </si>
+  <si>
+    <t>卡拉图</t>
+  </si>
+  <si>
+    <t>卡拉图 Kara-Tur
+在费伦遥远的东方，坐落着卡拉图大陆，其间的居民有着与剑湾人民完全不同的风俗习惯。如果你来自卡拉图，费伦的人民可能会称你为“受国人 Shou”，而这可能并不是你真正的民族所属，者只是人们对所有与你有相同起源的人们之统称。
+卡拉图人偶尔会作为外交官或为了和其他贸易联盟建立关系而在费伦旅行。你作为一些这样的代表团中一员来到这里，并在任务结束后决定留下。</t>
+  </si>
+  <si>
+    <t>穆尔霍兰德</t>
+  </si>
+  <si>
+    <t>穆尔霍兰德 Mulhorand
+穆尔霍兰德是费伦大陆上残存的古老帝国之一，几千年来都由神祇的转生体“神王 god-king”直接统治。几乎所有关于穆尔霍兰德的风俗习惯都与剑湾大不相同。离开沙漠来到完全陌生的费伦北方后，你可能会受到不小的文化差异冲击。而最近你故乡发生的一个事件导致穆尔霍兰德废除其奴隶制度，并增进了与其他各地间的交通。
+离开穆尔霍兰德闷热沙漠和古老金字塔的人们可能有各种原因。你来北地可能只为满足自己体验这潮湿土地带来的陌生感，亦或是自己在沙漠之中树立了太多的敌人。</t>
+  </si>
+  <si>
+    <t>索萨尔</t>
+  </si>
+  <si>
+    <t>索萨尔 Sossal
+很少人听说过你的故乡，但是很多人会在遇见你之后询问你故乡的事情。来自索萨尔的人像是从雪中精心制作的艺术品一样，长着光洁的皮肤和雪白的头发，并穿着白色的衣服。
+索萨尔在遥远的东北部，其贫瘠之地紧靠北面无止境的冰原，而另一侧则是延绵数百英里的“大冰川 Great Glacier”和“大冰海 Great Ice Sea”。如果没有确切的理由，没人会跨越如此巨大的障碍离开索萨尔，你也许是因惧怕冰川中的某些真正可怕之物，有或是为了寻找某些非常重要的东西。</t>
+  </si>
+  <si>
+    <t>札哈拉</t>
+  </si>
+  <si>
+    <t>札哈拉 Zakhara
+在费伦四处游走且知道该地的人有句俗话，“要去扎哈拉，你要往南走，然后再往更南走。”当然，你从故乡来到北地也是沿相同的路从南方过来。扎哈拉人到费伦的极南地带进行贸易活动的情况也是极之罕见，但其中也会人会流浪到远离家乡之地。
+你可能是为了发现除家乡的沙漠和剑山之外更多其他奇迹之地，或者，你也可能是个为更好了解自己信仰的神灵而前往其他地方朝圣的朝圣者。</t>
+  </si>
+  <si>
+    <t>幽暗地域</t>
+  </si>
+  <si>
+    <t>幽暗地域 The Underdark
+尽管你的故乡在地理位置上比其他上述的偏远之地更接近剑湾，但是它却也是一片远离剑湾的地方。你来自许多处幽暗地域聚居地中的一个，这些聚居地各自保有着怪异的习俗和法律。在幽暗地域某地下城市或聚居地中土生土长的你可能是占领此处的种族其中一员，亦或是生活其中的俘虏，你也可能在还是孩子时就被带到这里，而现在已经在此地长大成人。
+如果你是幽暗地域真正的本土人，则你可能作为族人的使节，亦或是为摆脱被指控的犯罪行为（不管是否为遭诬告）而来到地表。如果你不是其本土人，则你的原因可能是为摆脱当前的糟糕处境而离“家”出走。</t>
+  </si>
+  <si>
+    <t>继承者</t>
+  </si>
+  <si>
+    <t>继承人</t>
+  </si>
+  <si>
+    <t>继承者Inheritor
+你是一些很有价值的东西的继承者——不单单指的是金币或是财富，而是某个单独委托给你的东西。你继承的财产可能是直接是由于你出生就是是你家族中的一员，或者它可能是从你的指导者、老师或者其他在你生命中重要的人那里留下给你的东西，你所得的遗产启示了你，改变了你的生活，指引你走上了冒险的道路，同时它也可能会带来许多的危险，包括哪些窥探你遗产，（用力量，如果需要的话）想把他从你手中夺走的家伙。
+技能熟练：生存，从奥秘，历史，宗教中选择一个
+工具熟练：从游戏组或乐器中选择一个
+语言：任意一种你选择的语言
+装备：你继承的遗产，一套旅行衣服，一件你通过这个背景而获得熟练的工具，装着 15GP 的小包。
+特性：继承
+从表中选择或者随机一个你继承的遗产，和你的DM一起讨论决定出细节：你的遗产为何那么重要，它拥有的故事是什么？你可以让DM把这部分内容加入到整个游戏故事中，通过剧情让你和你的角色更多的了解这份遗产的故事。
+DM可以自由发挥你获得的遗产带来的故事，通过任务让你学习到更多有关遗产的历史或本质，或者面对那些想要抢夺这件东西的家伙，或者让你从中领悟到你到底追寻的是什么。DM也决定了这件遗产的属性和它所拥有的历史和价值。例如，这个物品可能是一小件魔法物品，或是一开始只有一点点能力的东西，但是随着时间流逝它的能力逐渐增长。亦或者，这件遗产起初可能是件毫不起眼的东西，但是只有在某些条件满足时，会恢复原本面貌。
+当你开始你的冒险时，你可以决定是否把你的遗产透露给你的同伴们，你也可以默默保守着这个秘密，直到你了解这件东西对你意味着什么和它能给你做些什么。</t>
+  </si>
+  <si>
+    <t>教团骑士</t>
+  </si>
+  <si>
+    <t>教团骑士 Knight of the Order
+你隶属于某个为达到某个目的而宣誓的骑士团。骑士团的本质目标决定了你宣誓的誓言，在你的眼中看来为达到这目的做出的誓言毫无疑问是光荣而重大并愿意为之努力奋斗的。费伦大陆上有着许许多多的骑士团，所有的骑士团们都有着关于他们行为和责任相似的展望。
+说到“骑士”就会认为是那些穿着重甲，有着贵族血统和骑士精神的高贵战士们，然而在费伦，骑士团们并没有把他们的入会资格限定的如此之高。对目标和理念的追求远远高于成员们装备和战斗风格的限定，因此骑士团中并不会限定战斗方式，并向所有愿意为教团理念战斗和献出生命的平民百姓们开放。
+“费伦大陆骑士团”边栏更好的介绍了几个在北地活跃的骑士团，可以帮助你决定哪个骑士团让你准备决定为之效忠。
+技能熟练：说服，从奥秘，历史和宗教中适合你教团的技能选择一个
+工具熟练：一种游戏组或乐器
+语言：一种你选择的语言
+装备：一件旅行衣服，一个徽记，代表你骑士团或是教团等级的旗帜或是印章，一个装有10GP的袋子。
+特性：骑士的敬重
+你会获得来自你的骑士团其他成员和那些与骑士团有着相同目标的人们的救助和避难。如果你的教团是一个宗教骑士团，你可以从信仰的神的神殿和其他宗教团体中获得帮助。服务人民的骑士团可以从某些为自己目标服务或是为整个国家服务的团体们寻求帮助。服务于某种理念的骑士团可以从曾近帮助过追寻理念的人们和那些与骑士团分享理念的人们获得帮助。
+这些帮助的方式来自他们提供的避难和食物，在适当之时为你治疗。偶尔也会有些危险，比如一群本地居民一同帮助一位在战斗中严重受伤的骑士，或是帮助一名受到不公正追捕的骑士秘密走私出城。
+建议特性：使用PHB中士兵的背景作为自己的基础特征和动机，在适当的时候修改点条目以适应你作为一名教团骑士。</t>
+  </si>
+  <si>
+    <t>费伦骑士团</t>
+  </si>
+  <si>
+    <t>费伦骑士团
+独角兽骑士Knights ofthe Unicorn.
+独角兽骑士一开始是由博德之门官僚家族的子女们对自由浪漫的追寻一时兴起而建立的教团。他们将独角兽女神拉芮Lurue作为他们的幸运神，骑马闯荡为了乐趣而冒险。用拉芮女神的原则来面对会出现的危险。随着时间的推移，这个小群体逐渐增长和传播开来，获得了甚至远自科米尔地区的人们追随。独角兽骑士们是有着骑士精神的冒险家，追随浪漫的理想：生活是多姿多彩的，生活是应该充满欢笑的，挑战并完成任务，追寻不可能的梦想，所有人都应该为他们的力量而获得赞美，为他们的弱点而获得安慰。
+密斯卓诺骑士Knights ofMyth Drannor.
+很久以前，密斯卓诺骑士团是一个非常有名的冒险团队，多芙·鹰手，著名的七姐妹中的一人就是其中的一员。这个过去式的团队是为了纪念曾经伟大但是陷落的城市而命名的，如今新建立的密斯卓诺骑士团也是如此。当这座城市再一次变为废墟时，多芙·鹰手决定要改革这个团体，把主要目标定为与世界上其他文明种族建立盟友关系，和善良的人们共同对抗邪恶。现在密斯卓诺骑士们再次骑行在谷地的大路上，他们已经开始向谷地之外的土地传播自己的理念，招收新人。每一个被多芙接纳成为骑士团一员的人，都是充满了勇气和忠诚之人。
+圣杯骑士Knights of the Silver Chalice.
+圣杯骑士团在一个世纪以前由半神赛雅茉芙（Siamorphe）颁布法令而成立。赛雅茉芙的精神是高贵的权利并有责任去执行它。这个半神通常每一代都会化身成不同的凡人贵族。</t>
+  </si>
+  <si>
+    <t>老佣兵</t>
+  </si>
+  <si>
+    <t>老佣兵 Mercenary Veteran
+作为一名为钱财而战的卖剑打手，你很熟悉如何以失去生命或肢体为风险赌注投入冒险。现在，你开始期待以冒险者的身份投入对敌战斗中，并以此收获更大的回报。你的经历使你得以熟悉佣兵生活的细节，而你甚至还带着一些在沙场上经历过的悲惨往事。你可能曾服务于某个大集团如散塔林会，或曾经作为“明檀 Mintarn”的士兵服役，你或许还曾经参与过其他一些更小规模的卖剑打手团体，而且可能还在多个团体间辗转。（见“北地的佣兵团”边栏中的一系列范例。）
+你现在正寻求某些其他的东西，也许是打算为所冒风险求得更大的回报，或是决定从此自由的活动。无论出于何种原因，你都决心将曾经作为受雇士兵的生涯抛于脑后，但你掌握的技能仍令你无可否认的适合战斗生涯，因此你仍然在战场里过活，只是以另一种不同的形式参与其中。
+技能熟练项： 运动，游说
+工具熟练项： 一种赌具，载具（陆运）
+装备： 所属兵团的制服（质量等同于旅行者服装），一块对应你军阶的勋章，你自选的一套赌局，装着你的上次军饷的小包（10gp）
+特性：佣兵生涯 Mercenary Life
+你拥有的生活经历，只有曾同样从事过佣兵生涯之人才能体会。你只要看到对方的徽记就能辨认出相应的佣兵团，你还知道该军团的某些情报，包括其指挥官和领导者的名字和声誉，以及最近雇佣他们的是何人。只要能说相应的语言，你在任何地方都能找到这些佣兵混迹的酒馆或宴会地。你总能在冒险中通过佣兵工作找到足够的钱来维持舒适程度的生活（见《玩家手册》 第 8 章“修整期活动”下的“专业实践”）。
+建议特征：使用 《玩家手册》 中“士兵”背景的诸表格为基础定出你的特征和动机，并适当调整各条目以适应你作为佣兵的身份。你的牵绊可能与曾经参与其中一同旅行的军团相关，或与其他曾作为同袍之人相关。你所抱持的理想大多维系于你的世界观和为之战斗的动机。</t>
+  </si>
+  <si>
+    <t>北地的佣兵团</t>
+  </si>
+  <si>
+    <t>北地的佣兵团 Mercenaries of the North
+无数佣兵团在剑湾和北地各处来回。其中大多是小规模行动，比如雇佣十几人至上百人以提供安保服务，狩猎怪物和土匪，或是为换得黄金而发动战争。一些组织如“散塔林会”“焰拳 FlamingFist”和“明檀 Mintarn”的本国都保有成百上千的成员供他人以足够资金雇佣为私人军队。下面介绍一些在北地运作的相关组织。
+寒爪 The Chill
+寒冷而神秘的“潜行森林 Lurkwood”是无数的类地精团体的家园，它们联合起来组成一个叫“寒爪 the Chill”的部落。跟大多数同类不一样，寒爪兵团并不会去袭击北地的居民，反而与之保持相对良好的关系，以此让对方雇佣自己作战。北地的各城邦很少会让自建的军队与寒爪并肩作战，但其中的几个国家会轻松愉快的付钱雇寒爪去对抗永恒荒野 Evermoors 的乌斯伽人 Uthgardt、兽人和巨魔，乃至其他威胁自己的文明。
+静雨 Silent Rain
+全员由精灵组成的静雨，是个从艾弗瑞思卡 Evereska 内运营的传奇雇佣兵团。静雨不关心金子或名声，他们只接受促进精灵事业或摧毁兽人、豺狼人之类生物的工作。发出委托的雇主必须先在艾弗瑞斯卡附近留下书面文本（以精灵语撰写），如果静雨兵团对委托有意，就会派出一名代表与对方接触。
+血斧 Bloodaxes
+约两个世纪前在桑达巴 Sundabar 建立的血斧最初只是一群因违反“铸魂者摩拉丁 Moradin Soulforger”其教义，而获罪被逐出自己氏族的矮人。于是他们开始以雇佣兵的方式为任何付得起钱的北地人服务。自那以后，该佣兵团开始接纳其他种族作自家成员，但其中的人或多或少都身为流亡者、罪犯或被排挤的异类，而他们最终都会将血斧当做自己新的开始和新的家园。</t>
+  </si>
+  <si>
+    <t>城市猎人</t>
+  </si>
+  <si>
+    <t>城市猎人 Urban Bounty Hunter
+你在成为冒险者前，生活中就已充满了冲突和兴奋，因为你是依靠追捕他人来赚钱过活。与某些收集赏金之人不同，你并不是个穿越荒野追捕猎物的荒蛮之人。你会在你居住之地参与一宗利润丰厚的买卖，然后一如既往的考验自己的技能与生存本能。此外，你还跟野外的赏金猎人不一样，你并不孤单：你时常与犯罪分子和其他赏金猎人进行互动，并同时游走于这两个区间并以此获取成功。
+你可能是个灵巧的捕快，时刻在屋顶上徘徊，捕捉城里数之不尽的窃贼。你或许是个非常熟悉街道之人，熟悉窃贼行会和街头帮派的所作所为。你可能是个戴“丝绒面具”的赏金猎人，以此混迹上流社会和贵族圈子，并在其中抓捕那掠夺富人之罪犯，而无论其是小偷小贼还是诈骗高手。你所在的社区可能是费伦的大城市之一（比如深水城或博德之门），或者是人口较少的地方（比如路斯坎 Luskan 或雅塔 Yartar），或是任何可能滋生猎物的地点。
+作为冒险队伍一员时，你可能会觉得当个人日程与团队目标相左时会出现某些困难。不过从另一角度看，你也可以利用同伴的帮助拿下更可怕的目标。
+技能熟练项： 从欺瞒、洞悉、游说、隐匿中选择两项
+工具熟练项： 从一种赌具、一种乐器和盗贼工具中选择两项
+装备： 适合你执勤用的一套服装和一个装着 20gp 的小包
+特性： 耳目众多 Ear to the Ground
+你经常与所选定猎物途径地区的社会人士接触。这些人可能与黑社会罪犯、街头莽汉或上流社会成员相关联。这种联系其形式为，每个你所访问的城市都存在一名相应的联络人，该人物会为你提供当地人文和地理的各种相关情报。
+建议特征：以 《玩家手册》 中“罪犯”背景诸表格为基础定出你的特征和动机，并适当调整各条目以适应你作为赏金猎人的身份。例如，你的牵绊可能与其他赏金猎人或某雇佣你的组织或个人相关。你的理想可能与你抓捕目标猎物的决心相关，或是与你获得可靠名声的渴望相关。</t>
+  </si>
+  <si>
+    <t>乌斯伽部族成员</t>
+  </si>
+  <si>
+    <t>乌斯伽部族成员 Uthgardt Tribe Member
+虽然你可能刚刚才来到文明之地，但在追求霸权的过程中，你对合作与集体努力的价值并不陌生。而你正是以乌斯伽部族成员的身份学会这些原则。
+你的同胞总喜欢坚持老方法。乌斯伽人秉持的传统和禁忌让他们得以在其他王国陷入混乱和毁灭后依然保持强大。但最近几代人里，一些部族的帮众开始想要定居，安于和平、贸易，甚至建起了城镇。也许这就是为何乌斯伽会在那些生活在其神力下之人中竖起其图腾。也许这些人需要被提醒一下自己的真实身份，自己源自何处。“乌斯伽的选民 Chosen of Uthfar”会带领帮众重回旧路，而大多数你的同胞都会放弃软弱的文明转向回归。
+你可能在一个已决定定居下来的部族中长大，而你的部族已决定放弃旧的行事方式，但你却依然摇摆不定。或者你也可以是遵循传统的乌斯伽人其中一分子，但你只想通过取得伟大功绩来为自己的部族带来荣耀。
+参阅第 2 章的“乌斯伽各地”一节，了解每个部族领地及其活动的详细情况，作为你选择自己归属的参考。
+技能熟练项： 运动，求生
+工具熟练项： 一种乐器或工匠工具
+语言： 自选一门语言
+装备： 狩猎陷阱，标志你忠于乌特加和你部族之图腾的图腾标志或一组纹身，一套旅行者服装和一个装着 10gp 的小袋。
+特性：乌斯伽之传承 Uthgardt Heritage 
+你不仅彻底了解自己部族之领地，还清楚北地其他地区的地形和自然资源。你熟悉所有的野外地区，而你在那里找到的食物和水的数量是平时的两倍。
+另外，你可以唤起他人的好客之道。受你该影响的对象包括你的同胞，以及那些与你部族结盟之人，通常包括有德鲁伊结社、精灵游牧部族、竖琴手同盟等团体的成员，以及那些献身于“第一结社 First Circle”众神的祭祀者。
+建议特征：使用 《玩家手册》 中“化外之民”背景的诸表格为基础定出你的特征和动机，并适当调整各条目以适应你作为乌斯伽人部族成员的身份。
+即使已经离开了自己的部族（至少现在是这样），但你仍坚持以同胞的传统过活。你绝不会砍下一棵仍活着的树，且不会不赞同相同的事在眼前发生。乌斯伽人的“祖丘 ancestral mounds”——作为乌斯伽保护其图腾精魂所在，以及部族各英雄埋葬之处的大丘陵，被你视为神圣之地。
+你的牵绊很可能与你的部族或某些乌斯伽人的哲念或文化相关（甚至可能与乌斯伽自身相关）。你的理想是个人的选择，它可能与你同胞的风土人情密切相关，当然也不会与你身为乌斯伽人所代表的其他东西相违背或妥协。</t>
+  </si>
+  <si>
+    <t>费伦的野蛮人部族</t>
+  </si>
+  <si>
+    <t>费伦的野蛮人部族 Barbarian Tribes of Faerun
+虽然本节只介绍了乌斯伽民族，但其内容以及 《玩家手册》的“化外之民”背景都可用于源自其他费伦野蛮人部族的角色。你可以是个一头金发的瑞格 Reghed 野蛮人，住在远离北地靠近“冰风谷 lcewind Dale”的“瑞格冰川 Reghed Glacier”阴影之下。你也可以是因野蛮狂战士和戴着面具巫婆而出名的莱瑟曼Rashmi 游牧民。你也许来自“琼达尔森林 Chondalwood”的某个木精灵部族，或是来自楚尔特 Chult 闷热丛林里的某个充满魔法的人类部族中。</t>
+  </si>
+  <si>
+    <t>深水人贵族</t>
+  </si>
+  <si>
+    <t>深水人贵族 Waterdhavian Noble
+你是深水城某伟大贵族家族之后裔。作为小心翼翼地守护自己在“光辉之城 City of Splendors”的特权与地位之人类家族，深水人贵族们在整个费伦因其骄奢和富有而享有盛名。
+不管你是这个名声的光辉榜样还是作为该规则的例外，当人们知道你姓氏及其含义时，便会对你有所期待。你投身冒险的理由某种程度上可能与你的家人相关：你是否作为家族异类，喜欢钻到肮脏地下城的舞会里喝一小口“兹沙zzar”？或是你是为家人的利益而拿起剑与法术，以确保他们能有个有名望之人作为传承？
+你要与DM一起决定自己所属之家族——在深水中有大约七十五个血统，其中的每个家族都保有其自己独特的偏好经济来源、专职和谋划。你可能是家族中的当主一脉的成员，也可能终有一天成为他们的领袖。或者你也可能属于众多表亲血脉其一，而他们的声望较低其负担的责任也更少。
+技能熟练项： 历史，游说
+工具熟练项： 一种赌具或一种乐器
+语言： 自选一门语言
+装备： 一套高档服装，一枚玺戒或胸针，一份族谱，一皮袋的高档 “兹沙 zzar ” 或红酒，以及一个装有 20gp 的小包
+特性：保持风度 Kept in Style
+在深水城或北地其他地方时，你的家族会确保你的每日的日常用度。你的名字与玺印就足以支付大部分的费用，而你经常光顾的旅店、酒馆和餐馆都很乐于记下你的债务，并将账单寄给你的家人以解决你欠下的债务。
+这种优势使你能过上舒适的生活，而不必每天支付 2 gp的费用，也可以减少富裕或奢华程度生活的成本。你不能以更低价的生活方式来将这只生活费当做收入——这种得益属于信用体系，而不是明确的货币奖励。
+建议特征：使用《玩家手册》中 “贵族”背景的诸表格为基础定出你的特征和动机，并适当调整各条目以适应你作为深水人家族一员的身份。
+和其他贵族一样，你出生和成长的世界与大多数人的认知不同——这是种给予你特权，但同时也要求你履行相应义务的身份。你的牵绊可能与所属家族相关，也可能与另一个与所属家族同盟或敌对的贵族家族相关。你的理想某种程度上取决于你如何看待自己在家庭中的角色，以及你打算如何在世上表现你作为家族代表的身份。</t>
   </si>
 </sst>
 </file>
@@ -935,7 +1357,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -946,6 +1368,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
@@ -1296,19 +1721,19 @@
   <sheetPr/>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="2" width="20" style="2" customWidth="1"/>
-    <col min="3" max="3" width="93.2222222222222" style="5" customWidth="1"/>
-    <col min="4" max="4" width="29.3333333333333" style="2" customWidth="1"/>
+    <col min="3" max="3" width="93.2181818181818" style="6" customWidth="1"/>
+    <col min="4" max="4" width="29.3363636363636" style="2" customWidth="1"/>
     <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="1" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1328,7 +1753,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="2" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -1341,7 +1766,7 @@
       </c>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="3" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -1354,7 +1779,7 @@
       </c>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="4" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -1369,7 +1794,7 @@
       </c>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="5" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
@@ -1384,19 +1809,19 @@
       </c>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="6" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="7" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="8" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1416,16 +1841,16 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="18.1851851851852" customWidth="1"/>
+    <col min="1" max="1" width="18.1818181818182" customWidth="1"/>
     <col min="3" max="3" width="103.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="1" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1445,7 +1870,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="2" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -1457,7 +1882,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="3" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -1469,7 +1894,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="4" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -1481,35 +1906,452 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="5" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="6" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="7" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="8" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="9" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="F9" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="15.0909090909091" customWidth="1"/>
+    <col min="3" max="3" width="117.545454545455" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A16" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A18" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A19" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A20" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A21" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A22" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A23" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A24" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A25" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A26" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A27" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A28" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A29" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="F34" s="4"/>
+    </row>
+    <row r="35" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="F35" s="4"/>
+    </row>
+    <row r="36" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="F36" s="4"/>
+    </row>
+    <row r="37" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="F37" s="4"/>
+    </row>
+    <row r="38" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="F38" s="4"/>
+    </row>
+    <row r="39" s="2" customFormat="1" ht="14.4" customHeight="1" spans="2:2">
+      <c r="B39" s="5"/>
+    </row>
+    <row r="40" s="2" customFormat="1" ht="14.4" customHeight="1" spans="2:2">
+      <c r="B40" s="5"/>
+    </row>
+    <row r="41" s="2" customFormat="1" ht="14.4" customHeight="1" spans="2:2">
+      <c r="B41" s="5"/>
+    </row>
+    <row r="42" s="2" customFormat="1" ht="14.4" customHeight="1" spans="2:2">
+      <c r="B42" s="5"/>
+    </row>
+    <row r="43" s="2" customFormat="1" ht="14.4" customHeight="1" spans="2:2">
+      <c r="B43" s="5"/>
+    </row>
+    <row r="44" s="2" customFormat="1" ht="14.4" customHeight="1" spans="2:2">
+      <c r="B44" s="5"/>
+    </row>
+    <row r="45" s="2" customFormat="1" ht="14.4" customHeight="1" spans="2:2">
+      <c r="B45" s="5"/>
+    </row>
+    <row r="46" s="2" customFormat="1" ht="14.4" customHeight="1" spans="2:2">
+      <c r="B46" s="5"/>
+    </row>
+    <row r="47" s="2" customFormat="1" ht="14.4" customHeight="1" spans="2:2">
+      <c r="B47" s="5"/>
+    </row>
+    <row r="48" s="2" customFormat="1" ht="14.4" customHeight="1" spans="2:2">
+      <c r="B48" s="5"/>
+    </row>
+    <row r="49" s="2" customFormat="1" ht="14.4" customHeight="1" spans="2:2">
+      <c r="B49" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/builtins/data/helpdoc/DND/04_剑湾冒险者指南SCAG.xlsx
+++ b/builtins/data/helpdoc/DND/04_剑湾冒险者指南SCAG.xlsx
@@ -4,14 +4,27 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7270" activeTab="2"/>
+    <workbookView windowWidth="20955" windowHeight="11475" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="SCAG法术" sheetId="1" r:id="rId1"/>
-    <sheet name="SCAG种族" sheetId="3" r:id="rId2"/>
-    <sheet name="SCAG背景" sheetId="4" r:id="rId3"/>
+    <sheet name="SCAG种族" sheetId="3" r:id="rId1"/>
+    <sheet name="SCAG背景" sheetId="4" r:id="rId2"/>
+    <sheet name="SCAG职业" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -25,11 +38,9 @@
       <text>
         <r>
           <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
+            <sz val="10"/>
             <rFont val="宋体"/>
-            <scheme val="minor"/>
-            <charset val="0"/>
+            <charset val="134"/>
           </rPr>
           <t>查询关键字</t>
         </r>
@@ -39,11 +50,9 @@
       <text>
         <r>
           <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
+            <sz val="10"/>
             <rFont val="宋体"/>
-            <scheme val="minor"/>
-            <charset val="0"/>
+            <charset val="134"/>
           </rPr>
           <t>选填, 关键字同义词, 用/分割</t>
         </r>
@@ -53,11 +62,9 @@
       <text>
         <r>
           <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
+            <sz val="10"/>
             <rFont val="宋体"/>
-            <scheme val="minor"/>
-            <charset val="0"/>
+            <charset val="134"/>
           </rPr>
           <t>词条内容</t>
         </r>
@@ -67,11 +74,9 @@
       <text>
         <r>
           <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
+            <sz val="10"/>
             <rFont val="宋体"/>
-            <scheme val="minor"/>
-            <charset val="0"/>
+            <charset val="134"/>
           </rPr>
           <t>选填, 对于词条的简短描述</t>
         </r>
@@ -81,11 +86,9 @@
       <text>
         <r>
           <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
+            <sz val="10"/>
             <rFont val="宋体"/>
-            <scheme val="minor"/>
-            <charset val="0"/>
+            <charset val="134"/>
           </rPr>
           <t>选填, 该词条被归在哪一个目录下, 用/分割父子目录</t>
         </r>
@@ -95,11 +98,9 @@
       <text>
         <r>
           <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
+            <sz val="10"/>
             <rFont val="宋体"/>
-            <scheme val="minor"/>
-            <charset val="0"/>
+            <charset val="134"/>
           </rPr>
           <t>选填, 内容的Tag, 如#核心 #法术</t>
         </r>
@@ -274,7 +275,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="118">
   <si>
     <t>Key</t>
   </si>
@@ -294,73 +295,10 @@
     <t>Tag</t>
   </si>
   <si>
-    <t>轰雷剑</t>
-  </si>
-  <si>
-    <t>轰雷剑 Booming Blade
-术士、邪术师、法师
-塑能 戏法
-施法时间：1动作
-施法距离：5尺
-法术成分：V、M（一把武器）
-持续时间：1 轮
-作为施展这个法术的一部分，你必须用你的武器对施法距离内的一个生物进行一次近战攻击，否则法术失败。如果攻击命中，目标受到这次攻击的正常影响，并且被包覆在爆发性的能量之中直到你的下回合开始。如果目标在这之前自愿进行了一次移动，他将立即受到1d8的雷鸣伤害，并且法术结束。
-戏法的伤害随着你的等级提升而增加。在你5级的时候，这次近战攻击将造成额外1d8雷鸣伤害，并且目标进行移动时受到的伤害提升为2d8。所有伤害骰都会在11级和17级的时候增长1d8。</t>
-  </si>
-  <si>
-    <t>剑湾冒险者指南中的法术</t>
-  </si>
-  <si>
-    <t>翠炎剑</t>
-  </si>
-  <si>
-    <t xml:space="preserve">翠炎剑 Green-Flame Blade
-术士、邪术师、法师
-塑能 戏法
-施法时间：1动作
-施法距离：5尺
-法术成分：V、M（一把武器）
-持续时间：立即
-作为施展这个法术的一部分，你必须用你的武器对施法距离内的一个生物进行一次近战攻击，否则法术失败。如果攻击命中，目标受到这次攻击的正常影响，并且翠绿色的火焰将从目标身上跳转至另一个生物。这个生物必须在第一个目标周围5尺之内，并且你可以看见；它将受到等于你施法主属性的调整值的火焰伤害。
-戏法的伤害随着你的等级提升而增加。在你5级的时候，这次近战攻击将造成额外1d8火焰伤害，且第二个目标将受到的伤害提升至1d8+你的施法关键属性调整值。所有伤害骰都会在11级和17级的时候增长1d8。
-</t>
-  </si>
-  <si>
-    <t>闪电牵引</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>闪电牵引 Lightning Lure
-术士、邪术师、法师
-塑能 戏法
-施法时间：1动作
-施法距离：15尺半径
-法术成分：V
-持续时间：立即
-你创造出鞭状的闪电能量袭击射程内你可以看见的一个生物。目标必须进行一次力量豁免；若失败，目标将以直线被你拉近10尺。如果拉近以后目标在你周围5尺内，那么他将受到1d8闪电伤害。
-第5级时，本法术的伤害增加1d8（变为2d8）。11级时再增加1d8（变为3d8），17级时再增加1d8（变为4d8）。</t>
-  </si>
-  <si>
-    <t>剑刃爆发</t>
-  </si>
-  <si>
-    <t>剑刃爆发 Sword Burst
-术士、邪术师、法师
-咒法 戏法
-施法时间：1动作
-施法距离：5尺
-法术成分：V
-持续时间：立即
-你制造出一圈短暂存在的半透明利刃来清扫周围。施法距离内除你以外的每个生物都必须成功通过一次敏捷豁免，否则将受到1d6的力场伤害。
-第5级时，本法术的伤害增加1d6（变为 2d6）。11级时再增加1d6（变为3d6），17级时再增加1d6（变为4d6）。</t>
-  </si>
-  <si>
     <t>鬼智半身人</t>
   </si>
   <si>
-    <t>鬼智半身人
+    <t>鬼智半身人 Ghostwise Halflings
 鬼智半身人的祖先在同族迁居到鲁伦时选择向他们发起战争。鬼智半身人是半身人当中最罕见的，如今他们主要以氏族的形式聚集在琼德尔森林和少数其他孤立的森林中。
 许多鬼智半身人氏族会甄选一块自然的地标作为他们氏族领土的中心，他们的成员在任何时候都会携带分离自那块地标之上的一小片。他们拥有骑乘着巨猫头鹰的、被称为夜骑者的氏族武士。
 由于这些氏族对于外族的态度排外且不信任，因此鬼智半身人冒险者十分少见。询问你的DM你是否可以扮演这个种族的一员。使用玩家手册中的半身人特性，再加上以下亚种特性。
@@ -368,25 +306,22 @@
 鬼灵言语：你可以向你30尺内的任何生物如同心灵感应般进行沟通。生物必须与你共同知晓一种语言才能理解你的发言。你通过这个方式每次只能和一名生物进行心灵沟通。</t>
   </si>
   <si>
-    <t>#SCAG</t>
-  </si>
-  <si>
     <t>半精灵变体</t>
   </si>
   <si>
-    <t>半精灵变体
-一些费伦的半精灵保留了他们的血统特质在多才多艺特性的位置。如果你的DM允许，你的半精灵角色可以放弃多才多艺特性，并且用精灵的敏锐感官特性或者是以下基于你精灵血统的选项其中之一来取代：
-拥有木精灵血统的半精灵可以选择木精灵武器训练，轻捷步伐，或者是野性面具特性。
-拥有月精灵或者日精灵血统的半精灵可以选择高等精灵武器训练或者戏法特性。
-拥有卓尔精灵血统的半精灵可以选择卓尔魔法特性。
-拥有水生血统的半精灵可以选择30尺的游泳速度。
-注：在剑湾冒险者指南中，日精灵和月精灵使用玩家手册中的高等精灵的数据。</t>
+    <t>半精灵变体 Half-Elf Variants
+一些费伦的半精灵用自己的血统特质代替了“多才多艺”特质。如果你的 DM 允许，你的半精灵角色可以放弃“多才多艺”特性，并用以下基于你精灵血统的选项其中之一来取代：
+·拥有木精灵血统的半精灵可以选择木精灵武器训练，轻捷步伐，或者是野性面具特性。
+·拥有月精灵血统或者日精灵血统的半精灵可以选择高等精灵武器训练或者戏法特性。
+·拥有卓尔精灵血统的半精灵可以选择卓尔魔法特性。
+·拥有水生精灵血统的半精灵可以选择30尺的游泳速度。
+（注：在剑湾冒险者指南中，日精灵和月精灵使用玩家手册中的高等精灵的数据。）</t>
   </si>
   <si>
     <t>提夫林变体</t>
   </si>
   <si>
-    <t>提夫林变体
+    <t>提夫林变体Thefling Variants
 并非所有提夫林的血脉都来自阿斯蒙蒂斯，一些提夫林与玩家手册上的提夫林有着显著不同的区别。地下城主可能允许你的提夫林角色使用以下变体，虽然魔鬼之舌、地狱之火和飞翼特性是相互排斥的。
 外观：你的提夫林看起来或许和其他提夫林很不一样。取代玩家手册里你在外观上的物理特征，从以下特征中选择1d4+1项：小型犄角，长或者锋利的尖牙，分叉的舌头，猫瞳，每只手上六根手指，山羊腿，偶蹄，分叉的尾巴，革状或者带鳞片的皮肤，红色或者深蓝色的皮肤，无法投下影子或者映像，发散出硫磺般的气味。
 野性：你的智力+1，并且你的敏捷+2。这取代了你的属性值提升特性。
@@ -398,68 +333,79 @@
     <t>城市守卫</t>
   </si>
   <si>
-    <t>城市守卫 City Watch
-当你长大之时，你加入了城市守卫，并且坚定的站在了对抗犯罪的第一线。你并不是一名士兵，注意着外来的敌人，相反你是服务于你的城镇，帮助民众们处理罪犯，从犯法者和作恶者们手上保护城市。
-技能熟练：运动，洞察
-语言：两种由你选择的语言
-装备：一件你所在组织的标示你军衔的制服，一个用来召唤帮手的号角，一副手铐，一个装有10金币的袋子
-特性：守护者之眼
-你对执行法律、处理犯法者有着丰富的经验，这给了你对法律和犯罪异常敏感的感觉。你能很容易的找到守卫的哨站或是一些类似的组织，也能轻易的发现犯罪者们活动的窝点，同时你也在前者更容易受到欢迎。
+    <t>城市守卫 City Watch 
+当你长大之时，你加入了城市守卫，并且坚定的站在了对抗犯罪的第一线。你并不是一名抵御外来敌人的战士，相反，你是服务于你的城镇，帮助民众们处理罪犯，从犯法者和作恶者们手上保护城市。（未翻译完全，以下是原文） 
+You have served the community where you grew up, standing as its first line of defense against crime. You aren't a soldier, directing your gaze outward at possible enemies. Instead, your service to your hometown was to help police its populace, protecting the citizenry from lawbreakers and malefactors of every stripe.
+You might have been part of the City Watch of Waterdeep, the baton-wielding police force of the City of Splendors, protecting the common folk from thieves and rowdy nobility alike. Or you might have been one of the valiant defenders of Silverymoon, a member of the Silverwatch or even one of the magic-wielding Spellguard.
+Perhaps you hail from Neverwinter and have served as one of its Wintershield watchmen, the newly founded branch of guards who vow to keep safe the City of Skilled Hands.
+Even if you're not city-born or city-bred, this background can describe your early years as a member of law enforcement. Most settlements of any size have their own constables and police forces, and even smaller communities have sheriffs and bailiffs who stand ready to protect their community.
+技能熟练项：运动、洞悉
+语言：两门自选语言
+装备：一件你所在派系的标示你军衔的制服，一个用来召唤帮手的号角，一副手铐，以及一个装有10gp的小包
+特性：守卫者之眼
+Feature: Watcher's Eye
+你对执行法律、处理违法者有着丰富的经验给予了你对当地法律和罪犯的敏锐感观。你能很容易的找到守卫的哨站或是一些类似的派系，也能轻易的发现社区中犯罪者们活动的窝点。当然，你在想在前者的官方派系受欢迎，而非后者。
 变体：调查员
-比警戒或是巡逻人员更稀有的是组织的调查员，专门负责调查犯罪后的真相。尽管这些人很少出现在乡村地带，几乎每一个像样规模的案子都会有一个或者两个有调查犯罪现场和追踪罪犯技能的调查员。如果你曾经是一名调查员，则你可以将熟练项中的运动技能替换为调查技能。
-建议特性：使用PHB中士兵背景作为你的基础特征和动机，在适当的时候修改条目以适应你作为城市守卫的一员。</t>
+Variant: Investigator
+比警戒或是巡逻人员更稀有的是派系的调查员，专门负责调查犯罪后的真相。尽管这些人很少出现在乡村地带，几乎每一个像样规模的案子都会有一个或者两个有调查犯罪现场和追踪罪犯技能的调查员。如果你曾经是一名调查员，则你可以将背景的运动技能熟练项替换为调查技能熟练项。
+建议特征Suggested Characteristics
+使用《玩家手册》中“士兵”的特征表格作为你的基础特征和动机，并在适当的时候修改条目以让其符合你作为城市守卫的身份。
+    你的羁绊可能会关联于你城市守卫的同袍们、或是守卫派系本身，且几乎确定会与你所在的社会有关。你的理念可能会包括促进和平与安全。而一名调查员则可能会有着与借由破案来实现正义有关的理念。</t>
   </si>
   <si>
     <t>宗族工匠</t>
   </si>
   <si>
-    <t>氏族工匠</t>
-  </si>
-  <si>
-    <t>氏族工匠Clan Crafter
-矮人们以他们工艺和手工的价值而闻名，而你则一直在接受这门技艺的训练。多年来，你一直在一名矮人大师的门下学习磨练，为的就是今日你所拥有的好技艺。
-你一般来说应该是一名矮人，但这并不是必要的-特别是在北地，盾矮人部族们在很久之前就已经学到了只有自傲的傻瓜们才会在意学徒们的手艺会超过自己而拒绝收受徒弟，即使是其他种族的学徒。如果你不是一名矮人，无论如何你必须立下一个庄重的誓言，永远不接收这门工艺的学徒：这并不是为了非矮人们通过这门摩拉丁青睐的孩子们的技艺考核。你会毫无困难的找到一名矮人大师愿意接受你作为学徒并传授你这门技艺。
-技能熟练：历史，洞察
-工具熟练：一种自选的匠人工具
-语言：矮人语或者如果你已经熟悉矮人语了就自选一种语言
-装备：一种你所熟练的匠人工具，一个用来标示出你是从哪个宗族学习何种手工技艺的徽记，一件旅行者衣服，一个有5gp的小包和一块价值10gp的宝石。
+    <t>宗族工匠Clan Crafter 
+The Stout Folk 以他们工艺和手工的价值而闻名，而你则一直在接受这门技艺的训练。多年来，你一直在一名矮人大师的门下学习磨练，为的就是今日你所拥有的好技艺。 
+你很可能是一名矮人，但这并不是必定的——特别是在北地，盾矮人部族们在很久之前就已经学到了只有自傲的傻瓜们才会在意学徒们的手艺会超过自己而拒绝收受徒弟，即使是其他种族的学徒。如果你不是一名矮人，无论如何你必须立下一个庄重的誓言，你在这门工艺上绝不收徒：只因这并非是为非矮人们传承这门摩拉丁青睐的子民们的技艺。不过，你能很轻松的找到一名矮人大师传授你技艺之余，传授被你推荐而来的人们这门技艺。
+技能熟练项：历史，洞察
+工具熟练项：一种自选的工匠工具
+语言：矮人语，或如果你已经熟悉矮人语了就自选一门语言
+装备：一套你所熟练的工匠工具，一个用来标示出你是从哪个宗族学习何种手工技艺的作者徽记，一套旅行者服装，以及一个有5gp的小包和一块价值10gp的宝石。
 特性：矮人的尊敬
-没有人会像矮人们一样对作为宗族工匠的外来者一样高度尊重。你通常能在盾矮人或者金矮人居住的地方免费获得食宿，矮人们还可能会彼此竞争来决定谁提供给你（也可能是你的同胞）最好的食宿和帮助。
-建议特性：使用PHB中行会工匠的背景作为自己的基础特征和动机，在适当的时候修改点条目以适应你作为宗族工匠的一员。（例如考虑把“公会”和“宗族”互换）</t>
-  </si>
-  <si>
-    <t>隐修学者</t>
+Feature: Respect of the Stout Folk
+没有任何人能像矮人们一样，对外来者与宗族工匠抱有着一样的高度尊重。你通常能在盾矮人或者金矮人居住的地方免费获得食宿，矮人们还可能会彼此竞争来决定谁提供给你（也可能是你的同胞）最好的食宿和帮助。
+建议特征Suggested Characteristics 
+使用《玩家手册》中“公会工匠”的特征表格作为你的基础特征和动机，并在适当的时候修改条目以让其符合你作为宗族工匠的身份。（例如考虑把“公会”和“宗族”两个词 互换一下）
+    你的羁绊几乎确定会关联于教导你技艺的师傅或氏族、或与你所从事的工作有关。你的理念可能会与维持高品质的工作成果或保存矮人的传统工艺有关。</t>
   </si>
   <si>
     <t>与世隔绝的学者</t>
   </si>
   <si>
-    <t>隐修学者 Cloistered Scholar
-孩提时代，好奇的你与喧闹和孤独为伴。在你成长的岁月中，你发现了一所费伦最伟大的学习学院，你在那里学习，并认为知识是比黄金宝石更为有价值的财富。现在，你已经准备好了离开你的居所-并不是放弃它，而是寻找新的知识来充实它。
+    <t>与世隔绝的学者 Cloistered Scholar 
+孩提时代，好奇的你与喧闹和孤独为伴。在你成长的岁月中，你发现了一所费伦最伟大的学习学院，你在那里学习，并认为知识是比黄金宝石更为有价值的财富。现在，你已经准备好了离开你的居所-并不是放弃它，而是寻找新的知识来充实它。 
 费伦最知名的知识之所是烛堡。这所最伟大的图书馆总是会需要工人和仆人，一些人还会被升格成为拥有重大突出责任等级的角色。你可能是其中一名烛堡的拥有者，致力于做一个完善这个世界的学识体系和历史的管理者。
-技能熟练：历史，从奥秘，自然和宗教中选择一个
-语言：你选择的两种语言
-装备：代表你学院的学者长袍，一份书写工具（一个装着羽毛笔，墨水，折叠起来的羊皮纸，一把小拆信刀），一本从学院中借出阅读的书籍和一个装着10gp的小包。
+技能熟练项：历史，外加从奥秘、自然、宗教之中你选择的一项
+语言：两门自选语言
+装备：代表你学院的学者长袍，一份书写工具（一个装着羽毛笔，墨水，折叠起来的羊皮纸，一把小拆信刀），一本从学院中借出阅读的书籍，以及一个装着10gp的小包。
 特性：图书馆使用权
-尽管在你的图书馆中其他人们需要经常忍受大量的面试和缴纳一定的费用来获得通用档案室的资料，你将能免费并且能进入图书馆的大部分区域，即使是那些不对外人开放的有着太多价值的知识，魔力，或是秘密的区域。
-你有着你学院人员和机构的应用知识，你知道如何将两者轻松的联系起来。
-此外，你作为一个专业礼貌的学者，在世界上其他的图书馆中也可能获得优惠待遇。
-建议特性：使用PHB中贤者的背景作为自己的基础特征和动机，在适当的时候修改点条目以适应你作为学者的一员。</t>
+Feature: Library Access
+尽管在你的图书馆中其他人们需要经常忍受大量的面试和缴纳一定的费用来获得通用档案室的资料，你将能免费并且能进入图书馆的大部分区域，即使是那些有着太多价值的知识、魔力、或秘密的不对外人开放的区域。
+你有着你学院人员和机构的应用知识，你还知道如何将两者轻松的联系起来。
+此外，你作为一个专业礼貌的学者，在Realms世界上其他的图书馆中也可能获得优惠待遇。
+建议特征Suggested Characteristics 
+使用 《玩家手册》中“贤者”的特征表格作为你的基础特征和动机，并在适当的时候修改条目以让其符合你作为学者的身份。
+    你的羁绊几乎确定会关联于成长的场所、或是你希望在冒险过程中获得的知识。你的理念无疑会与你看待对知识和真理的追求有关──也许这本身就是个具有价值的目标，又或者它只不过是通往理想目标的一种手段。</t>
   </si>
   <si>
     <t>朝臣</t>
   </si>
   <si>
-    <t>朝臣Courtier
-早些时候，你是一名贵族法院或者官场的重要人士。你可能或者不是来自某个上流社会的家族之中；你用你的才能，而不是你出生的背景让你赢得了这个位置。
+    <t>朝臣Courtier 
+早些时候，你是一名贵族法院或者官场的重要人士。你可能或者不是来自某个上流社会的家族之中；你用你的才能，而不是你出生的背景让你赢得了这个位置。 
 你可能是一名银月法庭的政府人员，仆人，或者是随从。亦或你旅行至深水城时被招募成为某个杀手公会，贵族，冒险家或秘密社团的一员。你可能是一个在博德之门或是无冬城维护法纪的幕后工作人员。亦可能成长在匕首滩城堡之中。
-即使你已不再是那个给了你生活的开始的组织中的一员，你与以前同事们之间的人际关机可以给你和你冒险伙伴们一些优势。你也可能会和现在新的伙伴们从之前的组织中接到任务。在任何情况下，你曾经作为朝臣的能力会使你在冒险生活中处于更有利的境地。
-技能熟练：洞察，游说
-语言：两种你选择的语言
+即使你已不再是那个给了你生活的开始的派系中的一员，你与以前同事们之间的人际关机可以给你和你冒险伙伴们一些优势。你也可能会和现在新的伙伴们从之前的派系中接到任务。在任何情况下，你曾经作为朝臣的能力会使你在冒险生活中处于更有利的境地。
+技能熟练项：洞悉，游说
+语言：两门自选语言
 装备：一套华丽的服装和一个装有5gp的小包
-特性：官员
-你拥有的对官场如何运作的知识让你获得你所遇到过的贵族政议院和政府中访问档案和内部运作的能力。你了解是谁在背后操纵着神秘，你知道需要支持时应该去找谁，目前这些组织感兴趣的阴谋又是哪些。
-建议特性：使用PHB中行会工匠的背景作为自己的基础特征和动机，在适当的时候修改点条目以适应你作为一名朝臣。</t>
+特性：宫廷官员
+Feature: Court Functionary
+你拥有的对官场如何运作的知识让你获得你所遇到过的贵族政议院和政府中访问档案和内部运作的能力。你了解是谁在背后操纵着神秘，你知道需要支持时应该去找谁，目前这些派系感兴趣的阴谋又是哪些。
+建议特征 Suggested Characteristics 
+使用《玩家手册》中“公会工匠”的特征表格作为你的基础特征和动机，并在适当的时候修改条目以让其符合你作为朝臣的身份。
+你开始工作时所在的贵族政议院或官僚机构会直接或间接的关联于你的羁绊（可能会与派系中的某个人物有关，像是你的教父或导师）。你的理念可能会与你政议院或派系中主流的哲学思想有关。</t>
   </si>
   <si>
     <t>派系特工</t>
@@ -468,136 +414,109 @@
     <t>组织代理人</t>
   </si>
   <si>
-    <t>组织代理人/派系特工Faction Agent
-有许多的组织活跃在北地和费伦大陆的表面，他们并不会收到地理位置限制。这些组织会追寻他们的理念，有时候甚至不会遵循政治方面的界限，只要组织认为有必要，任何地点都可以有他们成员的存在。这些组织会雇佣一些听众，造谣者，走私者，佣兵，秘密守护者（那些专门守护为组织所用的财宝或是魔法的守卫们），港口看守，信使等等人员来做一些事情。
-一个组织的核心人员们并不只是执行某个细小的功能，而是成为组织的臂膀，心脏和脑袋。
-在你冒险故事的开始（准备阶段），你以某个费伦中特定组织代理人的身份存在。你可能由于你自身公开或私密的目的依靠这个组织和它追寻的理想。成为一个冒险者并不需要你放弃现有加入的组织（虽然你也可以这么做），说不定这段冒险还会提升你在组织中的地位呢。
-技能熟练：洞悉，一种自选的作为适合你组织的智力、感知、魅力技能
-语言：两种自选语言
-装备：一个标示你所属组织的徽章或标志。一份你们组织文件的手抄本（或一份你们组织使用的密文本），一套普通衣服，一个装有15gp的小包。
-剑湾各派系：见词条“剑湾各派系”
+    <t>派系特工 Faction Agent 
+有许多的派系活跃在北地和费伦大陆的表面，他们并不会收到地理位置限制。这些派系会追寻他们的理念，有时候甚至不会遵循政治方面的界限，只要派系认为有必要，任何地点都可以有他们成员的存在。这些派系会雇佣一些听众，造谣者，走私者，佣兵，秘密守护者（那些专门守护为派系所用的财宝或是魔法的守卫们），港口看守，信使等等人员来做一些事情。 一个派系的核心人员们并不只会执行那些小任务，他们会是派系的臂膀、心脏、头脑。 
+在你冒险故事的开始（准备阶段），你以某个费伦中特定派系的特工身份存在。你可能由于你自身公开或私密的目的依靠这个派系和它追寻的理想。成为一个冒险者并不需要你放弃现有加入的派系（虽然你也可以这么做），说不定这段冒险还会提升你在派系中的地位呢。
+技能熟练项：洞悉，外加一个你自选的适合你派系的智力、感知、魅力技能
+语言：两门自选语言
+装备：一个标示你所属派系的徽章或标志，一份你们派系文件的手抄本（或一份你们派系使用的密文本），一套普通服装，以及一个装有15gp的小包。
+剑湾中的派系
+Factions of the Sword Coast
+由于在北地缺乏大型集中政权的政府，在剑湾这片土地上分布着许许多多和剑湾政治阴谋有着密切关联的隐秘派系。如果你的背景是一名北地主要派系的特工的话，以下介绍可能对你有所帮助。
+竖琴手联盟The Harper。 自成立多年以来，竖琴手联盟经历了多次的解散和重组，如今他们仍旧是一个有着强大实力的幕后派系，他们喜欢更多的通过公理和知识来阻止邪恶的行为，而不是运用暴力。竖琴手表通常熟练于调查（Investigation），这让他们能够熟练的进行窃听，间谍活动。他们通常会向其他竖琴手，共同理念的吟游诗人，旅店老板，游侠和与竖琴手联盟相同理念的神的神职人员寻求援助。
+铁手套骑士团The Order of the Gauntlet。 作为费伦大陆上一个新起的力量，铁手套骑士团有着和竖琴手联盟相似的理念。然而他们的方式截然不同：铁手套的教义是作为神圣的战士在寻求真理的道路上摧毁邪恶，倡导公正，他们从来不会将自己隐藏在阴影之下。骑士团成员们熟练于 宗教（ Religion），且通常会向与他们理念相同的执法部门，或是教员们信仰的神的神职人员们寻求援助。
+翠绿闲庭 the Emerald Enclave。 保持自然秩序的平衡和对抗破坏这种平衡的力量，这是翠绿闲庭的两个目标。这个派系中的人员通常是野外生存大师，并且以这片土地为生。他们通常熟练于自然（Nature）技能，当他们遇到困难时，会从树人，猎人，游侠，野蛮人部落，德鲁伊集舍和信奉自然之神的神职人员那里寻求帮助。
+领主联盟 The Lords` Alliance。 在某种程度上说，领主联盟的特工们就代表了所在的城市，还有构成联盟的国家和政府。但是作为一个关切集体利益的联合派系，它跨越在本地政治和地理领土之上，领主联盟通过工作在各个联盟城市内的工作人员的日常工作，架设起了自己独有的派系结构。一个联盟特工需要对历史（History）知识有深厚的了解，在他们遇到困难时，会向所属联盟的政府，还有其他支持联盟理念的领导人和派系寻求帮助。
+散塔林会 The Zhentarim。 近年来，散塔林会通过改善它们在普通人中的名声，成为世界上最显眼的一个派系。这个派系吸收来自各行各业的工作人员和合作者，让他们以达成以暗黑情报网目标为任务进行工作，但在本质上并不需要进行犯罪。暗黑情报网人员通常秘密的进行工作，并且非常熟练于 欺诈（ Deception）。他们会从法师，雇佣兵，商人和与散塔林会结盟的神职人员那寻求帮助。 
 特性：避风港
-作为一个组织的代理人，你可以组织秘密联络网中那些可以给你在冒险生涯中提供援助的支援者和工作人员。你知道那些可以用来识别这些秘密人员的记号和密语，这些人可以为你提供一个有免费食宿的隐秘安全屋，或是能够协助寻找你需要的讯息。但是这些家伙并不会为了你冒着暴露自己身份或者生命安全的危险来帮你做事。
-建议特性：使用PHB中侍僧的背景作为自己的基础特征和动机，在适当的时候修改点条目以适应你作为一名组织代理人。（例如考虑将“信仰”替换成“派系”）</t>
-  </si>
-  <si>
-    <t>剑湾各派系</t>
-  </si>
-  <si>
-    <t>剑湾各派系
-由于在北地缺乏大型集中政权的政府，在剑湾这片土地上分布着许许多多和剑湾政治阴谋有着密切关联的隐秘组织。如果你的背景是一名北地主要组织的代理人的话，以下介绍可能对你有所帮助。
-- 竖琴手联盟The Harper 
-- 铁手套教团The Order of the Gauntlet 
-- 翠绿闲庭 the Emerald Enclave 
-- 领主联盟 The Lords` Alliance 
-- 散塔林会 The Zhentarim 
-详情见单独词条。</t>
-  </si>
-  <si>
-    <t>竖琴手联盟</t>
-  </si>
-  <si>
-    <t>竖琴手联盟The Harper 
-自成立多年以来，竖琴手联盟经历了多次的解散和重组，如今他们仍旧是一个有着强大实力的幕后组织，他们喜欢更多的通过公理和知识来阻止邪恶的行为，而不是运用暴力。竖琴手表通常熟练于调查（Investigation），这让他们能够熟练的进行窃听，间谍活动。他们通常会向其他竖琴手，共同理念的吟游诗人，旅店老板，游侠和与竖琴手联盟相同理念的神的神职人员寻求援助。</t>
-  </si>
-  <si>
-    <t>铁手套教团</t>
-  </si>
-  <si>
-    <t>铁手套教团The Order of the Gauntlet 
-作为费伦大陆上一个新起的力量，铁手套教团有着和竖琴手联盟相似的理念。然而他们的方式截然不同：铁手套的教义是作为神圣的战士在寻求真理的道路上摧毁邪恶，倡导公正，他们从来不会将自己隐藏在阴影之下。教团成员们通常会向与他们理念相同的执法部门，或是教员们信仰的神的神职人员们寻求援助。</t>
-  </si>
-  <si>
-    <t>翠绿闲庭</t>
-  </si>
-  <si>
-    <t>翠绿闲庭 the Emerald Enclave 
-保持自然秩序的平衡和对抗破坏这种平衡的力量，这是翠绿闲庭的两个目标。这个组织中的人员通常是野外生存大师，并且以这片土地为生。他们通常熟练于自然（Nature）技能，当他们遇到困难时，会从树人，猎人，游侠，野蛮人部落，德鲁伊集舍和信奉自然之神的神职人员那里寻求帮助。</t>
-  </si>
-  <si>
-    <t>领主联盟</t>
-  </si>
-  <si>
-    <t>领主联盟 The Lords` Alliance 
-在某种程度上说，领主联盟的代理人们就代表了所在的城市，还有构成联盟的国家和政府。但是作为一个关切集体利益的联合组织，它跨越在本地政治和地理领土之上，领主联盟通过工作在各个联盟城市内的工作人员的日常工作，架设起了自己独有的组织结构。一个联盟代理人需要对历史（History）知识有深厚的了解，在他们遇到困难时，会向所属联盟的政府，还有其他支持联盟理念的领导人和组织寻求帮助。</t>
-  </si>
-  <si>
-    <t>散塔林会</t>
-  </si>
-  <si>
-    <t>散塔林会 The Zhentarim 
-近年来，散塔林会通过改善它们在普通人中的名声，成为世界上最显眼的一个组织。这个组织吸收来自各行各业的工作人员和合作者，让他们以达成以暗黑情报网目标为任务进行工作，但在本质上并不需要进行犯罪。暗黑情报网人员通常秘密的进行工作，并且非常熟练于 欺诈（ Deception）。他们会从法师，雇佣兵，商人和与散塔林会结盟的神职人员那寻求帮助。</t>
+Feature: Safe Haven 
+作为一个派系的特工，你可以派系秘密联络网中那些可以给你在冒险生涯中提供援助的支援者和工作人员。你知道那些可以用来识别这些秘密人员的记号和密语，这些人可以为你提供一个有免费食宿的隐秘安全屋，或是能够协助寻找你需要的讯息。但是这些家伙并不会为了你冒着暴露自己身份或者生命安全的危险来帮你做事。 
+建议特征 Suggested Characteristics 
+使用 《玩家手册》中“侍僧”的特征表格作为你的基础特征和动机，并在适当的时候修改条目以让其符合你作为派系特工的身份。（例如考虑将“信仰”替换成“派系”）
+你的羁绊可能会关联于你派系中的其他成员、或一个对你派系而言相当重要的场所或对象。你所追求的理念可能会与你所属派系的信条和原则一致，但在本质上更个人一些。</t>
   </si>
   <si>
     <t>远行者</t>
   </si>
   <si>
-    <t>远行者 Far Traveler
-在剑湾沿岸及北地遇见的所有民众和其他种族都有个共同之处：他们通常会旅行至距离自己出生地好几里处生活。而你就是这样的人群中一员。
-你来自一个遥远的地方，该偏远之地很多北地的普通民众都不知道其存在，而即使你遇到过一些听说过你家乡的人，他们也仅是知道其名字或者大概还知道一点骇人听闻的故事。你由于个人原因来到费伦大陆的现处之地，这个原因或许你未必会愿意将它分享给其他人。
-虽然你发现这片土地有一些冷漠和破败的地方，但你也确信这里的某些人文也有从未见过的新鲜之处。你是个无论走到什么地方都对周围环境中的善良或邪恶感兴趣之人。
+    <t>远行者 Far Traveler 
+几乎所有沿着剑湾和北地遇见的所有普通大众和其他种族的人们都有一个共同之处：他们通常会旅行至他们出生地点超过好几里的生活。 
+你就是这样的一群人中的一员。
+你来自一个遥远的地方，一个如此偏远以至于很多北地的普通大众们都没有知道这个地方的存在，即使你遇到过一些人听说过你的家乡，他们也仅仅是知道名字亦或可能还知道一点点骇人听闻的故事。你由于自己个人的原因来到了费伦大陆现在所处之地，这个原因你也许或未必愿意将它分享给其他人。
+虽然你发现这片土地的有着一些冷漠和破败的地方，你也能确信这里的一些人文也有你从前从来没有见过的新鲜之处。你是一个无论走到什么地方都对周围环境中的善良或是邪恶感兴趣的人。
 技能熟练项：洞悉，察觉
-工具熟练项：任何一项音乐或赌具，也许可以是源于你故乡本土的东西。
-语言：自选一门语言
-装备：旅行者服装，一件你熟练的乐器或赌具，来自你故乡的一张精度很差的费伦地图上面标记出正在何处，价值 10 gp的一小片你家乡技艺所作的珠宝，及一个装着 5 gp 的小包。
-特性：众目焦点 All Eyes on You
-你的口音，言谈举止，措辞风格甚至你的外表都表明你就是一个异乡人。无论你走到哪里，好奇的目光总会伴随着你。虽然这有些令人讨厌，但是也让你得以对那些感兴趣的学者们，和那些对远方好奇希望听你述说家乡故事之人的好感。
-与其他民众不同，你可以运用这种关注力为自己或旅伴们亲近想要接触之人。那些贵族领主、学者、商人望族等等可能会有兴趣听你那些有关远方故乡和人民的故事。</t>
-  </si>
-  <si>
-    <t>永聚岛</t>
-  </si>
-  <si>
-    <t>永聚岛 Evermeet
-这个遥远西方的岛屿是那些从未到过费伦之精灵们的故乡。这些精灵们来到费伦大陆时，他们通常会觉得这里是比自己预期更严酷的地方。如果你是一名精灵，永聚岛是个作为你故乡比较合理的选择（但不是必然选择）。大多从永聚岛上移民出去的人要么是违反精灵法则而被迫流放，要么就是作为使节抱持为精灵文化和社会带来更大利益的目标前往费伦。</t>
-  </si>
-  <si>
-    <t>哈鲁阿</t>
-  </si>
-  <si>
-    <t>哈鲁阿 Halruaa
-“光辉南方 Shining South”南部的边缘地带，群山环绕中坐落著法师之国哈鲁阿。众所周知，哈鲁阿的法师议会是费伦中最神奇的地方之一。许多人都听说在哈鲁阿有船帆上带着哈鲁阿标记的奇异天空之船，还有一些人声称那里即使最普通的人都懂得施展法术。
-哈鲁阿人通常是因为自己个人的原因在旅行于费伦，由于它们的政府严格反对人民未经许可参与到其他国家的组织或政治中，你可能会是个违反了哈鲁阿许多错综复杂法律而被流放之人，亦或者也可以是个寻找魔法之神圣地的朝圣者。</t>
-  </si>
-  <si>
-    <t>卡拉图</t>
-  </si>
-  <si>
-    <t>卡拉图 Kara-Tur
-在费伦遥远的东方，坐落着卡拉图大陆，其间的居民有着与剑湾人民完全不同的风俗习惯。如果你来自卡拉图，费伦的人民可能会称你为“受国人 Shou”，而这可能并不是你真正的民族所属，者只是人们对所有与你有相同起源的人们之统称。
-卡拉图人偶尔会作为外交官或为了和其他贸易联盟建立关系而在费伦旅行。你作为一些这样的代表团中一员来到这里，并在任务结束后决定留下。</t>
-  </si>
-  <si>
-    <t>穆尔霍兰德</t>
-  </si>
-  <si>
-    <t>穆尔霍兰德 Mulhorand
-穆尔霍兰德是费伦大陆上残存的古老帝国之一，几千年来都由神祇的转生体“神王 god-king”直接统治。几乎所有关于穆尔霍兰德的风俗习惯都与剑湾大不相同。离开沙漠来到完全陌生的费伦北方后，你可能会受到不小的文化差异冲击。而最近你故乡发生的一个事件导致穆尔霍兰德废除其奴隶制度，并增进了与其他各地间的交通。
-离开穆尔霍兰德闷热沙漠和古老金字塔的人们可能有各种原因。你来北地可能只为满足自己体验这潮湿土地带来的陌生感，亦或是自己在沙漠之中树立了太多的敌人。</t>
-  </si>
-  <si>
-    <t>索萨尔</t>
-  </si>
-  <si>
-    <t>索萨尔 Sossal
-很少人听说过你的故乡，但是很多人会在遇见你之后询问你故乡的事情。来自索萨尔的人像是从雪中精心制作的艺术品一样，长着光洁的皮肤和雪白的头发，并穿着白色的衣服。
-索萨尔在遥远的东北部，其贫瘠之地紧靠北面无止境的冰原，而另一侧则是延绵数百英里的“大冰川 Great Glacier”和“大冰海 Great Ice Sea”。如果没有确切的理由，没人会跨越如此巨大的障碍离开索萨尔，你也许是因惧怕冰川中的某些真正可怕之物，有或是为了寻找某些非常重要的东西。</t>
-  </si>
-  <si>
-    <t>札哈拉</t>
-  </si>
-  <si>
-    <t>札哈拉 Zakhara
-在费伦四处游走且知道该地的人有句俗话，“要去扎哈拉，你要往南走，然后再往更南走。”当然，你从故乡来到北地也是沿相同的路从南方过来。扎哈拉人到费伦的极南地带进行贸易活动的情况也是极之罕见，但其中也会人会流浪到远离家乡之地。
-你可能是为了发现除家乡的沙漠和剑山之外更多其他奇迹之地，或者，你也可能是个为更好了解自己信仰的神灵而前往其他地方朝圣的朝圣者。</t>
-  </si>
-  <si>
-    <t>幽暗地域</t>
-  </si>
-  <si>
-    <t>幽暗地域 The Underdark
-尽管你的故乡在地理位置上比其他上述的偏远之地更接近剑湾，但是它却也是一片远离剑湾的地方。你来自许多处幽暗地域聚居地中的一个，这些聚居地各自保有着怪异的习俗和法律。在幽暗地域某地下城市或聚居地中土生土长的你可能是占领此处的种族其中一员，亦或是生活其中的俘虏，你也可能在还是孩子时就被带到这里，而现在已经在此地长大成人。
-如果你是幽暗地域真正的本土人，则你可能作为族人的使节，亦或是为摆脱被指控的犯罪行为（不管是否为遭诬告）而来到地表。如果你不是其本土人，则你的原因可能是为摆脱当前的糟糕处境而离“家”出走。</t>
+工具熟练项：一项你自选的乐器或赌具，可能是你故乡本土的东西
+语言：任何一门你自选的语言
+装备：一套旅行者服装，一件你熟练的乐器或一套你熟练的赌具，来自你故乡的一张精密度很差的费伦地图（用以标记出你在何处），一小片价值10GP来自你家乡技艺制作的珠宝，以及一个装有5gp的小包。
+为何来此？
+Why Are You Here?
+一名远行者可能会因多种多样的原因而踏上旅程，且他或她离开故土的缘由可能是自愿或者非自愿的。从下表中投掷或者自行选择一个原因决定你为何远离家乡。下方的章节阐述了你可能的家乡，其中包含了每个地点建议的离开原因。
+从何来此？
+ D6  原因 
+ 1  密使 
+ 2  流放者 
+ 3  逃亡者 
+ 4  朝圣者 
+ 5  游客 
+ 6  流浪汉 
+从何而来？
+Where Are You From?
+创建一个远行者背景最重要的决定是确定你的故乡在哪。这里有一些离北地和剑湾足够远的地方可以作为你的故乡参考。
+永聚岛Evermeet。 在遥远的西方的岛屿，它是那些从未到过费伦大陆的精灵们的故乡。当精灵们来到费伦大陆时，他们通常会觉得这里是比他们预期更加严酷的地方。如果你是一名精灵，永聚岛是一个作为你故乡的比较合理的选择（尽管这不是必须的）
+大多数从永聚岛上移民出去的人们要么是犯下精灵法则被迫流放离开的，或者要么就是作为使节抱着为精灵的文化和社会带来更大利益的目的前往费伦大陆。
+哈鲁阿Halruaa。 位于光耀之海的南部边缘，群山环绕处坐落著法师之国哈鲁阿。众所周知，哈鲁阿的法师议会是费伦大陆中一片最神奇的地方。许多人都听说在哈鲁阿有着奇怪的天空之船，船帆上有着哈鲁阿的标记，此外也有很少部分人传闻在哈鲁阿即使是小孩都可以施展法术。
+哈鲁阿人通常是因为自己个人的原因在费伦大陆上旅行，由于它们的政府严格反对人民未经许可参与到其他的国家组织或政治中，你可能会是一个违反了哈鲁阿许多错综复杂的法律而被流放的人，亦或者也可以是一个寻找魔法之神圣地的朝圣者。
+卡拉图Kara-Tur。 在费伦大陆遥远的东方，坐落着卡拉图大陆，上面的居民有着与剑湾人民完全不同的风俗习惯。如果你是来自卡拉图，费伦的人民可能会称你为Shou，即使这不是你真正的种族，因为这是他们称呼你和与你有着相同起源的人们的统称术语。
+卡拉图人偶尔会作为外交官或是为了和其他贸易联盟建立起贸易关系而旅行至费伦大陆。你作为一些这样的代表团中的一员来到了费伦，并且在任务结束之后决定留下来。
+穆罕瑞德Mulhorand。 穆罕瑞德是费伦大陆上残存的古老帝国之一，几千年来都由神祇的转生体神王直接统治。几乎所有关于穆罕瑞德的风俗习惯都与剑湾大不相同。离开沙漠来到完全陌生的费伦北地的你可能会受到不小的文化差异冲击。不过最近一件发生在你故乡的事件是穆罕瑞德已经废除了奴隶制度并相应增加与其他各地之间的交通。
+那些离开穆罕瑞德闷热沙漠和古老金字塔的人们可能会出于很多种原因。你可能会来到北地仅仅是因为满足看看这个潮湿土地提供的陌生感，亦或者你在沙漠之中有着太多的敌人存在。
+索萨尔Sossal。很少人听说过你的故乡，但是很多人会在遇见你之后询问你故乡的事情。来自索萨尔的人像是从雪中精心制作的艺术品一样，有着光洁的皮肤和雪白的头发，并穿着白色的衣服。
+索萨尔离北地非常遥远，在它的北面是没有止境的冰川，在它的另一侧则是延绵数百里的大冰川和大冰海。没有一个人不是由于某种确信的原因跨越如此巨大的障碍而离开索萨尔，也许是你恐惧冰川中某些真正可怕之物，或是为了寻找某些非常重要的东西。
+札卡拉Zakhara。对于费伦大陆中知道这个地方的人都有句俗话,“要去扎卡拉，你要往南走，然后在往更南走。”当然，你从你的故乡来到北地也是沿着相同的路从南方而来。虽然在扎卡拉，和费伦大陆最南端进行贸易活动也是非常罕见的，但也有一些扎卡拉人会流浪远离他们的家乡。
+你可能是为了发现在你家乡沙漠和剑型山脉之外的奇迹之地，或者也许你是一个为了能够更好的了解你信仰的上神而前往其他地方朝圣的朝圣者。
+幽暗地域The Underdark。尽管你在地理位置上比其他上述的偏远之地更接近于剑湾，但是它却也是一片远离剑湾的地方。你来自许多处幽暗地域的定居点中的一个，其中每个定居点都有它自己奇怪的习俗和法律。如果你土生土长在幽暗地域中的一座地下城市或是定居点，你可能是占领此处的种族中的一员，亦或者是被俘虏后在这里生活，也可能是在你还是孩子的时候被带到了这里，现在已经在此地长大成人。
+如果你是一个真正的幽暗地域人，你可能是为了作为你们族人的使节，亦或是为了摆脱被指控的犯罪行为（不管是否为莫须有）而来到地表。如果你不是本地人，你的原因可能是与摆脱现在糟糕的处境而离“家”出走。
+特性：众目焦点
+Feature: All Eyes on You
+你的口音、言谈举止、措辞风格甚至你的外表都象征着你是一个异乡人。无论你走到哪里，好奇的目光总会伴随着你。虽然这有些令人讨厌，但是也让你获得那些感兴趣的学者们和那些对其他遥远地方好奇希望听到你家乡故事的人们的好感。
+你独特于其他普通大众，你可以运用这种关注力为自己或者旅行的伙伴们接近想要接触的人们。那些贵族领主，学者，贸易亲王以及其他人可能会感兴趣听听你那些有关远方故乡和人民的故事。</t>
+  </si>
+  <si>
+    <t>远行者:建议特征</t>
+  </si>
+  <si>
+    <t>个性特点
+ D6  个性特点 
+ 1  我与周遭人们对于私人空间有着不同的想法，我会天真轻率地侵入他人的空间，或对入侵自己空间的行为蛮不在乎 
+ 2  我对东西是不是食物有着自己的看法，并且我觉得我周围那些人的饮食习惯是让我向往的、让人困惑的、或是让人恶心的。 
+ 3  我有着他人无法理解的，非常强烈的荣誉准则或规范。 
+ 4  我表达喜爱和厌恶的方式和其他人不一样。 
+ 5  我通过时间不属于在这片土地的行为来敬仰我的神灵。 
+ 6  我通过一种通常和周围人不一样的小型的传统仪式来开始或结束我一天的生活。 
+理念
+ D6  理念 
+ 1  开放Open。那些在我旅程路上遇到的人，我还有很多需要向他们学习。（善良） 
+ 2  保守Reserved。作为这个陌生土地的新面孔，我在待人处世中保持谨慎和礼貌的态度。（守序） 
+ 3  冒险Adventure。我远离了我的家乡，而这所有的一切都是如此奇特和美好！（混乱） 
+ 4  狡猾Cunning。虽然我不了解他们的处事方式，但是他们也不了解我的，这可以成为我的优势。（邪恶） 
+ 5  好奇Inquisitive。所有的一切都没见过，但是我渴望了解这些。（中立） 
+ 6  疑心Suspicious。我必须小心，因为身处异国他乡，我没有办法分辨他人是敌是友。（任何） 
+羁绊
+ D6  羁绊 
+ 1  只要我还拥有这个来自家乡的象征物，我就可以面对这片陌生的土地上的任何逆境。 
+ 2  我的族人信仰的神祇是我在远离家乡时的慰藉。 
+ 3  没有比为我的人民服务更伟大的事业。 
+ 4  我的自由是我最珍贵的财宝。我不会再让任何人从我手中夺去它。 
+ 5  我为这片美丽而神奇的新土地而着迷。 
+ 6  虽然我别无选择，但我还是为之前必须离开所爱之人感到悲哀。我希望在未来某一天能再次见到他们。 
+缺陷
+ D6  缺陷 
+ 1  我暗地里（或明面上就）觉得我家乡的文化风俗比这片外国土地要优越的多。 
+ 2  我假装不懂这些人当地的语言以避免我不希望的交流。 
+ 3  我无法抗拒这片土地上的新奇的令人沉醉的事物和其他趣事。 
+ 4  我并不会对这片土地上的人们抱有友善的态度，因为这帮家伙与我大不相同。 
+ 5  我认为其他诸神的信徒们说好听点是一群被蒙蔽的无辜百姓，说难听点不过就是一群愚蠢无知的白痴。 
+ 6  我无法抗拒这片土地人民们的异国情调之美。</t>
   </si>
   <si>
     <t>继承者</t>
@@ -606,42 +525,60 @@
     <t>继承人</t>
   </si>
   <si>
-    <t>继承者Inheritor
-你是一些很有价值的东西的继承者——不单单指的是金币或是财富，而是某个单独委托给你的东西。你继承的财产可能是直接是由于你出生就是是你家族中的一员，或者它可能是从你的指导者、老师或者其他在你生命中重要的人那里留下给你的东西，你所得的遗产启示了你，改变了你的生活，指引你走上了冒险的道路，同时它也可能会带来许多的危险，包括哪些窥探你遗产，（用力量，如果需要的话）想把他从你手中夺走的家伙。
-技能熟练：生存，从奥秘，历史，宗教中选择一个
-工具熟练：从游戏组或乐器中选择一个
-语言：任意一种你选择的语言
-装备：你继承的遗产，一套旅行衣服，一件你通过这个背景而获得熟练的工具，装着 15GP 的小包。
-特性：继承
-从表中选择或者随机一个你继承的遗产，和你的DM一起讨论决定出细节：你的遗产为何那么重要，它拥有的故事是什么？你可以让DM把这部分内容加入到整个游戏故事中，通过剧情让你和你的角色更多的了解这份遗产的故事。
-DM可以自由发挥你获得的遗产带来的故事，通过任务让你学习到更多有关遗产的历史或本质，或者面对那些想要抢夺这件东西的家伙，或者让你从中领悟到你到底追寻的是什么。DM也决定了这件遗产的属性和它所拥有的历史和价值。例如，这个物品可能是一小件魔法物品，或是一开始只有一点点能力的东西，但是随着时间流逝它的能力逐渐增长。亦或者，这件遗产起初可能是件毫不起眼的东西，但是只有在某些条件满足时，会恢复原本面貌。
-当你开始你的冒险时，你可以决定是否把你的遗产透露给你的同伴们，你也可以默默保守着这个秘密，直到你了解这件东西对你意味着什么和它能给你做些什么。</t>
+    <t>继承者 Inheritor 
+你是一些很有价值的东西的继承者——不单单指的是金币或是财富，而是某个单独委托给你的东西。你继承的财产可能是直接是由于你出生就是是你家族中的一员，或者它可能是从你的指导者、老师或者其他在你生命中重要的人那里留下给你的东西，你所得的遗产启示了你，改变了你的生活，指引你走上了冒险的道路，同时它也可能会带来许多的危险，包括哪些窥探你遗产，（用力量，如果需要的话）想把他从你手中夺走的家伙。 
+技能熟练项：生存，外加从奥秘，历史，宗教中选择一个
+工具熟练：从赌具或乐器中选择一个
+语言：任意一门你自选的语言
+装备：你的继承遗产，一套旅行服装，一件你通过这个背景而获得熟练项的工具，外加一个装着 15gp的小包。
+特性：继承遗产
+Feature: Inheritance
+从下列表中选择或者随机一个你继承的遗产，和你的 DM 一起讨论决定出细节：你的遗产为何那么重要，它拥有的故事是什么？你可以让 DM 把这部分内容加入到整个游戏故事中，通过剧情让你和你的角色更多的了解这份遗产的故事。
+DM 可以自由发挥你获得的遗产带来的故事，通过任务让你学习到更多有关遗产的历史或本质，或者面对那些想要抢夺这件东西的家伙，或者让你从中领悟到你到底追寻的是什么。DM 也决定了这件遗产的属性和它所拥有的历史和价值。例如，这个物品可能是一小件魔法物品，或是一开始只有一点点能力的东西，但是随着时间流逝它的能力逐渐增长。亦或者，这件遗产起初可能是件毫不起眼的东西，但是只有在某些条件满足时，会恢复原本面貌。
+当你开始你的冒险时，你可以决定是否把你的遗产透露给你的同伴们，你也可以默默保守着这个秘密，直到你了解这件东西对你意味着什么和它能给你做些什么。
+遗产列表  D8   物件 或 物品 
+ 1  一份文档，例如地图、信件或是日记之类的 
+ 2-3  一个饰品（参见《玩家手册》第五章的“饰品”） 
+ 4  一套服装 
+ 5  一片珠宝 
+ 6  一本神秘的书或是一张神秘的字条 
+ 7  一份手写的故事、歌曲、诗歌、或秘密 
+ 8  一个纹身，或身上某处的印记 
+建议特征Suggested Characteristics
+使用 《玩家手册》中“平民英雄”的特征表格作为你的基础特征和动机，并在适当的时候修改条目以让其符合你作为继承者的身份。
+你的羁绊可能会与你的继承物直接相关，或可能会是你从之接收到继承物的某人。你的理念可能会受到你对继承物了解的影响，或可能被在你所得到赠礼所能做到的事给影响。</t>
+  </si>
+  <si>
+    <t>骑士团成员</t>
   </si>
   <si>
     <t>教团骑士</t>
   </si>
   <si>
-    <t>教团骑士 Knight of the Order
-你隶属于某个为达到某个目的而宣誓的骑士团。骑士团的本质目标决定了你宣誓的誓言，在你的眼中看来为达到这目的做出的誓言毫无疑问是光荣而重大并愿意为之努力奋斗的。费伦大陆上有着许许多多的骑士团，所有的骑士团们都有着关于他们行为和责任相似的展望。
-说到“骑士”就会认为是那些穿着重甲，有着贵族血统和骑士精神的高贵战士们，然而在费伦，骑士团们并没有把他们的入会资格限定的如此之高。对目标和理念的追求远远高于成员们装备和战斗风格的限定，因此骑士团中并不会限定战斗方式，并向所有愿意为教团理念战斗和献出生命的平民百姓们开放。
+    <t>骑士团成员 Knight of the Order 
+你隶属于某个为达到某个目的而宣誓的骑士团。骑士团的本质目标决定了你宣誓的誓言，在你的眼中看来为达到这目的做出的誓言毫无疑问是光荣而重大并愿意为之努力奋斗的。费伦大陆上有着许许多多的骑士团，所有的骑士团们都有着关于他们行为和责任相似的展望。 
+说到“骑士”就会认为是那些穿着重甲，有着贵族血统和骑士精神的高贵战士们，然而在费伦，骑士团们并没有把他们的入会资格限定的如此之高。对目标和理念的追求远远高于成员们装备和战斗风格的限定，因此骑士团中并不会限定战斗方式，并向所有愿意为骑士团理念战斗和献出生命的平民百姓们开放。
 “费伦大陆骑士团”边栏更好的介绍了几个在北地活跃的骑士团，可以帮助你决定哪个骑士团让你准备决定为之效忠。
-技能熟练：说服，从奥秘，历史和宗教中适合你教团的技能选择一个
-工具熟练：一种游戏组或乐器
-语言：一种你选择的语言
-装备：一件旅行衣服，一个徽记，代表你骑士团或是教团等级的旗帜或是印章，一个装有10GP的袋子。
+技能熟练项：说服，外加从奥秘、历史和宗教中适合你骑士团的技能选择一个
+工具熟练项：一种赌具，或一种乐器
+语言：一门你自选的语言
+装备：一件旅行衣服，一个代表你骑士团或是骑士团等级的徽记、旗帜、或印章，以及一个装有10gp的小包。
 特性：骑士的敬重
-你会获得来自你的骑士团其他成员和那些与骑士团有着相同目标的人们的救助和避难。如果你的教团是一个宗教骑士团，你可以从信仰的神的神殿和其他宗教团体中获得帮助。服务人民的骑士团可以从某些为自己目标服务或是为整个国家服务的团体们寻求帮助。服务于某种理念的骑士团可以从曾近帮助过追寻理念的人们和那些与骑士团分享理念的人们获得帮助。
-这些帮助的方式来自他们提供的避难和食物，在适当之时为你治疗。偶尔也会有些危险，比如一群本地居民一同帮助一位在战斗中严重受伤的骑士，或是帮助一名受到不公正追捕的骑士秘密走私出城。
-建议特性：使用PHB中士兵的背景作为自己的基础特征和动机，在适当的时候修改点条目以适应你作为一名教团骑士。</t>
-  </si>
-  <si>
-    <t>费伦骑士团</t>
-  </si>
-  <si>
-    <t>费伦骑士团
-独角兽骑士Knights ofthe Unicorn.
-独角兽骑士一开始是由博德之门官僚家族的子女们对自由浪漫的追寻一时兴起而建立的教团。他们将独角兽女神拉芮Lurue作为他们的幸运神，骑马闯荡为了乐趣而冒险。用拉芮女神的原则来面对会出现的危险。随着时间的推移，这个小群体逐渐增长和传播开来，获得了甚至远自科米尔地区的人们追随。独角兽骑士们是有着骑士精神的冒险家，追随浪漫的理想：生活是多姿多彩的，生活是应该充满欢笑的，挑战并完成任务，追寻不可能的梦想，所有人都应该为他们的力量而获得赞美，为他们的弱点而获得安慰。
-密斯卓诺骑士Knights ofMyth Drannor.
+Feature: Knightly Regard
+你会获得来自你的骑士团其他成员和那些与骑士团有着相同目标的人们的救助和避难。如果你的骑士团是一个宗教骑士团，你可以从信仰的神的神殿和其他宗骑士团体中获得帮助。服务人民的骑士团可以从某些为自己目标服务或是为整个国家服务的团体们寻求帮助。服务于某种理念的骑士团可以从曾近帮助过追寻理念的人们和那些与骑士团分享理念的人们获得帮助。
+这些帮助体现为他们提供的避难和食物，以及在适当之时为你进行的医疗，以及会有时会有些危险的服务，比如一群本地居民在战斗中一同救治一位严重受伤的骑士，或是帮助一名受到不公正追捕的骑士秘密逃离出城。
+建议特征Suggested Characteristics
+使用 《玩家手册》中“士兵”的特征表格作为你的基础特征和动机，并在适当的时候修改条目以让其符合你作为骑士团骑士的身份。
+你的羁绊几乎总是与你所属的骑士团有关（或至少与骑士团的重要成员有关），且骑士的理念鲜少不会反映他所属骑士团的教条、观点、或哲学观。</t>
+  </si>
+  <si>
+    <t>边栏：费伦骑士团</t>
+  </si>
+  <si>
+    <t>边栏：费伦骑士团 Knightly Orders of Faerun
+独角兽骑士Knights of the Unicorn.
+独角兽骑士一开始是由博德之门官僚家族的子女们对自由浪漫的追寻一时兴起而建立的骑士团。他们将独角兽女神拉芮Lurue作为他们的幸运神，骑马闯荡为了乐趣而冒险。用拉芮女神的原则来面对会出现的危险。随着时间的推移，这个小群体逐渐增长和传播开来，获得了甚至远自科米尔地区的人们追随。独角兽骑士们是有着骑士精神的冒险家，追随浪漫的理想：生活是多姿多彩的，生活是应该充满欢笑的，挑战并完成任务，追寻不可能的梦想，所有人都应该为他们的力量而获得赞美，为他们的弱点而获得安慰。
+密斯卓诺骑士Knights of Myth Drannor.
 很久以前，密斯卓诺骑士团是一个非常有名的冒险团队，多芙·鹰手，著名的七姐妹中的一人就是其中的一员。这个过去式的团队是为了纪念曾经伟大但是陷落的城市而命名的，如今新建立的密斯卓诺骑士团也是如此。当这座城市再一次变为废墟时，多芙·鹰手决定要改革这个团体，把主要目标定为与世界上其他文明种族建立盟友关系，和善良的人们共同对抗邪恶。现在密斯卓诺骑士们再次骑行在谷地的大路上，他们已经开始向谷地之外的土地传播自己的理念，招收新人。每一个被多芙接纳成为骑士团一员的人，都是充满了勇气和忠诚之人。
 圣杯骑士Knights of the Silver Chalice.
 圣杯骑士团在一个世纪以前由半神赛雅茉芙（Siamorphe）颁布法令而成立。赛雅茉芙的精神是高贵的权利并有责任去执行它。这个半神通常每一代都会化身成不同的凡人贵族。</t>
@@ -650,94 +587,441 @@
     <t>老佣兵</t>
   </si>
   <si>
-    <t>老佣兵 Mercenary Veteran
-作为一名为钱财而战的卖剑打手，你很熟悉如何以失去生命或肢体为风险赌注投入冒险。现在，你开始期待以冒险者的身份投入对敌战斗中，并以此收获更大的回报。你的经历使你得以熟悉佣兵生活的细节，而你甚至还带着一些在沙场上经历过的悲惨往事。你可能曾服务于某个大集团如散塔林会，或曾经作为“明檀 Mintarn”的士兵服役，你或许还曾经参与过其他一些更小规模的卖剑打手团体，而且可能还在多个团体间辗转。（见“北地的佣兵团”边栏中的一系列范例。）
+    <t>老佣兵 Mercenary Veteran 
+作为一名会为钱财而战的佣兵，你很熟悉如何以失去生命或肢体为风险赌注投入冒险。现在，你开始期待以冒险者的身份投入对敌战斗中，并以此收获更大的回报。你的经历使你得以熟悉佣兵生活的细节，而你甚至还带着一些在沙场上经历过的悲惨往事。你可能曾服务于某个大集团如散塔林会，或曾经作为“明檀 Mintarn”的士兵服役，你或许还曾经参与过其他一些更小规模的卖剑打手团体，而且可能还在多个团体间辗转。（见“北地的佣兵团”边栏中的一系列范例。） 
 你现在正寻求某些其他的东西，也许是打算为所冒风险求得更大的回报，或是决定从此自由的活动。无论出于何种原因，你都决心将曾经作为受雇士兵的生涯抛于脑后，但你掌握的技能仍令你无可否认的适合战斗生涯，因此你仍然在战场里过活，只是以另一种不同的形式参与其中。
-技能熟练项： 运动，游说
-工具熟练项： 一种赌具，载具（陆运）
-装备： 所属兵团的制服（质量等同于旅行者服装），一块对应你军阶的勋章，你自选的一套赌局，装着你的上次军饷的小包（10gp）
-特性：佣兵生涯 Mercenary Life
-你拥有的生活经历，只有曾同样从事过佣兵生涯之人才能体会。你只要看到对方的徽记就能辨认出相应的佣兵团，你还知道该军团的某些情报，包括其指挥官和领导者的名字和声誉，以及最近雇佣他们的是何人。只要能说相应的语言，你在任何地方都能找到这些佣兵混迹的酒馆或宴会地。你总能在冒险中通过佣兵工作找到足够的钱来维持舒适程度的生活（见《玩家手册》 第 8 章“修整期活动”下的“专业实践”）。
-建议特征：使用 《玩家手册》 中“士兵”背景的诸表格为基础定出你的特征和动机，并适当调整各条目以适应你作为佣兵的身份。你的牵绊可能与曾经参与其中一同旅行的军团相关，或与其他曾作为同袍之人相关。你所抱持的理想大多维系于你的世界观和为之战斗的动机。</t>
-  </si>
-  <si>
-    <t>北地的佣兵团</t>
-  </si>
-  <si>
-    <t>北地的佣兵团 Mercenaries of the North
+技能熟练项：运动，游说
+工具熟练项：一种赌具，载具（陆运）
+装备：一套所属佣兵团的制服（质量等同于旅行者服装），一块对应你军阶的勋章，你自选的一套赌具，以及一个装着你的上次军饷的小包（10gp ）
+特性：佣兵生涯
+Feature: Mercenary Life
+你拥有的生活经历，只有曾同样从事过佣兵生涯之人才能体会。你只要看到对方的徽记就能辨认出相应的佣兵团，你还知道该军团的某些情报，包括其指挥官和领导者的名字和声誉，以及最近雇佣他们的是何人。只要能说相应的语言，你在任何地方都能找到这些佣兵混迹的酒馆或宴会地。你总能在冒险中通过佣兵工作找到足够的钱来维持舒适程度的生活（见《玩家手册》 第 8 章“休整期活动”下的“专业实践”）。
+建议特征 Suggested Characteristics
+使用《玩家手册》中“士兵”的特征表格作为你的基础特征和动机，并在适当的时候修改条目以让其符合你作为佣兵的身份。
+你的牵绊可能与曾经参与其中一同旅行的军团相关，或与其他曾作为同袍之人相关。你所抱持的理想大多维系于你的世界观和为之战斗的动机。</t>
+  </si>
+  <si>
+    <t>边栏：北地的佣兵团</t>
+  </si>
+  <si>
+    <t>边栏：北地的佣兵团 Mercenaries of the North
 无数佣兵团在剑湾和北地各处来回。其中大多是小规模行动，比如雇佣十几人至上百人以提供安保服务，狩猎怪物和土匪，或是为换得黄金而发动战争。一些组织如“散塔林会”“焰拳 FlamingFist”和“明檀 Mintarn”的本国都保有成百上千的成员供他人以足够资金雇佣为私人军队。下面介绍一些在北地运作的相关组织。
-寒爪 The Chill
+寒爪 The Chill 。 
 寒冷而神秘的“潜行森林 Lurkwood”是无数的类地精团体的家园，它们联合起来组成一个叫“寒爪 the Chill”的部落。跟大多数同类不一样，寒爪兵团并不会去袭击北地的居民，反而与之保持相对良好的关系，以此让对方雇佣自己作战。北地的各城邦很少会让自建的军队与寒爪并肩作战，但其中的几个国家会轻松愉快的付钱雇寒爪去对抗永恒荒野 Evermoors 的乌斯伽人 Uthgardt、兽人和巨魔，乃至其他威胁自己的文明。
-静雨 Silent Rain
+静雨 Silent Rain 。 
 全员由精灵组成的静雨，是个从艾弗瑞思卡 Evereska 内运营的传奇雇佣兵团。静雨不关心金子或名声，他们只接受促进精灵事业或摧毁兽人、豺狼人之类生物的工作。发出委托的雇主必须先在艾弗瑞斯卡附近留下书面文本（以精灵语撰写），如果静雨兵团对委托有意，就会派出一名代表与对方接触。
-血斧 Bloodaxes
-约两个世纪前在桑达巴 Sundabar 建立的血斧最初只是一群因违反“铸魂者摩拉丁 Moradin Soulforger”其教义，而获罪被逐出自己氏族的矮人。于是他们开始以雇佣兵的方式为任何付得起钱的北地人服务。自那以后，该佣兵团开始接纳其他种族作自家成员，但其中的人或多或少都身为流亡者、罪犯或被排挤的异类，而他们最终都会将血斧当做自己新的开始和新的家园。</t>
+血斧 Bloodaxes 。
+ 约两个世纪前在桑达巴 Sundabar 建立的血斧最初只是一群因违反“铸魂者摩拉丁 Moradin Soulforger”其教义，而获罪被逐出自己氏族的矮人。于是他们开始以雇佣兵的方式为任何付得起钱的北地人服务。自那以后，该佣兵团开始接纳其他种族作自家成员，但其中的人或多或少都身为流亡者、罪犯或被排挤的异类，而他们最终都会将血斧当做自己新的开始和新的家园。</t>
   </si>
   <si>
     <t>城市猎人</t>
   </si>
   <si>
-    <t>城市猎人 Urban Bounty Hunter
-你在成为冒险者前，生活中就已充满了冲突和兴奋，因为你是依靠追捕他人来赚钱过活。与某些收集赏金之人不同，你并不是个穿越荒野追捕猎物的荒蛮之人。你会在你居住之地参与一宗利润丰厚的买卖，然后一如既往的考验自己的技能与生存本能。此外，你还跟野外的赏金猎人不一样，你并不孤单：你时常与犯罪分子和其他赏金猎人进行互动，并同时游走于这两个区间并以此获取成功。
+    <t>城市猎人 Urban Bounty Hunter 
+你在成为冒险者前，生活中就已充满了冲突和兴奋，因为你是依靠追捕他人来赚钱过活。与某些收集赏金之人不同，你并不是个穿越荒野追捕猎物的荒蛮之人。你会在你居住之地参与一宗利润丰厚的买卖，然后一如既往的考验自己的技能与生存本能。此外，你还跟野外的赏金猎人不一样，你并不孤单：你时常与犯罪分子和其他赏金猎人进行互动，并同时游走于这两个区间并以此获取成功。 
 你可能是个灵巧的捕快，时刻在屋顶上徘徊，捕捉城里数之不尽的窃贼。你或许是个非常熟悉街道之人，熟悉窃贼行会和街头帮派的所作所为。你可能是个戴“丝绒面具”的赏金猎人，以此混迹上流社会和贵族圈子，并在其中抓捕那掠夺富人之罪犯，而无论其是小偷小贼还是诈骗高手。你所在的社区可能是费伦的大城市之一（比如深水城或博德之门），或者是人口较少的地方（比如路斯坎 Luskan 或雅塔 Yartar），或是任何可能滋生猎物的地点。
 作为冒险队伍一员时，你可能会觉得当个人日程与团队目标相左时会出现某些困难。不过从另一角度看，你也可以利用同伴的帮助拿下更可怕的目标。
-技能熟练项： 从欺瞒、洞悉、游说、隐匿中选择两项
-工具熟练项： 从一种赌具、一种乐器和盗贼工具中选择两项
-装备： 适合你执勤用的一套服装和一个装着 20gp 的小包
-特性： 耳目众多 Ear to the Ground
+技能熟练项：从欺瞒、洞悉、游说、隐匿中选择两项
+工具熟练项：从一种赌具、一种乐器、盗贼工具这三项中选择两项
+装备： 一套适合你执勤用的一套服装，以及一个装着 20gp 的小包
+特性：耳目众多
+Feature: Ear to the Ground
 你经常与所选定猎物途径地区的社会人士接触。这些人可能与黑社会罪犯、街头莽汉或上流社会成员相关联。这种联系其形式为，每个你所访问的城市都存在一名相应的联络人，该人物会为你提供当地人文和地理的各种相关情报。
-建议特征：以 《玩家手册》 中“罪犯”背景诸表格为基础定出你的特征和动机，并适当调整各条目以适应你作为赏金猎人的身份。例如，你的牵绊可能与其他赏金猎人或某雇佣你的组织或个人相关。你的理想可能与你抓捕目标猎物的决心相关，或是与你获得可靠名声的渴望相关。</t>
+建议特征 Suggested Characteristics
+使用 《玩家手册》 中“罪犯”的特征表格作为你的基础特征和动机，并在适当的时候修改条目以让其符合你作为城市猎人的身份。
+例如，你的牵绊可能与其他赏金猎人或某雇佣你的组织或个人相关。你的理想可能与你抓捕目标猎物的决心相关，或是与你获得可靠名声的渴望相关。</t>
   </si>
   <si>
     <t>乌斯伽部族成员</t>
   </si>
   <si>
-    <t>乌斯伽部族成员 Uthgardt Tribe Member
-虽然你可能刚刚才来到文明之地，但在追求霸权的过程中，你对合作与集体努力的价值并不陌生。而你正是以乌斯伽部族成员的身份学会这些原则。
+    <t>乌斯伽部族成员 Uthgardt Tribe Member 
+虽然你可能刚刚才来到文明之地，但在追求霸权的过程中，你对合作与集体努力的价值并不陌生。而你正是以乌斯伽部族成员的身份学会这些原则。 
 你的同胞总喜欢坚持老方法。乌斯伽人秉持的传统和禁忌让他们得以在其他王国陷入混乱和毁灭后依然保持强大。但最近几代人里，一些部族的帮众开始想要定居，安于和平、贸易，甚至建起了城镇。也许这就是为何乌斯伽会在那些生活在其神力下之人中竖起其图腾。也许这些人需要被提醒一下自己的真实身份，自己源自何处。“乌斯伽的选民 Chosen of Uthfar”会带领帮众重回旧路，而大多数你的同胞都会放弃软弱的文明转向回归。
 你可能在一个已决定定居下来的部族中长大，而你的部族已决定放弃旧的行事方式，但你却依然摇摆不定。或者你也可以是遵循传统的乌斯伽人其中一分子，但你只想通过取得伟大功绩来为自己的部族带来荣耀。
 参阅第 2 章的“乌斯伽各地”一节，了解每个部族领地及其活动的详细情况，作为你选择自己归属的参考。
 技能熟练项： 运动，求生
-工具熟练项： 一种乐器或工匠工具
-语言： 自选一门语言
-装备： 狩猎陷阱，标志你忠于乌特加和你部族之图腾的图腾标志或一组纹身，一套旅行者服装和一个装着 10gp 的小袋。
-特性：乌斯伽之传承 Uthgardt Heritage 
-你不仅彻底了解自己部族之领地，还清楚北地其他地区的地形和自然资源。你熟悉所有的野外地区，而你在那里找到的食物和水的数量是平时的两倍。
-另外，你可以唤起他人的好客之道。受你该影响的对象包括你的同胞，以及那些与你部族结盟之人，通常包括有德鲁伊结社、精灵游牧部族、竖琴手同盟等团体的成员，以及那些献身于“第一结社 First Circle”众神的祭祀者。
-建议特征：使用 《玩家手册》 中“化外之民”背景的诸表格为基础定出你的特征和动机，并适当调整各条目以适应你作为乌斯伽人部族成员的身份。
+工具熟练项： 一种乐器，或一种工匠工具
+语言： 一门你自选的语言
+装备： 一个狩猎陷阱，标志你忠于乌特加和你部族之图腾的图腾标志或一组纹身，一套旅行者服装和一个装着 10gp 的小袋。
+特性： 乌斯伽之传承
+Feature: Uthgardt Heritage
+你不仅彻底了解自己部族之领地，还清楚北地其他地区的地形和自然资源。你熟悉所有的野外地区，而你在那里找到的食物和水的数量是平时的两倍。 
+另外，你可以请到你的同胞、以及那些与你部族结盟之人的热情招待，通常包括有德鲁伊结社、精灵游牧部族、竖琴手同盟等团体的成员，以及那些献身于“第一结社 First Circle”众神的祭祀者。
+建议特征 Suggested Characteristics
+使用 《玩家手册》中“化外之民”的特征表格作为你的基础特征和动机，并在适当的时候修改条目以让其符合你作为乌斯伽部族成员的身份。
 即使已经离开了自己的部族（至少现在是这样），但你仍坚持以同胞的传统过活。你绝不会砍下一棵仍活着的树，且不会不赞同相同的事在眼前发生。乌斯伽人的“祖丘 ancestral mounds”——作为乌斯伽保护其图腾精魂所在，以及部族各英雄埋葬之处的大丘陵，被你视为神圣之地。
 你的牵绊很可能与你的部族或某些乌斯伽人的哲念或文化相关（甚至可能与乌斯伽自身相关）。你的理想是个人的选择，它可能与你同胞的风土人情密切相关，当然也不会与你身为乌斯伽人所代表的其他东西相违背或妥协。</t>
   </si>
   <si>
-    <t>费伦的野蛮人部族</t>
-  </si>
-  <si>
-    <t>费伦的野蛮人部族 Barbarian Tribes of Faerun
+    <t>边栏：费伦的野蛮人部族</t>
+  </si>
+  <si>
+    <t>边栏：费伦的野蛮人部族 Barbarian Tribes of Faerun
 虽然本节只介绍了乌斯伽民族，但其内容以及 《玩家手册》的“化外之民”背景都可用于源自其他费伦野蛮人部族的角色。你可以是个一头金发的瑞格 Reghed 野蛮人，住在远离北地靠近“冰风谷 lcewind Dale”的“瑞格冰川 Reghed Glacier”阴影之下。你也可以是因野蛮狂战士和戴着面具巫婆而出名的莱瑟曼Rashmi 游牧民。你也许来自“琼达尔森林 Chondalwood”的某个木精灵部族，或是来自楚尔特 Chult 闷热丛林里的某个充满魔法的人类部族中。</t>
   </si>
   <si>
-    <t>深水人贵族</t>
-  </si>
-  <si>
-    <t>深水人贵族 Waterdhavian Noble
-你是深水城某伟大贵族家族之后裔。作为小心翼翼地守护自己在“光辉之城 City of Splendors”的特权与地位之人类家族，深水人贵族们在整个费伦因其骄奢和富有而享有盛名。
-不管你是这个名声的光辉榜样还是作为该规则的例外，当人们知道你姓氏及其含义时，便会对你有所期待。你投身冒险的理由某种程度上可能与你的家人相关：你是否作为家族异类，喜欢钻到肮脏地下城的舞会里喝一小口“兹沙zzar”？或是你是为家人的利益而拿起剑与法术，以确保他们能有个有名望之人作为传承？
-你要与DM一起决定自己所属之家族——在深水中有大约七十五个血统，其中的每个家族都保有其自己独特的偏好经济来源、专职和谋划。你可能是家族中的当主一脉的成员，也可能终有一天成为他们的领袖。或者你也可能属于众多表亲血脉其一，而他们的声望较低其负担的责任也更少。
+    <t>深水城贵族</t>
+  </si>
+  <si>
+    <t>深水城贵族 Waterdhavian Noble 
+你是深水城某伟大贵族家族之后裔。作为小心翼翼地守护自己在“光辉之城 City of Splendors”的特权与地位之人类家族，深水人贵族们在整个费伦因其骄奢和富有而享有盛名。 
+不管你是这个名声的光辉榜样还是作为该规则的例外，当人们知道你姓氏及其含义时，便会对你有所期待。你投身冒险的理由某种程度上可能与你的家人相关：你是否作为家族异类，喜欢钻到肮脏地下城的舞会里喝一小口 “兹沙 zzar ” ？或是你是为家人的利益而拿起剑与法术，以确保他们能有个有名望之人作为传承？
+你要与 DM 一起决定自己所属之家族——在深水中有大约七十五个血统，其中的每个家族都保有其自己独特的偏好经济来源、专职和谋划。你可能是家族中的当主一脉的成员，也可能终有一天成为他们的领袖。或者你也可能属于众多表亲血脉其一，而他们的声望较低其负担的责任也更少。
 技能熟练项： 历史，游说
 工具熟练项： 一种赌具或一种乐器
-语言： 自选一门语言
-装备： 一套高档服装，一枚玺戒或胸针，一份族谱，一皮袋的高档 “兹沙 zzar ” 或红酒，以及一个装有 20gp 的小包
-特性：保持风度 Kept in Style
+语言： 一门你自选的语言
+装备： 一套高档服装，一枚玺戒或胸针，一份家系族谱，一袋的高档 兹沙酒zzar 或红酒，以及一个装有 20gp 的小包
+特性： 保持风度
+Feature: Kept in Style
 在深水城或北地其他地方时，你的家族会确保你的每日的日常用度。你的名字与玺印就足以支付大部分的费用，而你经常光顾的旅店、酒馆和餐馆都很乐于记下你的债务，并将账单寄给你的家人以解决你欠下的债务。
 这种优势使你能过上舒适的生活，而不必每天支付 2 gp的费用，也可以减少富裕或奢华程度生活的成本。你不能以更低价的生活方式来将这只生活费当做收入——这种得益属于信用体系，而不是明确的货币奖励。
-建议特征：使用《玩家手册》中 “贵族”背景的诸表格为基础定出你的特征和动机，并适当调整各条目以适应你作为深水人家族一员的身份。
+建议特征 Suggested Characteristics
+使用 《玩家手册》 中“贵族”的特征表格作为你的基础特征和动机，并在适当的时候修改条目以让其符合你作为深水城贵族的身份。
 和其他贵族一样，你出生和成长的世界与大多数人的认知不同——这是种给予你特权，但同时也要求你履行相应义务的身份。你的牵绊可能与所属家族相关，也可能与另一个与所属家族同盟或敌对的贵族家族相关。你的理想某种程度上取决于你如何看待自己在家庭中的角色，以及你打算如何在世上表现你作为家族代表的身份。</t>
+  </si>
+  <si>
+    <t>王冠之誓</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>王冠之誓Oath of the Crown
+圣武士 神圣誓言
+王冠之誓，是一种对于文明的崇高理想。它通常体现为一种对民族精神的认同，一种对君王的效忠，或者是一种对于律法和规则的维护。遵循王冠之誓的圣武士们献身于整个社会，致力使社会整体遵循于法律。他们是秩序社会最后的守护者，时刻提防着混乱和野蛮的浪潮将文明摧毁；一般人们会称呼他们为守护者，典范或者是哨兵。通常，会立下这个誓言的圣武士是一个效忠于国家或者君王的骑士，并且遵守这个誓言也是他们进入这个社会等级的一部分条件。
+请查询 王冠圣誓法术、神圣誓忠、顽强精神、崇高卫士、引导神力:捍卫挑战、引导神力:扭转局势 以获取更多信息。</t>
+  </si>
+  <si>
+    <t>紫龙骑士(旗将)</t>
+  </si>
+  <si>
+    <t>紫龙骑士(旗将)Purple Dragon Knight (Banneret)
+战士 武术范型
+紫龙骑士是来自科米尔王国的战士。他们承诺守护王国的传承，对抗王国领土内的邪恶。他们的任务是作为漫游骑士巡游祖国的土地，他们依靠判断力、英勇无畏、对骑士精神的忠贞来指引他们击败邪恶势力。
+一名紫龙骑士通过在战斗中的英勇表现激发其他人的战力。在一个小村庄内仅有一名骑士也足以让一些兽人们和土匪们不随便打这个村子的主意。一名孤独的骑士是一名技艺娴熟的战士，但是如果一名骑士领导着一队盟友，即使是装备最差的民兵也会转变成一个激昂的战斗团队。
+紫龙骑士们用行动而非言语证明自己。他们永远作为先头部队冲锋在队伍的最前方，用他们无畏的战斗唤醒友军的勇气和信念，正如他们自己所一直拥有的那样。
+限制：限定骑士
+紫龙骑士是一个特殊的、与科米尔地区的骑士绑定的范型。
+爵位 如果你想把它用在其他的战役模组或者是除了紫龙骑士团以外的军阀模型中，把爵位当做是这些范型的通用限制。
+请查询 重整姿态、皇家特使、振奋之潮、意志壁垒 以获取更多信息。</t>
+  </si>
+  <si>
+    <t>永亡宗</t>
+  </si>
+  <si>
+    <t>永亡宗Way of the Long Death
+武僧 宗派
+永亡宗的武僧迷醉于死亡的结构和意义。他们拘束生物并用精心准备的实验去捕捉，记录，理解他们死亡的瞬间。他们用这些知识去指导他们的武术，从而产生了致命的战斗风格。
+请查询 往生咒、索命镰、握生死、长眠触 以获取更多信息。</t>
+  </si>
+  <si>
+    <t>奥秘领域</t>
+  </si>
+  <si>
+    <t>奥秘领域Arcana Domain
+牧师 神圣领域
+魔法在制造毁灭的同时也带来新生。作为一种能量，它弥散在多元宇宙的每一个角落。而掌管奥秘领域的神祗知晓魔法的秘密和潜能。对于一些神而言，魔法知识是一种重要的理解现实本质的途径；而另一些神单单只把魔法视为纯粹的能量，并拿它用来做他们认为适当做的事情。
+这一领域的神祗往往和知识领域有联系，毕竟学习和奥术力量的关系往往亲密无间。在这个范围中，掌管这个领域的神祗包括阿祖斯和密斯特拉，还有精灵之神柯瑞隆。在其他世界，这个领域包括赫卡忒，麦斯麦索威，还有伊西斯；克莱恩的三月神索林那瑞，努林塔瑞和努塔瑞；灰鹰的博卡布，维克那和维婕斯。
+请查询 奥术传承、法术破坏者、强力施法、奥术精通、引导神力:奥秘阻绝 以获取更多信息。</t>
+  </si>
+  <si>
+    <t>不朽者宗主</t>
+  </si>
+  <si>
+    <t>不朽者宗主The Undying
+邪术师 异界宗主
+你的宗主早已破译了有关无穷生命的奥秘，死亡对于他而言不再有任何威胁。他不介意和一个凡人——在他看来寿命有如四季般更替、有如昼夜般闪烁的凡人分享他的力量，作为服务于他的一点奖赏。
+这类存在包括万隐万秘之主宰维克那，邪恶者伊乌兹，不朽殿的艾伦诺，吉斯洋基人的君王维拉基斯，还有不死的黑袍巫师费斯坦但提勒斯。
+请查询 扩展法术列表、历经死亡、反抗死亡、不朽之理、永恒生命 以获取更多信息。</t>
+  </si>
+  <si>
+    <t>战狂道途</t>
+  </si>
+  <si>
+    <t>战狂道途Path of the Battlerager
+野蛮人 原初道途
+战狂道途通常被那些选择追随战争之神的矮人选择，在矮人语中他们被称作为“库扎尔夫”（意指“斧头笨蛋”）。他们常穿着厚重的、带刺的盔甲冲入战场，用他们自己的身体在战斗中挥洒怒火。
+限制：限定矮人
+只有矮人才可以选择战狂道途。在矮人的社会和文化中战狂占据了一个特殊的位置。
+你的DM可以调整这一规则使之更符合战役。
+请查询 战狂装甲、凶蛮无羁、战狂冲锋、钉刺反冲 以获取更多信息。</t>
+  </si>
+  <si>
+    <t>王冠之誓:王冠圣誓法术</t>
+  </si>
+  <si>
+    <t>王冠之誓:王冠圣誓法术Oath of Crown Spells
+第3级王冠之誓特性
+3rd  命令术，强制决斗。
+5th  守护之链，诚实之域
+9th  活力灵光，灵体卫士
+13th 放逐术，信仰守卫
+17th 威力法阵，指使术</t>
+  </si>
+  <si>
+    <t>王冠之誓:神圣誓忠</t>
+  </si>
+  <si>
+    <t>王冠之誓:神圣誓忠Divine Allegiance
+第7级王冠之誓特性
+如果一个在你周围5尺内的生物受到伤害，你可以使用你的反应魔法地代替目标生物承受这一次伤害，使目标不再受伤。你不能用任何方式减少或者阻止这个伤害。</t>
+  </si>
+  <si>
+    <t>王冠之誓:顽强精神</t>
+  </si>
+  <si>
+    <t>王冠之誓:顽强精神Unyielding Spirit
+第15级王冠之誓特性
+你在避免陷入震慑或者麻痹状态的豁免骰中得到优势</t>
+  </si>
+  <si>
+    <t>王冠之誓:崇高卫士</t>
+  </si>
+  <si>
+    <t>王冠之誓:崇高卫士Exalted Champion
+第20级王冠之誓特性
+对于那些献身于你所遵从的事业的人而言，你已经成为了一个鼓舞人心的完美典范。你可以用一个动作在接下来1个小时里得到如下好处：
+你抵抗由非魔法武器造成的钝击、穿刺和挥砍伤害。
+在你30尺距离内的盟友在进行死亡豁免时具有优势。
+你和你30尺距离内的盟友在感知豁免上具有优势。
+如果你死亡或者进入失能状态，这个效果将提前结束。一旦你使用了这个能力，在你完成一次长休息之前你不能再次使用。</t>
+  </si>
+  <si>
+    <t>永亡宗:往生咒</t>
+  </si>
+  <si>
+    <t>永亡宗:往生咒Touch of Death
+第3级永亡宗特性
+你对死亡的研究使你能在临近的生物逝去前抽取他们的生命力。
+当你使一个5尺距离内的生物生命值下降到0点时，你得到你的感知调整值+武僧等级的临时生命值（最小1点）。</t>
+  </si>
+  <si>
+    <t>永亡宗:索命镰</t>
+  </si>
+  <si>
+    <t>永亡宗:索命镰Hour of Reaping
+第6级永亡宗特性
+你可以展现出你灵魂本质中的死亡阴影，使周围的人感到惊惧和恐慌。
+以一个动作，你使距离你30尺内的所有能看见你的生物立即进行一次感知豁免。若豁免失败，他们将对你恐慌直到你的下回合结束。</t>
+  </si>
+  <si>
+    <t>永亡宗:握生死</t>
+  </si>
+  <si>
+    <t>永亡宗:握生死Mastery of Death
+第11级永亡宗特性
+你对死亡的熟悉使你可以避过它的抓捕。
+每次你的生命值下降为0，你可以花费1点气（无需任何动作）使自己保留1点生命值。</t>
+  </si>
+  <si>
+    <t>永亡宗:长眠触</t>
+  </si>
+  <si>
+    <t>永亡宗:长眠触Touch of the Long Death
+第17级永亡宗特性
+你可以将死亡的能量传入生物的体内。
+以一个动作，你触碰一个5尺内的生物，同时花费1到10点气。目标必须进行一次体质豁免，若失败将受到每点被耗费的气2d10的黯蚀伤害。成功通过豁免可以使这个伤害降低到一半。</t>
+  </si>
+  <si>
+    <t>不朽者宗主:扩展法术列表</t>
+  </si>
+  <si>
+    <t>不朽者宗主:扩展法术列表Expanded Spell List
+第1级不朽者宗主特性
+1st 虚假生命，致病射线
+2nd 目盲术/耳聋术，沉默术
+3rd 假死术，死者交谈
+4th 生命灵光，防死结界
+5th 疫病术，通晓传奇</t>
+  </si>
+  <si>
+    <t>不朽者宗主:历经死亡</t>
+  </si>
+  <si>
+    <t>不朽者宗主:历经死亡Among the Dead
+第1级不朽者宗主特性
+你学会戏法维生术，并将它视作一个邪术师戏法。你同时在对任何疾病的豁免上具有优势。
+此外，不死生物将更难伤害你。若有不死生物直接指定你为攻击或者有害法术的目标，这个生物必须进行一次感知豁免来对抗你的施法DC（但他不需要在使用包括你在内的区域能力时进行豁免，比如火球术）。若失败，这个生物必须选择一个新的目标，如果他没有除你以外的目标可以选择则他失去这次法术或者攻击。若他成功通过了豁免，或者你以他为目标进行攻击或者施放有害法术，那么这个不死生物在接下来24小时里对这个效果免疫。</t>
+  </si>
+  <si>
+    <t>不朽者宗主:反抗死亡</t>
+  </si>
+  <si>
+    <t>不朽者宗主:反抗死亡Defy Death
+第6级不朽者宗主特性
+你为成功欺骗了死亡而感到振奋。当你成功进行一次死亡豁免，或者在你使用维生术帮助其他生物稳定伤势的时候，你可以立即回复1d8+你的体质调整值（最少为1点）的生命值。
+一旦你使用了这个能力，直到一次长休息之前你不能再次使用。</t>
+  </si>
+  <si>
+    <t>不朽者宗主:不朽之理</t>
+  </si>
+  <si>
+    <t>不朽者宗主:不朽之理Undying Nature
+第10级不朽者宗主特性
+你可以无限制地屏住呼吸，并且你不再需要食物、水和睡眠，虽然你仍旧需要休息来恢复疲惫并且从长/短休息中获得收益。
+并且，你的年龄增长速度被放慢。每过去10年，你的身体只会衰老1年，并且你免疫魔法衰老。</t>
+  </si>
+  <si>
+    <t>不朽者宗主:永恒生命</t>
+  </si>
+  <si>
+    <t>不朽者宗主:永恒生命Indestructible Life
+第14级不朽者宗主特性
+你从你的宗主处窥探到一些有关于永恒的奥秘。在你的回合，你可以使用一个附赠动作恢复1d8+邪术师等级的生命值。此外，如果你在使用这个能力的同时把自己一部分被切断的躯体放置在断口处，那部分伤口将会愈合。
+一旦你使用了这个能力，直到一次长/短休息之前你不能再次使用。</t>
+  </si>
+  <si>
+    <t>紫龙骑士(旗将):重整姿态</t>
+  </si>
+  <si>
+    <t>紫龙骑士(旗将):重整姿态Rallying Cry
+第3级紫龙骑士(旗将)特性
+你学会了如何激励你的盟友来对抗伤害。当你使用你的回气能力，你可以选择在你60尺范围内最多3个盟友，他们每个人都恢复等同于你的战士等级的生命值。他们必须要能看到或者听到你的声音才能获得这个好处。</t>
+  </si>
+  <si>
+    <t>紫龙骑士(旗将):皇家特使</t>
+  </si>
+  <si>
+    <t>紫龙骑士(旗将):皇家特使Royal Envoy
+第7级紫龙骑士(旗将)特性
+你熟练于说服技能。如果你已经对这项技能熟练，你可以选择以下列表中的一项技能熟练：驯养动物，洞悉，威吓，表演。
+你在进行魅力（说服）检定时可以将双倍的熟练值加在上面。你始终获得这个好处，不管你是否从这个能力中得到了对于说服技能的熟练。</t>
+  </si>
+  <si>
+    <t>紫龙骑士(旗将):振奋之潮</t>
+  </si>
+  <si>
+    <t>紫龙骑士(旗将):振奋之潮Inspiring Surge
+第10级紫龙骑士(旗将)特性
+每当你使用你的动作如潮能力时，你可以选择一个在你周围60尺内的盟友，他可以立刻用他的反应进行一次近战或者远程武器攻击。他必须要能看见或者听见你的声音才能获得这个好处。
+从18级起，你可以选择两个盟友。</t>
+  </si>
+  <si>
+    <t>紫龙骑士(旗将):意志壁垒</t>
+  </si>
+  <si>
+    <t>紫龙骑士(旗将):意志壁垒Bulwark
+第15级紫龙骑士(旗将)特性
+你可以延展你的不屈能力作用于你的盟友。每当你决定用不屈重投智力，感知或者魅力豁免并且你未处于失能状态，你可以选择一个在你60尺距离内对同样的效果豁免失败的盟友。如果他能看见你或者听见你的声音，他可以重投豁免骰。他必须采用新的结果。</t>
+  </si>
+  <si>
+    <t>战狂道途:战狂装甲</t>
+  </si>
+  <si>
+    <t>战狂道途:战狂装甲Battlerager Armor
+第3级战狂道途特性
+你得到将钉刺甲（参照“钉刺甲”条目）作为武器使用的能力。
+当你穿着钉刺甲并在狂暴中，你可以使用你的附赠动作用钉刺甲对5尺内的目标进行一次近战武器攻击。若攻击命中，钉刺将造成1d4的穿刺伤害。把你的力量调整加在武器的攻击和伤害骰上。
+另外，当你使用攻击动作去擒抱一个生物，你在擒抱检定成功时对他造成3点穿刺伤害。</t>
+  </si>
+  <si>
+    <t>战狂道途:凶蛮无羁</t>
+  </si>
+  <si>
+    <t>战狂道途:凶蛮无羁Reckless Abandon
+第6级战狂道途特性
+若你在狂暴中使用鲁莽攻击，你可以得到等同你体质调整值的临时生命（最少1点）。当你结束狂暴时它们消失。</t>
+  </si>
+  <si>
+    <t>战狂道途:战狂冲锋</t>
+  </si>
+  <si>
+    <t>战狂道途:战狂冲锋Battlerager Charge
+第10级战狂道途特性
+你在狂暴中可以用一个附赠动作进行疾走。</t>
+  </si>
+  <si>
+    <t>战狂道途:钉刺反冲</t>
+  </si>
+  <si>
+    <t>战狂道途:钉刺反冲Spiked Retribution
+第14级战狂道途特性
+每当你5尺内有生物用近战攻击命中你，同时你处于狂暴中且并非失能，攻击者将立即受到3点穿刺伤害。你必须穿着钉刺甲才能使用这个能力。</t>
+  </si>
+  <si>
+    <t>奥秘领域:奥术传承</t>
+  </si>
+  <si>
+    <t>奥秘领域:奥术传承Arcane Initiate
+第1级奥秘领域特性
+你得到奥秘技能的熟练，并且你可以从法师法术列表选择两个戏法掌握。对于你而言，这些戏法是牧师戏法。</t>
+  </si>
+  <si>
+    <t>奥秘领域:法术破坏者</t>
+  </si>
+  <si>
+    <t>奥秘领域:法术破坏者Spell Breaker
+第6级奥秘领域特性
+每次你使用1环或者更高环数的法术恢复了一名盟友的生命值，你同时可以选择作用于此生物的一个法术终止。被终止的法术等级不能高于你用来施放恢复法术所占用的法术位。</t>
+  </si>
+  <si>
+    <t>奥秘领域:强力施法</t>
+  </si>
+  <si>
+    <t>奥秘领域:强力施法Potent Spellcasting
+第8级奥秘领域特性
+在你的任何牧师戏法造成的伤害中加上你的感知加值。</t>
+  </si>
+  <si>
+    <t>奥秘领域:奥术精通</t>
+  </si>
+  <si>
+    <t>奥秘领域:奥术精通Arcane Mastery
+第17级奥秘领域特性
+你从法师的施法列表中选择6环、7环、8环、9环法术各一，并将它们加入自己的领域法术列表。你总是准备了它们，并且对你而言它们被视为牧师法术。</t>
+  </si>
+  <si>
+    <t>领域法术:奥秘领域法术</t>
+  </si>
+  <si>
+    <t>领域法术:奥秘领域法术Arcana Domain Spells
+领域法术
+牧师等级   法术
+1st 侦测魔法，魔法飞弹
+3rd 魔化武器，涅斯图魔法灵光
+5th 解除魔法，防护法阵
+7th 秘法眼，李欧蒙秘藏箱
+9th 异界誓缚，传送法阵</t>
+  </si>
+  <si>
+    <t>王冠之誓:引导神力:捍卫挑战</t>
+  </si>
+  <si>
+    <t>王冠之誓:引导神力:捍卫挑战Channel Divinity: Champion Challenge
+第3级王冠之誓特性(引导神力)
+以一个附赠动作，你发出挑战逼迫其他生物与你战斗。你可以选择30尺内任意数量你可以看见的生物，他们每一个都必须要通过一次感知豁免。如果豁免失败，那个生物将不能自愿从你周围30尺范围离开。如果你死亡，或者你失能，或者生物与你距离超过30尺，则此效果结束。</t>
+  </si>
+  <si>
+    <t>王冠之誓:引导神力:扭转局势</t>
+  </si>
+  <si>
+    <t>王冠之誓:引导神力:扭转局势Channel Divinity: Turn the Tide
+第3级王冠之誓特性(引导神力)
+以一个附赠动作，你可以引导神力支撑受伤的生物继续战斗。你可以选择你周围30尺内任意数量可以听见你说话的生物，如果他们生命值在一半以下，他们将立即恢复1d6+你的魅力调整值（最小为1点）的生命值。</t>
+  </si>
+  <si>
+    <t>奥秘领域:引导神力:奥秘阻绝</t>
+  </si>
+  <si>
+    <t>奥秘领域:引导神力:奥秘阻绝Channel Divinity: Arcane Abjuration
+第2级奥秘领域特性(引导神力)
+你可以使用你的引导神力来抵御外世界生物。
+以一个动作，你可以展示你的圣徽，同时你选择一个30尺内能看见或者听见你声音的天界，元素，精类或者邪魔类生物进行一次感知豁免。如果他未通过，他在1分钟之内被驱散直到他受到任何伤害。
+一个被驱散的生物必须使用他的回合尽力远离你，并且无法主动靠近你30尺以内。同时他们无法使用反应。在他们行动中，只能使用疾走或者从任何妨碍他们移动的效果中挣脱出来。如果没有任何地方移动，该生物使用闪避动作。
+从5级起，如果一个挑战等级小于等于表内数值且不是这个位面原住民的生物在对抗你的奥秘阻绝能力时豁免失败，他将在1分钟之内被放逐（如同驱逐术，但不需要专注）。
+牧师等级 被放逐的生物CR
+  5th                 1/2
+  8th                  1
+ 11th                 2
+ 14th                 3
+ 17th                 4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -756,28 +1040,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -794,14 +1057,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -841,6 +1096,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -891,6 +1161,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -898,7 +1175,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -918,7 +1202,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -930,7 +1214,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -942,13 +1238,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -960,7 +1292,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -972,37 +1340,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1014,66 +1352,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1087,6 +1365,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1109,21 +1393,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1156,6 +1425,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1212,152 +1496,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1369,59 +1653,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1719,18 +2009,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD2"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="2" width="20" style="2" customWidth="1"/>
-    <col min="3" max="3" width="93.2181818181818" style="6" customWidth="1"/>
-    <col min="4" max="4" width="29.3363636363636" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="18.1833333333333" customWidth="1"/>
+    <col min="3" max="3" width="103.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
@@ -1758,78 +2046,52 @@
         <v>6</v>
       </c>
       <c r="B2" s="3"/>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="7" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="F2" s="4"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="7" t="s">
         <v>9</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="F3" s="4"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>8</v>
-      </c>
+    <row r="5" s="1" customFormat="1" ht="14.4" customHeight="1" spans="3:6">
+      <c r="C5" s="8"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+    <row r="6" s="1" customFormat="1" ht="14.4" customHeight="1" spans="6:6">
       <c r="F6" s="4"/>
     </row>
-    <row r="7" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
+    <row r="7" s="1" customFormat="1" ht="14.4" customHeight="1" spans="6:6">
       <c r="F7" s="4"/>
     </row>
-    <row r="8" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+    <row r="8" s="1" customFormat="1" ht="14.4" customHeight="1" spans="6:6">
       <c r="F8" s="4"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="F9" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
   <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
@@ -1838,16 +2100,16 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="18.1818181818182" customWidth="1"/>
-    <col min="3" max="3" width="103.5" style="2" customWidth="1"/>
+    <col min="1" max="1" width="15.0916666666667" customWidth="1"/>
+    <col min="3" max="3" width="117.541666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
@@ -1872,69 +2134,328 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B2" s="3"/>
-      <c r="C2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="C2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="C3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3" t="s">
+      <c r="C6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
       <c r="F6" s="4"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A7" s="3"/>
+      <c r="A7" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
+      <c r="C7" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="F7" s="4"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A8" s="3"/>
+      <c r="A8" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="C8" s="8" t="s">
+        <v>26</v>
+      </c>
       <c r="F8" s="4"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
+      <c r="A9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>29</v>
+      </c>
       <c r="F9" s="4"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="F34" s="4"/>
+    </row>
+    <row r="35" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="F35" s="4"/>
+    </row>
+    <row r="36" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="F36" s="4"/>
+    </row>
+    <row r="37" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="F37" s="4"/>
+    </row>
+    <row r="38" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="F38" s="4"/>
+    </row>
+    <row r="39" s="2" customFormat="1" ht="14.4" customHeight="1" spans="2:2">
+      <c r="B39" s="6"/>
+    </row>
+    <row r="40" s="2" customFormat="1" ht="14.4" customHeight="1" spans="2:2">
+      <c r="B40" s="6"/>
+    </row>
+    <row r="41" s="2" customFormat="1" ht="14.4" customHeight="1" spans="2:2">
+      <c r="B41" s="6"/>
+    </row>
+    <row r="42" s="2" customFormat="1" ht="14.4" customHeight="1" spans="2:2">
+      <c r="B42" s="6"/>
+    </row>
+    <row r="43" s="2" customFormat="1" ht="14.4" customHeight="1" spans="2:2">
+      <c r="B43" s="6"/>
+    </row>
+    <row r="44" s="2" customFormat="1" ht="14.4" customHeight="1" spans="2:2">
+      <c r="B44" s="6"/>
+    </row>
+    <row r="45" s="2" customFormat="1" ht="14.4" customHeight="1" spans="2:2">
+      <c r="B45" s="6"/>
+    </row>
+    <row r="46" s="2" customFormat="1" ht="14.4" customHeight="1" spans="2:2">
+      <c r="B46" s="6"/>
+    </row>
+    <row r="47" s="2" customFormat="1" ht="14.4" customHeight="1" spans="2:2">
+      <c r="B47" s="6"/>
+    </row>
+    <row r="48" s="2" customFormat="1" ht="14.4" customHeight="1" spans="2:2">
+      <c r="B48" s="6"/>
+    </row>
+    <row r="49" s="2" customFormat="1" ht="14.4" customHeight="1" spans="2:2">
+      <c r="B49" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1948,14 +2469,14 @@
   <sheetPr/>
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD38"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="15.0909090909091" customWidth="1"/>
-    <col min="3" max="3" width="117.545454545455" customWidth="1"/>
+    <col min="1" max="1" width="15.0916666666667" customWidth="1"/>
+    <col min="3" max="3" width="117.541666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
@@ -1979,340 +2500,502 @@
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="4"/>
+      <c r="A2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="4"/>
+      <c r="A3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="4"/>
+      <c r="A4" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="4"/>
+      <c r="A5" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="4"/>
+      <c r="A6" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="4"/>
+      <c r="A7" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A8" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="4"/>
+      <c r="A8" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="4"/>
+      <c r="A9" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" s="4"/>
+      <c r="A10" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
     </row>
     <row r="11" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A11" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="4"/>
+      <c r="A11" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A12" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" s="4"/>
+      <c r="A12" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
     </row>
     <row r="13" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A13" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" s="4"/>
+      <c r="A13" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A14" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" s="4"/>
+      <c r="A14" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
     </row>
     <row r="15" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A15" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" s="4"/>
+      <c r="A15" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
     </row>
     <row r="16" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A16" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" s="4"/>
+      <c r="A16" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
     </row>
     <row r="17" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A17" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F17" s="4"/>
+      <c r="A17" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
     </row>
     <row r="18" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A18" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F18" s="4"/>
+      <c r="A18" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
     </row>
     <row r="19" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A19" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F19" s="4"/>
+      <c r="A19" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
     </row>
     <row r="20" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A20" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F20" s="4"/>
+      <c r="A20" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
     </row>
     <row r="21" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A21" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F21" s="4"/>
+      <c r="A21" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
     </row>
     <row r="22" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A22" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F22" s="4"/>
+      <c r="A22" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
     </row>
     <row r="23" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A23" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F23" s="4"/>
+      <c r="A23" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
     </row>
     <row r="24" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A24" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F24" s="4"/>
+      <c r="A24" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
     </row>
     <row r="25" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A25" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F25" s="4"/>
+      <c r="A25" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
     </row>
     <row r="26" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A26" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F26" s="4"/>
+      <c r="A26" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
     </row>
     <row r="27" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A27" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F27" s="4"/>
+      <c r="A27" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
     </row>
     <row r="28" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A28" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F28" s="4"/>
+      <c r="A28" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
     </row>
     <row r="29" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A29" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F29" s="4"/>
+      <c r="A29" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
     </row>
     <row r="30" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="F30" s="4"/>
+      <c r="A30" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
     </row>
     <row r="31" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="F31" s="4"/>
+      <c r="A31" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
     </row>
     <row r="32" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="F32" s="4"/>
+      <c r="A32" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
     </row>
     <row r="33" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="F33" s="4"/>
+      <c r="A33" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
     </row>
     <row r="34" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="F34" s="4"/>
+      <c r="A34" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
     </row>
     <row r="35" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="F35" s="4"/>
+      <c r="A35" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
     </row>
     <row r="36" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="F36" s="4"/>
+      <c r="A36" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
     </row>
     <row r="37" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="F37" s="4"/>
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
     </row>
     <row r="38" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A38" s="3"/>
@@ -2321,37 +3004,37 @@
       <c r="F38" s="4"/>
     </row>
     <row r="39" s="2" customFormat="1" ht="14.4" customHeight="1" spans="2:2">
-      <c r="B39" s="5"/>
+      <c r="B39" s="6"/>
     </row>
     <row r="40" s="2" customFormat="1" ht="14.4" customHeight="1" spans="2:2">
-      <c r="B40" s="5"/>
+      <c r="B40" s="6"/>
     </row>
     <row r="41" s="2" customFormat="1" ht="14.4" customHeight="1" spans="2:2">
-      <c r="B41" s="5"/>
+      <c r="B41" s="6"/>
     </row>
     <row r="42" s="2" customFormat="1" ht="14.4" customHeight="1" spans="2:2">
-      <c r="B42" s="5"/>
+      <c r="B42" s="6"/>
     </row>
     <row r="43" s="2" customFormat="1" ht="14.4" customHeight="1" spans="2:2">
-      <c r="B43" s="5"/>
+      <c r="B43" s="6"/>
     </row>
     <row r="44" s="2" customFormat="1" ht="14.4" customHeight="1" spans="2:2">
-      <c r="B44" s="5"/>
+      <c r="B44" s="6"/>
     </row>
     <row r="45" s="2" customFormat="1" ht="14.4" customHeight="1" spans="2:2">
-      <c r="B45" s="5"/>
+      <c r="B45" s="6"/>
     </row>
     <row r="46" s="2" customFormat="1" ht="14.4" customHeight="1" spans="2:2">
-      <c r="B46" s="5"/>
+      <c r="B46" s="6"/>
     </row>
     <row r="47" s="2" customFormat="1" ht="14.4" customHeight="1" spans="2:2">
-      <c r="B47" s="5"/>
+      <c r="B47" s="6"/>
     </row>
     <row r="48" s="2" customFormat="1" ht="14.4" customHeight="1" spans="2:2">
-      <c r="B48" s="5"/>
+      <c r="B48" s="6"/>
     </row>
     <row r="49" s="2" customFormat="1" ht="14.4" customHeight="1" spans="2:2">
-      <c r="B49" s="5"/>
+      <c r="B49" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/builtins/data/helpdoc/DND/04_剑湾冒险者指南SCAG.xlsx
+++ b/builtins/data/helpdoc/DND/04_剑湾冒险者指南SCAG.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7270" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="SCAG法术" sheetId="1" r:id="rId1"/>
-    <sheet name="SCAG种族" sheetId="3" r:id="rId2"/>
-    <sheet name="SCAG背景" sheetId="4" r:id="rId3"/>
+    <sheet name="SCAG种族" sheetId="3" r:id="rId1"/>
+    <sheet name="SCAG背景" sheetId="4" r:id="rId2"/>
+    <sheet name="SCAG职业" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -25,11 +25,9 @@
       <text>
         <r>
           <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
+            <sz val="10"/>
             <rFont val="宋体"/>
-            <scheme val="minor"/>
-            <charset val="0"/>
+            <charset val="134"/>
           </rPr>
           <t>查询关键字</t>
         </r>
@@ -39,11 +37,9 @@
       <text>
         <r>
           <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
+            <sz val="10"/>
             <rFont val="宋体"/>
-            <scheme val="minor"/>
-            <charset val="0"/>
+            <charset val="134"/>
           </rPr>
           <t>选填, 关键字同义词, 用/分割</t>
         </r>
@@ -53,11 +49,9 @@
       <text>
         <r>
           <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
+            <sz val="10"/>
             <rFont val="宋体"/>
-            <scheme val="minor"/>
-            <charset val="0"/>
+            <charset val="134"/>
           </rPr>
           <t>词条内容</t>
         </r>
@@ -67,11 +61,9 @@
       <text>
         <r>
           <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
+            <sz val="10"/>
             <rFont val="宋体"/>
-            <scheme val="minor"/>
-            <charset val="0"/>
+            <charset val="134"/>
           </rPr>
           <t>选填, 对于词条的简短描述</t>
         </r>
@@ -81,11 +73,9 @@
       <text>
         <r>
           <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
+            <sz val="10"/>
             <rFont val="宋体"/>
-            <scheme val="minor"/>
-            <charset val="0"/>
+            <charset val="134"/>
           </rPr>
           <t>选填, 该词条被归在哪一个目录下, 用/分割父子目录</t>
         </r>
@@ -95,11 +85,9 @@
       <text>
         <r>
           <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
+            <sz val="10"/>
             <rFont val="宋体"/>
-            <scheme val="minor"/>
-            <charset val="0"/>
+            <charset val="134"/>
           </rPr>
           <t>选填, 内容的Tag, 如#核心 #法术</t>
         </r>
@@ -274,7 +262,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="148">
   <si>
     <t>Key</t>
   </si>
@@ -294,73 +282,10 @@
     <t>Tag</t>
   </si>
   <si>
-    <t>轰雷剑</t>
-  </si>
-  <si>
-    <t>轰雷剑 Booming Blade
-术士、邪术师、法师
-塑能 戏法
-施法时间：1动作
-施法距离：5尺
-法术成分：V、M（一把武器）
-持续时间：1 轮
-作为施展这个法术的一部分，你必须用你的武器对施法距离内的一个生物进行一次近战攻击，否则法术失败。如果攻击命中，目标受到这次攻击的正常影响，并且被包覆在爆发性的能量之中直到你的下回合开始。如果目标在这之前自愿进行了一次移动，他将立即受到1d8的雷鸣伤害，并且法术结束。
-戏法的伤害随着你的等级提升而增加。在你5级的时候，这次近战攻击将造成额外1d8雷鸣伤害，并且目标进行移动时受到的伤害提升为2d8。所有伤害骰都会在11级和17级的时候增长1d8。</t>
-  </si>
-  <si>
-    <t>剑湾冒险者指南中的法术</t>
-  </si>
-  <si>
-    <t>翠炎剑</t>
-  </si>
-  <si>
-    <t xml:space="preserve">翠炎剑 Green-Flame Blade
-术士、邪术师、法师
-塑能 戏法
-施法时间：1动作
-施法距离：5尺
-法术成分：V、M（一把武器）
-持续时间：立即
-作为施展这个法术的一部分，你必须用你的武器对施法距离内的一个生物进行一次近战攻击，否则法术失败。如果攻击命中，目标受到这次攻击的正常影响，并且翠绿色的火焰将从目标身上跳转至另一个生物。这个生物必须在第一个目标周围5尺之内，并且你可以看见；它将受到等于你施法主属性的调整值的火焰伤害。
-戏法的伤害随着你的等级提升而增加。在你5级的时候，这次近战攻击将造成额外1d8火焰伤害，且第二个目标将受到的伤害提升至1d8+你的施法关键属性调整值。所有伤害骰都会在11级和17级的时候增长1d8。
-</t>
-  </si>
-  <si>
-    <t>闪电牵引</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>闪电牵引 Lightning Lure
-术士、邪术师、法师
-塑能 戏法
-施法时间：1动作
-施法距离：15尺半径
-法术成分：V
-持续时间：立即
-你创造出鞭状的闪电能量袭击射程内你可以看见的一个生物。目标必须进行一次力量豁免；若失败，目标将以直线被你拉近10尺。如果拉近以后目标在你周围5尺内，那么他将受到1d8闪电伤害。
-第5级时，本法术的伤害增加1d8（变为2d8）。11级时再增加1d8（变为3d8），17级时再增加1d8（变为4d8）。</t>
-  </si>
-  <si>
-    <t>剑刃爆发</t>
-  </si>
-  <si>
-    <t>剑刃爆发 Sword Burst
-术士、邪术师、法师
-咒法 戏法
-施法时间：1动作
-施法距离：5尺
-法术成分：V
-持续时间：立即
-你制造出一圈短暂存在的半透明利刃来清扫周围。施法距离内除你以外的每个生物都必须成功通过一次敏捷豁免，否则将受到1d6的力场伤害。
-第5级时，本法术的伤害增加1d6（变为 2d6）。11级时再增加1d6（变为3d6），17级时再增加1d6（变为4d6）。</t>
-  </si>
-  <si>
     <t>鬼智半身人</t>
   </si>
   <si>
-    <t>鬼智半身人
+    <t>鬼智半身人 Ghostwise Halflings
 鬼智半身人的祖先在同族迁居到鲁伦时选择向他们发起战争。鬼智半身人是半身人当中最罕见的，如今他们主要以氏族的形式聚集在琼德尔森林和少数其他孤立的森林中。
 许多鬼智半身人氏族会甄选一块自然的地标作为他们氏族领土的中心，他们的成员在任何时候都会携带分离自那块地标之上的一小片。他们拥有骑乘着巨猫头鹰的、被称为夜骑者的氏族武士。
 由于这些氏族对于外族的态度排外且不信任，因此鬼智半身人冒险者十分少见。询问你的DM你是否可以扮演这个种族的一员。使用玩家手册中的半身人特性，再加上以下亚种特性。
@@ -368,25 +293,22 @@
 鬼灵言语：你可以向你30尺内的任何生物如同心灵感应般进行沟通。生物必须与你共同知晓一种语言才能理解你的发言。你通过这个方式每次只能和一名生物进行心灵沟通。</t>
   </si>
   <si>
-    <t>#SCAG</t>
-  </si>
-  <si>
     <t>半精灵变体</t>
   </si>
   <si>
-    <t>半精灵变体
-一些费伦的半精灵保留了他们的血统特质在多才多艺特性的位置。如果你的DM允许，你的半精灵角色可以放弃多才多艺特性，并且用精灵的敏锐感官特性或者是以下基于你精灵血统的选项其中之一来取代：
-拥有木精灵血统的半精灵可以选择木精灵武器训练，轻捷步伐，或者是野性面具特性。
-拥有月精灵或者日精灵血统的半精灵可以选择高等精灵武器训练或者戏法特性。
-拥有卓尔精灵血统的半精灵可以选择卓尔魔法特性。
-拥有水生血统的半精灵可以选择30尺的游泳速度。
-注：在剑湾冒险者指南中，日精灵和月精灵使用玩家手册中的高等精灵的数据。</t>
+    <t>半精灵变体 Half-Elf Variants
+一些费伦的半精灵用自己的血统特质代替了“多才多艺”特质。如果你的 DM 允许，你的半精灵角色可以放弃“多才多艺”特性，并用以下基于你精灵血统的选项其中之一来取代：
+·拥有木精灵血统的半精灵可以选择木精灵武器训练，轻捷步伐，或者是野性面具特性。
+·拥有月精灵血统或者日精灵血统的半精灵可以选择高等精灵武器训练或者戏法特性。
+·拥有卓尔精灵血统的半精灵可以选择卓尔魔法特性。
+·拥有水生精灵血统的半精灵可以选择30尺的游泳速度。
+（注：在剑湾冒险者指南中，日精灵和月精灵使用玩家手册中的高等精灵的数据。）</t>
   </si>
   <si>
     <t>提夫林变体</t>
   </si>
   <si>
-    <t>提夫林变体
+    <t>提夫林变体Thefling Variants
 并非所有提夫林的血脉都来自阿斯蒙蒂斯，一些提夫林与玩家手册上的提夫林有着显著不同的区别。地下城主可能允许你的提夫林角色使用以下变体，虽然魔鬼之舌、地狱之火和飞翼特性是相互排斥的。
 外观：你的提夫林看起来或许和其他提夫林很不一样。取代玩家手册里你在外观上的物理特征，从以下特征中选择1d4+1项：小型犄角，长或者锋利的尖牙，分叉的舌头，猫瞳，每只手上六根手指，山羊腿，偶蹄，分叉的尾巴，革状或者带鳞片的皮肤，红色或者深蓝色的皮肤，无法投下影子或者映像，发散出硫磺般的气味。
 野性：你的智力+1，并且你的敏捷+2。这取代了你的属性值提升特性。
@@ -398,16 +320,24 @@
     <t>城市守卫</t>
   </si>
   <si>
-    <t>城市守卫 City Watch
-当你长大之时，你加入了城市守卫，并且坚定的站在了对抗犯罪的第一线。你并不是一名士兵，注意着外来的敌人，相反你是服务于你的城镇，帮助民众们处理罪犯，从犯法者和作恶者们手上保护城市。
-技能熟练：运动，洞察
-语言：两种由你选择的语言
-装备：一件你所在组织的标示你军衔的制服，一个用来召唤帮手的号角，一副手铐，一个装有10金币的袋子
-特性：守护者之眼
-你对执行法律、处理犯法者有着丰富的经验，这给了你对法律和犯罪异常敏感的感觉。你能很容易的找到守卫的哨站或是一些类似的组织，也能轻易的发现犯罪者们活动的窝点，同时你也在前者更容易受到欢迎。
+    <t>城市守卫 City Watch 
+当你长大之时，你加入了城市守卫，并且坚定的站在了对抗犯罪的第一线。你并不是一名抵御外来敌人的战士，相反，你是服务于你的城镇，帮助民众们处理罪犯，从犯法者和作恶者们手上保护城市。（未翻译完全，以下是原文） 
+You have served the community where you grew up, standing as its first line of defense against crime. You aren't a soldier, directing your gaze outward at possible enemies. Instead, your service to your hometown was to help police its populace, protecting the citizenry from lawbreakers and malefactors of every stripe.
+You might have been part of the City Watch of Waterdeep, the baton-wielding police force of the City of Splendors, protecting the common folk from thieves and rowdy nobility alike. Or you might have been one of the valiant defenders of Silverymoon, a member of the Silverwatch or even one of the magic-wielding Spellguard.
+Perhaps you hail from Neverwinter and have served as one of its Wintershield watchmen, the newly founded branch of guards who vow to keep safe the City of Skilled Hands.
+Even if you're not city-born or city-bred, this background can describe your early years as a member of law enforcement. Most settlements of any size have their own constables and police forces, and even smaller communities have sheriffs and bailiffs who stand ready to protect their community.
+技能熟练项：运动、洞悉
+语言：两门自选语言
+装备：一件你所在派系的标示你军衔的制服，一个用来召唤帮手的号角，一副手铐，以及一个装有10gp的小包
+特性：守卫者之眼
+Feature: Watcher's Eye
+你对执行法律、处理违法者有着丰富的经验给予了你对当地法律和罪犯的敏锐感观。你能很容易的找到守卫的哨站或是一些类似的派系，也能轻易的发现社区中犯罪者们活动的窝点。当然，你在想在前者的官方派系受欢迎，而非后者。
 变体：调查员
-比警戒或是巡逻人员更稀有的是组织的调查员，专门负责调查犯罪后的真相。尽管这些人很少出现在乡村地带，几乎每一个像样规模的案子都会有一个或者两个有调查犯罪现场和追踪罪犯技能的调查员。如果你曾经是一名调查员，则你可以将熟练项中的运动技能替换为调查技能。
-建议特性：使用PHB中士兵背景作为你的基础特征和动机，在适当的时候修改条目以适应你作为城市守卫的一员。</t>
+Variant: Investigator
+比警戒或是巡逻人员更稀有的是派系的调查员，专门负责调查犯罪后的真相。尽管这些人很少出现在乡村地带，几乎每一个像样规模的案子都会有一个或者两个有调查犯罪现场和追踪罪犯技能的调查员。如果你曾经是一名调查员，则你可以将背景的运动技能熟练项替换为调查技能熟练项。
+建议特征Suggested Characteristics
+使用《玩家手册》中“士兵”的特征表格作为你的基础特征和动机，并在适当的时候修改条目以让其符合你作为城市守卫的身份。
+    你的羁绊可能会关联于你城市守卫的同袍们、或是守卫派系本身，且几乎确定会与你所在的社会有关。你的理念可能会包括促进和平与安全。而一名调查员则可能会有着与借由破案来实现正义有关的理念。</t>
   </si>
   <si>
     <t>宗族工匠</t>
@@ -416,16 +346,19 @@
     <t>氏族工匠</t>
   </si>
   <si>
-    <t>氏族工匠Clan Crafter
-矮人们以他们工艺和手工的价值而闻名，而你则一直在接受这门技艺的训练。多年来，你一直在一名矮人大师的门下学习磨练，为的就是今日你所拥有的好技艺。
-你一般来说应该是一名矮人，但这并不是必要的-特别是在北地，盾矮人部族们在很久之前就已经学到了只有自傲的傻瓜们才会在意学徒们的手艺会超过自己而拒绝收受徒弟，即使是其他种族的学徒。如果你不是一名矮人，无论如何你必须立下一个庄重的誓言，永远不接收这门工艺的学徒：这并不是为了非矮人们通过这门摩拉丁青睐的孩子们的技艺考核。你会毫无困难的找到一名矮人大师愿意接受你作为学徒并传授你这门技艺。
-技能熟练：历史，洞察
-工具熟练：一种自选的匠人工具
-语言：矮人语或者如果你已经熟悉矮人语了就自选一种语言
-装备：一种你所熟练的匠人工具，一个用来标示出你是从哪个宗族学习何种手工技艺的徽记，一件旅行者衣服，一个有5gp的小包和一块价值10gp的宝石。
+    <t>宗族工匠Clan Crafter 
+The Stout Folk 以他们工艺和手工的价值而闻名，而你则一直在接受这门技艺的训练。多年来，你一直在一名矮人大师的门下学习磨练，为的就是今日你所拥有的好技艺。 
+你很可能是一名矮人，但这并不是必定的——特别是在北地，盾矮人部族们在很久之前就已经学到了只有自傲的傻瓜们才会在意学徒们的手艺会超过自己而拒绝收受徒弟，即使是其他种族的学徒。如果你不是一名矮人，无论如何你必须立下一个庄重的誓言，你在这门工艺上绝不收徒：只因这并非是为非矮人们传承这门摩拉丁青睐的子民们的技艺。不过，你能很轻松的找到一名矮人大师传授你技艺之余，传授被你推荐而来的人们这门技艺。
+技能熟练项：历史，洞察
+工具熟练项：一种自选的工匠工具
+语言：矮人语，或如果你已经熟悉矮人语了就自选一门语言
+装备：一套你所熟练的工匠工具，一个用来标示出你是从哪个宗族学习何种手工技艺的作者徽记，一套旅行者服装，以及一个有5gp的小包和一块价值10gp的宝石。
 特性：矮人的尊敬
-没有人会像矮人们一样对作为宗族工匠的外来者一样高度尊重。你通常能在盾矮人或者金矮人居住的地方免费获得食宿，矮人们还可能会彼此竞争来决定谁提供给你（也可能是你的同胞）最好的食宿和帮助。
-建议特性：使用PHB中行会工匠的背景作为自己的基础特征和动机，在适当的时候修改点条目以适应你作为宗族工匠的一员。（例如考虑把“公会”和“宗族”互换）</t>
+Feature: Respect of the Stout Folk
+没有任何人能像矮人们一样，对外来者与宗族工匠抱有着一样的高度尊重。你通常能在盾矮人或者金矮人居住的地方免费获得食宿，矮人们还可能会彼此竞争来决定谁提供给你（也可能是你的同胞）最好的食宿和帮助。
+建议特征Suggested Characteristics 
+使用《玩家手册》中“公会工匠”的特征表格作为你的基础特征和动机，并在适当的时候修改条目以让其符合你作为宗族工匠的身份。（例如考虑把“公会”和“宗族”两个词 互换一下）
+    你的羁绊几乎确定会关联于教导你技艺的师傅或氏族、或与你所从事的工作有关。你的理念可能会与维持高品质的工作成果或保存矮人的传统工艺有关。</t>
   </si>
   <si>
     <t>隐修学者</t>
@@ -434,32 +367,38 @@
     <t>与世隔绝的学者</t>
   </si>
   <si>
-    <t>隐修学者 Cloistered Scholar
-孩提时代，好奇的你与喧闹和孤独为伴。在你成长的岁月中，你发现了一所费伦最伟大的学习学院，你在那里学习，并认为知识是比黄金宝石更为有价值的财富。现在，你已经准备好了离开你的居所-并不是放弃它，而是寻找新的知识来充实它。
+    <t>隐修学者 Cloistered Scholar 
+孩提时代，好奇的你与喧闹和孤独为伴。在你成长的岁月中，你发现了一所费伦最伟大的学习学院，你在那里学习，并认为知识是比黄金宝石更为有价值的财富。现在，你已经准备好了离开你的居所-并不是放弃它，而是寻找新的知识来充实它。 
 费伦最知名的知识之所是烛堡。这所最伟大的图书馆总是会需要工人和仆人，一些人还会被升格成为拥有重大突出责任等级的角色。你可能是其中一名烛堡的拥有者，致力于做一个完善这个世界的学识体系和历史的管理者。
-技能熟练：历史，从奥秘，自然和宗教中选择一个
-语言：你选择的两种语言
-装备：代表你学院的学者长袍，一份书写工具（一个装着羽毛笔，墨水，折叠起来的羊皮纸，一把小拆信刀），一本从学院中借出阅读的书籍和一个装着10gp的小包。
+技能熟练项：历史，外加从奥秘、自然、宗教之中你选择的一项
+语言：两门自选语言
+装备：代表你学院的学者长袍，一份书写工具（一个装着羽毛笔，墨水，折叠起来的羊皮纸，一把小拆信刀），一本从学院中借出阅读的书籍，以及一个装着10gp的小包。
 特性：图书馆使用权
-尽管在你的图书馆中其他人们需要经常忍受大量的面试和缴纳一定的费用来获得通用档案室的资料，你将能免费并且能进入图书馆的大部分区域，即使是那些不对外人开放的有着太多价值的知识，魔力，或是秘密的区域。
-你有着你学院人员和机构的应用知识，你知道如何将两者轻松的联系起来。
-此外，你作为一个专业礼貌的学者，在世界上其他的图书馆中也可能获得优惠待遇。
-建议特性：使用PHB中贤者的背景作为自己的基础特征和动机，在适当的时候修改点条目以适应你作为学者的一员。</t>
+Feature: Library Access
+尽管在你的图书馆中其他人们需要经常忍受大量的面试和缴纳一定的费用来获得通用档案室的资料，你将能免费并且能进入图书馆的大部分区域，即使是那些有着太多价值的知识、魔力、或秘密的不对外人开放的区域。
+你有着你学院人员和机构的应用知识，你还知道如何将两者轻松的联系起来。
+此外，你作为一个专业礼貌的学者，在Realms世界上其他的图书馆中也可能获得优惠待遇。
+建议特征Suggested Characteristics 
+使用 《玩家手册》中“贤者”的特征表格作为你的基础特征和动机，并在适当的时候修改条目以让其符合你作为学者的身份。
+    你的羁绊几乎确定会关联于成长的场所、或是你希望在冒险过程中获得的知识。你的理念无疑会与你看待对知识和真理的追求有关──也许这本身就是个具有价值的目标，又或者它只不过是通往理想目标的一种手段。</t>
   </si>
   <si>
     <t>朝臣</t>
   </si>
   <si>
-    <t>朝臣Courtier
-早些时候，你是一名贵族法院或者官场的重要人士。你可能或者不是来自某个上流社会的家族之中；你用你的才能，而不是你出生的背景让你赢得了这个位置。
+    <t>朝臣Courtier 
+早些时候，你是一名贵族法院或者官场的重要人士。你可能或者不是来自某个上流社会的家族之中；你用你的才能，而不是你出生的背景让你赢得了这个位置。 
 你可能是一名银月法庭的政府人员，仆人，或者是随从。亦或你旅行至深水城时被招募成为某个杀手公会，贵族，冒险家或秘密社团的一员。你可能是一个在博德之门或是无冬城维护法纪的幕后工作人员。亦可能成长在匕首滩城堡之中。
-即使你已不再是那个给了你生活的开始的组织中的一员，你与以前同事们之间的人际关机可以给你和你冒险伙伴们一些优势。你也可能会和现在新的伙伴们从之前的组织中接到任务。在任何情况下，你曾经作为朝臣的能力会使你在冒险生活中处于更有利的境地。
-技能熟练：洞察，游说
-语言：两种你选择的语言
+即使你已不再是那个给了你生活的开始的派系中的一员，你与以前同事们之间的人际关机可以给你和你冒险伙伴们一些优势。你也可能会和现在新的伙伴们从之前的派系中接到任务。在任何情况下，你曾经作为朝臣的能力会使你在冒险生活中处于更有利的境地。
+技能熟练项：洞悉，游说
+语言：两门自选语言
 装备：一套华丽的服装和一个装有5gp的小包
-特性：官员
-你拥有的对官场如何运作的知识让你获得你所遇到过的贵族政议院和政府中访问档案和内部运作的能力。你了解是谁在背后操纵着神秘，你知道需要支持时应该去找谁，目前这些组织感兴趣的阴谋又是哪些。
-建议特性：使用PHB中行会工匠的背景作为自己的基础特征和动机，在适当的时候修改点条目以适应你作为一名朝臣。</t>
+特性：宫廷官员
+Feature: Court Functionary
+你拥有的对官场如何运作的知识让你获得你所遇到过的贵族政议院和政府中访问档案和内部运作的能力。你了解是谁在背后操纵着神秘，你知道需要支持时应该去找谁，目前这些派系感兴趣的阴谋又是哪些。
+建议特征 Suggested Characteristics 
+使用《玩家手册》中“公会工匠”的特征表格作为你的基础特征和动机，并在适当的时候修改条目以让其符合你作为朝臣的身份。
+你开始工作时所在的贵族政议院或官僚机构会直接或间接的关联于你的羁绊（可能会与派系中的某个人物有关，像是你的教父或导师）。你的理念可能会与你政议院或派系中主流的哲学思想有关。</t>
   </si>
   <si>
     <t>派系特工</t>
@@ -606,42 +545,60 @@
     <t>继承人</t>
   </si>
   <si>
-    <t>继承者Inheritor
-你是一些很有价值的东西的继承者——不单单指的是金币或是财富，而是某个单独委托给你的东西。你继承的财产可能是直接是由于你出生就是是你家族中的一员，或者它可能是从你的指导者、老师或者其他在你生命中重要的人那里留下给你的东西，你所得的遗产启示了你，改变了你的生活，指引你走上了冒险的道路，同时它也可能会带来许多的危险，包括哪些窥探你遗产，（用力量，如果需要的话）想把他从你手中夺走的家伙。
-技能熟练：生存，从奥秘，历史，宗教中选择一个
-工具熟练：从游戏组或乐器中选择一个
-语言：任意一种你选择的语言
-装备：你继承的遗产，一套旅行衣服，一件你通过这个背景而获得熟练的工具，装着 15GP 的小包。
-特性：继承
-从表中选择或者随机一个你继承的遗产，和你的DM一起讨论决定出细节：你的遗产为何那么重要，它拥有的故事是什么？你可以让DM把这部分内容加入到整个游戏故事中，通过剧情让你和你的角色更多的了解这份遗产的故事。
-DM可以自由发挥你获得的遗产带来的故事，通过任务让你学习到更多有关遗产的历史或本质，或者面对那些想要抢夺这件东西的家伙，或者让你从中领悟到你到底追寻的是什么。DM也决定了这件遗产的属性和它所拥有的历史和价值。例如，这个物品可能是一小件魔法物品，或是一开始只有一点点能力的东西，但是随着时间流逝它的能力逐渐增长。亦或者，这件遗产起初可能是件毫不起眼的东西，但是只有在某些条件满足时，会恢复原本面貌。
-当你开始你的冒险时，你可以决定是否把你的遗产透露给你的同伴们，你也可以默默保守着这个秘密，直到你了解这件东西对你意味着什么和它能给你做些什么。</t>
+    <t>继承者 Inheritor 
+你是一些很有价值的东西的继承者——不单单指的是金币或是财富，而是某个单独委托给你的东西。你继承的财产可能是直接是由于你出生就是是你家族中的一员，或者它可能是从你的指导者、老师或者其他在你生命中重要的人那里留下给你的东西，你所得的遗产启示了你，改变了你的生活，指引你走上了冒险的道路，同时它也可能会带来许多的危险，包括哪些窥探你遗产，（用力量，如果需要的话）想把他从你手中夺走的家伙。 
+技能熟练项：生存，外加从奥秘，历史，宗教中选择一个
+工具熟练：从赌具或乐器中选择一个
+语言：任意一门你自选的语言
+装备：你的继承遗产，一套旅行服装，一件你通过这个背景而获得熟练项的工具，外加一个装着 15gp的小包。
+特性：继承遗产
+Feature: Inheritance
+从下列表中选择或者随机一个你继承的遗产，和你的 DM 一起讨论决定出细节：你的遗产为何那么重要，它拥有的故事是什么？你可以让 DM 把这部分内容加入到整个游戏故事中，通过剧情让你和你的角色更多的了解这份遗产的故事。
+DM 可以自由发挥你获得的遗产带来的故事，通过任务让你学习到更多有关遗产的历史或本质，或者面对那些想要抢夺这件东西的家伙，或者让你从中领悟到你到底追寻的是什么。DM 也决定了这件遗产的属性和它所拥有的历史和价值。例如，这个物品可能是一小件魔法物品，或是一开始只有一点点能力的东西，但是随着时间流逝它的能力逐渐增长。亦或者，这件遗产起初可能是件毫不起眼的东西，但是只有在某些条件满足时，会恢复原本面貌。
+当你开始你的冒险时，你可以决定是否把你的遗产透露给你的同伴们，你也可以默默保守着这个秘密，直到你了解这件东西对你意味着什么和它能给你做些什么。
+遗产列表  D8   物件 或 物品 
+ 1  一份文档，例如地图、信件或是日记之类的 
+ 2-3  一个饰品（参见《玩家手册》第五章的“饰品”） 
+ 4  一套服装 
+ 5  一片珠宝 
+ 6  一本神秘的书或是一张神秘的字条 
+ 7  一份手写的故事、歌曲、诗歌、或秘密 
+ 8  一个纹身，或身上某处的印记 
+建议特征Suggested Characteristics
+使用 《玩家手册》中“平民英雄”的特征表格作为你的基础特征和动机，并在适当的时候修改条目以让其符合你作为继承者的身份。
+你的羁绊可能会与你的继承物直接相关，或可能会是你从之接收到继承物的某人。你的理念可能会受到你对继承物了解的影响，或可能被在你所得到赠礼所能做到的事给影响。</t>
+  </si>
+  <si>
+    <t>骑士团成员</t>
   </si>
   <si>
     <t>教团骑士</t>
   </si>
   <si>
-    <t>教团骑士 Knight of the Order
-你隶属于某个为达到某个目的而宣誓的骑士团。骑士团的本质目标决定了你宣誓的誓言，在你的眼中看来为达到这目的做出的誓言毫无疑问是光荣而重大并愿意为之努力奋斗的。费伦大陆上有着许许多多的骑士团，所有的骑士团们都有着关于他们行为和责任相似的展望。
-说到“骑士”就会认为是那些穿着重甲，有着贵族血统和骑士精神的高贵战士们，然而在费伦，骑士团们并没有把他们的入会资格限定的如此之高。对目标和理念的追求远远高于成员们装备和战斗风格的限定，因此骑士团中并不会限定战斗方式，并向所有愿意为教团理念战斗和献出生命的平民百姓们开放。
+    <t>骑士团成员 Knight of the Order 
+你隶属于某个为达到某个目的而宣誓的骑士团。骑士团的本质目标决定了你宣誓的誓言，在你的眼中看来为达到这目的做出的誓言毫无疑问是光荣而重大并愿意为之努力奋斗的。费伦大陆上有着许许多多的骑士团，所有的骑士团们都有着关于他们行为和责任相似的展望。 
+说到“骑士”就会认为是那些穿着重甲，有着贵族血统和骑士精神的高贵战士们，然而在费伦，骑士团们并没有把他们的入会资格限定的如此之高。对目标和理念的追求远远高于成员们装备和战斗风格的限定，因此骑士团中并不会限定战斗方式，并向所有愿意为骑士团理念战斗和献出生命的平民百姓们开放。
 “费伦大陆骑士团”边栏更好的介绍了几个在北地活跃的骑士团，可以帮助你决定哪个骑士团让你准备决定为之效忠。
-技能熟练：说服，从奥秘，历史和宗教中适合你教团的技能选择一个
-工具熟练：一种游戏组或乐器
-语言：一种你选择的语言
-装备：一件旅行衣服，一个徽记，代表你骑士团或是教团等级的旗帜或是印章，一个装有10GP的袋子。
+技能熟练项：说服，外加从奥秘、历史和宗教中适合你骑士团的技能选择一个
+工具熟练项：一种赌具，或一种乐器
+语言：一门你自选的语言
+装备：一件旅行衣服，一个代表你骑士团或是骑士团等级的徽记、旗帜、或印章，以及一个装有10gp的小包。
 特性：骑士的敬重
-你会获得来自你的骑士团其他成员和那些与骑士团有着相同目标的人们的救助和避难。如果你的教团是一个宗教骑士团，你可以从信仰的神的神殿和其他宗教团体中获得帮助。服务人民的骑士团可以从某些为自己目标服务或是为整个国家服务的团体们寻求帮助。服务于某种理念的骑士团可以从曾近帮助过追寻理念的人们和那些与骑士团分享理念的人们获得帮助。
-这些帮助的方式来自他们提供的避难和食物，在适当之时为你治疗。偶尔也会有些危险，比如一群本地居民一同帮助一位在战斗中严重受伤的骑士，或是帮助一名受到不公正追捕的骑士秘密走私出城。
-建议特性：使用PHB中士兵的背景作为自己的基础特征和动机，在适当的时候修改点条目以适应你作为一名教团骑士。</t>
-  </si>
-  <si>
-    <t>费伦骑士团</t>
-  </si>
-  <si>
-    <t>费伦骑士团
-独角兽骑士Knights ofthe Unicorn.
-独角兽骑士一开始是由博德之门官僚家族的子女们对自由浪漫的追寻一时兴起而建立的教团。他们将独角兽女神拉芮Lurue作为他们的幸运神，骑马闯荡为了乐趣而冒险。用拉芮女神的原则来面对会出现的危险。随着时间的推移，这个小群体逐渐增长和传播开来，获得了甚至远自科米尔地区的人们追随。独角兽骑士们是有着骑士精神的冒险家，追随浪漫的理想：生活是多姿多彩的，生活是应该充满欢笑的，挑战并完成任务，追寻不可能的梦想，所有人都应该为他们的力量而获得赞美，为他们的弱点而获得安慰。
-密斯卓诺骑士Knights ofMyth Drannor.
+Feature: Knightly Regard
+你会获得来自你的骑士团其他成员和那些与骑士团有着相同目标的人们的救助和避难。如果你的骑士团是一个宗教骑士团，你可以从信仰的神的神殿和其他宗骑士团体中获得帮助。服务人民的骑士团可以从某些为自己目标服务或是为整个国家服务的团体们寻求帮助。服务于某种理念的骑士团可以从曾近帮助过追寻理念的人们和那些与骑士团分享理念的人们获得帮助。
+这些帮助体现为他们提供的避难和食物，以及在适当之时为你进行的医疗，以及会有时会有些危险的服务，比如一群本地居民在战斗中一同救治一位严重受伤的骑士，或是帮助一名受到不公正追捕的骑士秘密逃离出城。
+建议特征Suggested Characteristics
+使用 《玩家手册》中“士兵”的特征表格作为你的基础特征和动机，并在适当的时候修改条目以让其符合你作为骑士团骑士的身份。
+你的羁绊几乎总是与你所属的骑士团有关（或至少与骑士团的重要成员有关），且骑士的理念鲜少不会反映他所属骑士团的教条、观点、或哲学观。</t>
+  </si>
+  <si>
+    <t>边栏:费伦骑士团</t>
+  </si>
+  <si>
+    <t>边栏：费伦骑士团 Knightly Orders of Faerun
+独角兽骑士Knights of the Unicorn.
+独角兽骑士一开始是由博德之门官僚家族的子女们对自由浪漫的追寻一时兴起而建立的骑士团。他们将独角兽女神拉芮Lurue作为他们的幸运神，骑马闯荡为了乐趣而冒险。用拉芮女神的原则来面对会出现的危险。随着时间的推移，这个小群体逐渐增长和传播开来，获得了甚至远自科米尔地区的人们追随。独角兽骑士们是有着骑士精神的冒险家，追随浪漫的理想：生活是多姿多彩的，生活是应该充满欢笑的，挑战并完成任务，追寻不可能的梦想，所有人都应该为他们的力量而获得赞美，为他们的弱点而获得安慰。
+密斯卓诺骑士Knights of Myth Drannor.
 很久以前，密斯卓诺骑士团是一个非常有名的冒险团队，多芙·鹰手，著名的七姐妹中的一人就是其中的一员。这个过去式的团队是为了纪念曾经伟大但是陷落的城市而命名的，如今新建立的密斯卓诺骑士团也是如此。当这座城市再一次变为废墟时，多芙·鹰手决定要改革这个团体，把主要目标定为与世界上其他文明种族建立盟友关系，和善良的人们共同对抗邪恶。现在密斯卓诺骑士们再次骑行在谷地的大路上，他们已经开始向谷地之外的土地传播自己的理念，招收新人。每一个被多芙接纳成为骑士团一员的人，都是充满了勇气和忠诚之人。
 圣杯骑士Knights of the Silver Chalice.
 圣杯骑士团在一个世纪以前由半神赛雅茉芙（Siamorphe）颁布法令而成立。赛雅茉芙的精神是高贵的权利并有责任去执行它。这个半神通常每一代都会化身成不同的凡人贵族。</t>
@@ -650,134 +607,465 @@
     <t>老佣兵</t>
   </si>
   <si>
-    <t>老佣兵 Mercenary Veteran
-作为一名为钱财而战的卖剑打手，你很熟悉如何以失去生命或肢体为风险赌注投入冒险。现在，你开始期待以冒险者的身份投入对敌战斗中，并以此收获更大的回报。你的经历使你得以熟悉佣兵生活的细节，而你甚至还带着一些在沙场上经历过的悲惨往事。你可能曾服务于某个大集团如散塔林会，或曾经作为“明檀 Mintarn”的士兵服役，你或许还曾经参与过其他一些更小规模的卖剑打手团体，而且可能还在多个团体间辗转。（见“北地的佣兵团”边栏中的一系列范例。）
+    <t>老佣兵 Mercenary Veteran 
+作为一名会为钱财而战的佣兵，你很熟悉如何以失去生命或肢体为风险赌注投入冒险。现在，你开始期待以冒险者的身份投入对敌战斗中，并以此收获更大的回报。你的经历使你得以熟悉佣兵生活的细节，而你甚至还带着一些在沙场上经历过的悲惨往事。你可能曾服务于某个大集团如散塔林会，或曾经作为“明檀 Mintarn”的士兵服役，你或许还曾经参与过其他一些更小规模的卖剑打手团体，而且可能还在多个团体间辗转。（见“北地的佣兵团”边栏中的一系列范例。） 
 你现在正寻求某些其他的东西，也许是打算为所冒风险求得更大的回报，或是决定从此自由的活动。无论出于何种原因，你都决心将曾经作为受雇士兵的生涯抛于脑后，但你掌握的技能仍令你无可否认的适合战斗生涯，因此你仍然在战场里过活，只是以另一种不同的形式参与其中。
-技能熟练项： 运动，游说
-工具熟练项： 一种赌具，载具（陆运）
-装备： 所属兵团的制服（质量等同于旅行者服装），一块对应你军阶的勋章，你自选的一套赌局，装着你的上次军饷的小包（10gp）
-特性：佣兵生涯 Mercenary Life
-你拥有的生活经历，只有曾同样从事过佣兵生涯之人才能体会。你只要看到对方的徽记就能辨认出相应的佣兵团，你还知道该军团的某些情报，包括其指挥官和领导者的名字和声誉，以及最近雇佣他们的是何人。只要能说相应的语言，你在任何地方都能找到这些佣兵混迹的酒馆或宴会地。你总能在冒险中通过佣兵工作找到足够的钱来维持舒适程度的生活（见《玩家手册》 第 8 章“修整期活动”下的“专业实践”）。
-建议特征：使用 《玩家手册》 中“士兵”背景的诸表格为基础定出你的特征和动机，并适当调整各条目以适应你作为佣兵的身份。你的牵绊可能与曾经参与其中一同旅行的军团相关，或与其他曾作为同袍之人相关。你所抱持的理想大多维系于你的世界观和为之战斗的动机。</t>
-  </si>
-  <si>
-    <t>北地的佣兵团</t>
-  </si>
-  <si>
-    <t>北地的佣兵团 Mercenaries of the North
+技能熟练项：运动，游说
+工具熟练项：一种赌具，载具（陆运）
+装备：一套所属佣兵团的制服（质量等同于旅行者服装），一块对应你军阶的勋章，你自选的一套赌具，以及一个装着你的上次军饷的小包（10gp ）
+特性：佣兵生涯
+Feature: Mercenary Life
+你拥有的生活经历，只有曾同样从事过佣兵生涯之人才能体会。你只要看到对方的徽记就能辨认出相应的佣兵团，你还知道该军团的某些情报，包括其指挥官和领导者的名字和声誉，以及最近雇佣他们的是何人。只要能说相应的语言，你在任何地方都能找到这些佣兵混迹的酒馆或宴会地。你总能在冒险中通过佣兵工作找到足够的钱来维持舒适程度的生活（见《玩家手册》 第 8 章“休整期活动”下的“专业实践”）。
+建议特征 Suggested Characteristics
+使用《玩家手册》中“士兵”的特征表格作为你的基础特征和动机，并在适当的时候修改条目以让其符合你作为佣兵的身份。
+你的牵绊可能与曾经参与其中一同旅行的军团相关，或与其他曾作为同袍之人相关。你所抱持的理想大多维系于你的世界观和为之战斗的动机。</t>
+  </si>
+  <si>
+    <t>边栏:北地的佣兵团</t>
+  </si>
+  <si>
+    <t>边栏：北地的佣兵团 Mercenaries of the North
 无数佣兵团在剑湾和北地各处来回。其中大多是小规模行动，比如雇佣十几人至上百人以提供安保服务，狩猎怪物和土匪，或是为换得黄金而发动战争。一些组织如“散塔林会”“焰拳 FlamingFist”和“明檀 Mintarn”的本国都保有成百上千的成员供他人以足够资金雇佣为私人军队。下面介绍一些在北地运作的相关组织。
-寒爪 The Chill
+寒爪 The Chill 。 
 寒冷而神秘的“潜行森林 Lurkwood”是无数的类地精团体的家园，它们联合起来组成一个叫“寒爪 the Chill”的部落。跟大多数同类不一样，寒爪兵团并不会去袭击北地的居民，反而与之保持相对良好的关系，以此让对方雇佣自己作战。北地的各城邦很少会让自建的军队与寒爪并肩作战，但其中的几个国家会轻松愉快的付钱雇寒爪去对抗永恒荒野 Evermoors 的乌斯伽人 Uthgardt、兽人和巨魔，乃至其他威胁自己的文明。
-静雨 Silent Rain
+静雨 Silent Rain 。 
 全员由精灵组成的静雨，是个从艾弗瑞思卡 Evereska 内运营的传奇雇佣兵团。静雨不关心金子或名声，他们只接受促进精灵事业或摧毁兽人、豺狼人之类生物的工作。发出委托的雇主必须先在艾弗瑞斯卡附近留下书面文本（以精灵语撰写），如果静雨兵团对委托有意，就会派出一名代表与对方接触。
-血斧 Bloodaxes
-约两个世纪前在桑达巴 Sundabar 建立的血斧最初只是一群因违反“铸魂者摩拉丁 Moradin Soulforger”其教义，而获罪被逐出自己氏族的矮人。于是他们开始以雇佣兵的方式为任何付得起钱的北地人服务。自那以后，该佣兵团开始接纳其他种族作自家成员，但其中的人或多或少都身为流亡者、罪犯或被排挤的异类，而他们最终都会将血斧当做自己新的开始和新的家园。</t>
+血斧 Bloodaxes 。
+ 约两个世纪前在桑达巴 Sundabar 建立的血斧最初只是一群因违反“铸魂者摩拉丁 Moradin Soulforger”其教义，而获罪被逐出自己氏族的矮人。于是他们开始以雇佣兵的方式为任何付得起钱的北地人服务。自那以后，该佣兵团开始接纳其他种族作自家成员，但其中的人或多或少都身为流亡者、罪犯或被排挤的异类，而他们最终都会将血斧当做自己新的开始和新的家园。</t>
   </si>
   <si>
     <t>城市猎人</t>
   </si>
   <si>
-    <t>城市猎人 Urban Bounty Hunter
-你在成为冒险者前，生活中就已充满了冲突和兴奋，因为你是依靠追捕他人来赚钱过活。与某些收集赏金之人不同，你并不是个穿越荒野追捕猎物的荒蛮之人。你会在你居住之地参与一宗利润丰厚的买卖，然后一如既往的考验自己的技能与生存本能。此外，你还跟野外的赏金猎人不一样，你并不孤单：你时常与犯罪分子和其他赏金猎人进行互动，并同时游走于这两个区间并以此获取成功。
+    <t>城市猎人 Urban Bounty Hunter 
+你在成为冒险者前，生活中就已充满了冲突和兴奋，因为你是依靠追捕他人来赚钱过活。与某些收集赏金之人不同，你并不是个穿越荒野追捕猎物的荒蛮之人。你会在你居住之地参与一宗利润丰厚的买卖，然后一如既往的考验自己的技能与生存本能。此外，你还跟野外的赏金猎人不一样，你并不孤单：你时常与犯罪分子和其他赏金猎人进行互动，并同时游走于这两个区间并以此获取成功。 
 你可能是个灵巧的捕快，时刻在屋顶上徘徊，捕捉城里数之不尽的窃贼。你或许是个非常熟悉街道之人，熟悉窃贼行会和街头帮派的所作所为。你可能是个戴“丝绒面具”的赏金猎人，以此混迹上流社会和贵族圈子，并在其中抓捕那掠夺富人之罪犯，而无论其是小偷小贼还是诈骗高手。你所在的社区可能是费伦的大城市之一（比如深水城或博德之门），或者是人口较少的地方（比如路斯坎 Luskan 或雅塔 Yartar），或是任何可能滋生猎物的地点。
 作为冒险队伍一员时，你可能会觉得当个人日程与团队目标相左时会出现某些困难。不过从另一角度看，你也可以利用同伴的帮助拿下更可怕的目标。
-技能熟练项： 从欺瞒、洞悉、游说、隐匿中选择两项
-工具熟练项： 从一种赌具、一种乐器和盗贼工具中选择两项
-装备： 适合你执勤用的一套服装和一个装着 20gp 的小包
-特性： 耳目众多 Ear to the Ground
+技能熟练项：从欺瞒、洞悉、游说、隐匿中选择两项
+工具熟练项：从一种赌具、一种乐器、盗贼工具这三项中选择两项
+装备： 一套适合你执勤用的一套服装，以及一个装着 20gp 的小包
+特性：耳目众多
+Feature: Ear to the Ground
 你经常与所选定猎物途径地区的社会人士接触。这些人可能与黑社会罪犯、街头莽汉或上流社会成员相关联。这种联系其形式为，每个你所访问的城市都存在一名相应的联络人，该人物会为你提供当地人文和地理的各种相关情报。
-建议特征：以 《玩家手册》 中“罪犯”背景诸表格为基础定出你的特征和动机，并适当调整各条目以适应你作为赏金猎人的身份。例如，你的牵绊可能与其他赏金猎人或某雇佣你的组织或个人相关。你的理想可能与你抓捕目标猎物的决心相关，或是与你获得可靠名声的渴望相关。</t>
+建议特征 Suggested Characteristics
+使用 《玩家手册》 中“罪犯”的特征表格作为你的基础特征和动机，并在适当的时候修改条目以让其符合你作为城市猎人的身份。
+例如，你的牵绊可能与其他赏金猎人或某雇佣你的组织或个人相关。你的理想可能与你抓捕目标猎物的决心相关，或是与你获得可靠名声的渴望相关。</t>
   </si>
   <si>
     <t>乌斯伽部族成员</t>
   </si>
   <si>
-    <t>乌斯伽部族成员 Uthgardt Tribe Member
-虽然你可能刚刚才来到文明之地，但在追求霸权的过程中，你对合作与集体努力的价值并不陌生。而你正是以乌斯伽部族成员的身份学会这些原则。
+    <t>乌斯伽部族成员 Uthgardt Tribe Member 
+虽然你可能刚刚才来到文明之地，但在追求霸权的过程中，你对合作与集体努力的价值并不陌生。而你正是以乌斯伽部族成员的身份学会这些原则。 
 你的同胞总喜欢坚持老方法。乌斯伽人秉持的传统和禁忌让他们得以在其他王国陷入混乱和毁灭后依然保持强大。但最近几代人里，一些部族的帮众开始想要定居，安于和平、贸易，甚至建起了城镇。也许这就是为何乌斯伽会在那些生活在其神力下之人中竖起其图腾。也许这些人需要被提醒一下自己的真实身份，自己源自何处。“乌斯伽的选民 Chosen of Uthfar”会带领帮众重回旧路，而大多数你的同胞都会放弃软弱的文明转向回归。
 你可能在一个已决定定居下来的部族中长大，而你的部族已决定放弃旧的行事方式，但你却依然摇摆不定。或者你也可以是遵循传统的乌斯伽人其中一分子，但你只想通过取得伟大功绩来为自己的部族带来荣耀。
 参阅第 2 章的“乌斯伽各地”一节，了解每个部族领地及其活动的详细情况，作为你选择自己归属的参考。
 技能熟练项： 运动，求生
-工具熟练项： 一种乐器或工匠工具
-语言： 自选一门语言
-装备： 狩猎陷阱，标志你忠于乌特加和你部族之图腾的图腾标志或一组纹身，一套旅行者服装和一个装着 10gp 的小袋。
-特性：乌斯伽之传承 Uthgardt Heritage 
-你不仅彻底了解自己部族之领地，还清楚北地其他地区的地形和自然资源。你熟悉所有的野外地区，而你在那里找到的食物和水的数量是平时的两倍。
-另外，你可以唤起他人的好客之道。受你该影响的对象包括你的同胞，以及那些与你部族结盟之人，通常包括有德鲁伊结社、精灵游牧部族、竖琴手同盟等团体的成员，以及那些献身于“第一结社 First Circle”众神的祭祀者。
-建议特征：使用 《玩家手册》 中“化外之民”背景的诸表格为基础定出你的特征和动机，并适当调整各条目以适应你作为乌斯伽人部族成员的身份。
+工具熟练项： 一种乐器，或一种工匠工具
+语言： 一门你自选的语言
+装备： 一个狩猎陷阱，标志你忠于乌特加和你部族之图腾的图腾标志或一组纹身，一套旅行者服装和一个装着 10gp 的小袋。
+特性： 乌斯伽之传承
+Feature: Uthgardt Heritage
+你不仅彻底了解自己部族之领地，还清楚北地其他地区的地形和自然资源。你熟悉所有的野外地区，而你在那里找到的食物和水的数量是平时的两倍。 
+另外，你可以请到你的同胞、以及那些与你部族结盟之人的热情招待，通常包括有德鲁伊结社、精灵游牧部族、竖琴手同盟等团体的成员，以及那些献身于“第一结社 First Circle”众神的祭祀者。
+建议特征 Suggested Characteristics
+使用 《玩家手册》中“化外之民”的特征表格作为你的基础特征和动机，并在适当的时候修改条目以让其符合你作为乌斯伽部族成员的身份。
 即使已经离开了自己的部族（至少现在是这样），但你仍坚持以同胞的传统过活。你绝不会砍下一棵仍活着的树，且不会不赞同相同的事在眼前发生。乌斯伽人的“祖丘 ancestral mounds”——作为乌斯伽保护其图腾精魂所在，以及部族各英雄埋葬之处的大丘陵，被你视为神圣之地。
 你的牵绊很可能与你的部族或某些乌斯伽人的哲念或文化相关（甚至可能与乌斯伽自身相关）。你的理想是个人的选择，它可能与你同胞的风土人情密切相关，当然也不会与你身为乌斯伽人所代表的其他东西相违背或妥协。</t>
   </si>
   <si>
-    <t>费伦的野蛮人部族</t>
-  </si>
-  <si>
-    <t>费伦的野蛮人部族 Barbarian Tribes of Faerun
+    <t>边栏:费伦的野蛮人部族</t>
+  </si>
+  <si>
+    <t>边栏：费伦的野蛮人部族 Barbarian Tribes of Faerun
 虽然本节只介绍了乌斯伽民族，但其内容以及 《玩家手册》的“化外之民”背景都可用于源自其他费伦野蛮人部族的角色。你可以是个一头金发的瑞格 Reghed 野蛮人，住在远离北地靠近“冰风谷 lcewind Dale”的“瑞格冰川 Reghed Glacier”阴影之下。你也可以是因野蛮狂战士和戴着面具巫婆而出名的莱瑟曼Rashmi 游牧民。你也许来自“琼达尔森林 Chondalwood”的某个木精灵部族，或是来自楚尔特 Chult 闷热丛林里的某个充满魔法的人类部族中。</t>
   </si>
   <si>
-    <t>深水人贵族</t>
-  </si>
-  <si>
-    <t>深水人贵族 Waterdhavian Noble
-你是深水城某伟大贵族家族之后裔。作为小心翼翼地守护自己在“光辉之城 City of Splendors”的特权与地位之人类家族，深水人贵族们在整个费伦因其骄奢和富有而享有盛名。
-不管你是这个名声的光辉榜样还是作为该规则的例外，当人们知道你姓氏及其含义时，便会对你有所期待。你投身冒险的理由某种程度上可能与你的家人相关：你是否作为家族异类，喜欢钻到肮脏地下城的舞会里喝一小口“兹沙zzar”？或是你是为家人的利益而拿起剑与法术，以确保他们能有个有名望之人作为传承？
-你要与DM一起决定自己所属之家族——在深水中有大约七十五个血统，其中的每个家族都保有其自己独特的偏好经济来源、专职和谋划。你可能是家族中的当主一脉的成员，也可能终有一天成为他们的领袖。或者你也可能属于众多表亲血脉其一，而他们的声望较低其负担的责任也更少。
+    <t>深水城贵族</t>
+  </si>
+  <si>
+    <t>深水城贵族 Waterdhavian Noble 
+你是深水城某伟大贵族家族之后裔。作为小心翼翼地守护自己在“光辉之城 City of Splendors”的特权与地位之人类家族，深水人贵族们在整个费伦因其骄奢和富有而享有盛名。 
+不管你是这个名声的光辉榜样还是作为该规则的例外，当人们知道你姓氏及其含义时，便会对你有所期待。你投身冒险的理由某种程度上可能与你的家人相关：你是否作为家族异类，喜欢钻到肮脏地下城的舞会里喝一小口 “兹沙 zzar ” ？或是你是为家人的利益而拿起剑与法术，以确保他们能有个有名望之人作为传承？
+你要与 DM 一起决定自己所属之家族——在深水中有大约七十五个血统，其中的每个家族都保有其自己独特的偏好经济来源、专职和谋划。你可能是家族中的当主一脉的成员，也可能终有一天成为他们的领袖。或者你也可能属于众多表亲血脉其一，而他们的声望较低其负担的责任也更少。
 技能熟练项： 历史，游说
 工具熟练项： 一种赌具或一种乐器
-语言： 自选一门语言
-装备： 一套高档服装，一枚玺戒或胸针，一份族谱，一皮袋的高档 “兹沙 zzar ” 或红酒，以及一个装有 20gp 的小包
-特性：保持风度 Kept in Style
+语言： 一门你自选的语言
+装备： 一套高档服装，一枚玺戒或胸针，一份家系族谱，一袋的高档 兹沙酒zzar 或红酒，以及一个装有 20gp 的小包
+特性： 保持风度
+Feature: Kept in Style
 在深水城或北地其他地方时，你的家族会确保你的每日的日常用度。你的名字与玺印就足以支付大部分的费用，而你经常光顾的旅店、酒馆和餐馆都很乐于记下你的债务，并将账单寄给你的家人以解决你欠下的债务。
 这种优势使你能过上舒适的生活，而不必每天支付 2 gp的费用，也可以减少富裕或奢华程度生活的成本。你不能以更低价的生活方式来将这只生活费当做收入——这种得益属于信用体系，而不是明确的货币奖励。
-建议特征：使用《玩家手册》中 “贵族”背景的诸表格为基础定出你的特征和动机，并适当调整各条目以适应你作为深水人家族一员的身份。
+建议特征 Suggested Characteristics
+使用 《玩家手册》 中“贵族”的特征表格作为你的基础特征和动机，并在适当的时候修改条目以让其符合你作为深水城贵族的身份。
 和其他贵族一样，你出生和成长的世界与大多数人的认知不同——这是种给予你特权，但同时也要求你履行相应义务的身份。你的牵绊可能与所属家族相关，也可能与另一个与所属家族同盟或敌对的贵族家族相关。你的理想某种程度上取决于你如何看待自己在家庭中的角色，以及你打算如何在世上表现你作为家族代表的身份。</t>
+  </si>
+  <si>
+    <t>战狂道途:简述</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>战狂道途Path of the Battlerager
+野蛮人 原初道途
+战狂道途通常被那些选择追随战争之神的矮人选择，在矮人语中他们被称作为“库扎尔夫”（意指“斧头笨蛋”）。他们常穿着厚重的、带刺的盔甲冲入战场，用他们自己的身体在战斗中挥洒怒火。
+限制：限定矮人
+只有矮人才可以选择战狂道途。在矮人的社会和文化中战狂占据了一个特殊的位置。
+你的DM可以调整这一规则使之更符合战役。
+请查询 战狂装甲、凶蛮无羁、战狂冲锋、钉刺反冲 以获取更多信息。</t>
+  </si>
+  <si>
+    <t>战狂道途:战狂装甲</t>
+  </si>
+  <si>
+    <t>战狂装甲Battlerager Armor
+第3级战狂道途特性
+你得到将钉刺甲（参照“钉刺甲”条目）作为武器使用的能力。
+当你穿着钉刺甲并在狂暴中，你可以使用你的附赠动作用钉刺甲对5尺内的目标进行一次近战武器攻击。若攻击命中，钉刺将造成1d4的穿刺伤害。把你的力量调整加在武器的攻击和伤害骰上。
+另外，当你使用攻击动作去擒抱一个生物，你在擒抱检定成功时对他造成3点穿刺伤害。</t>
+  </si>
+  <si>
+    <t>战狂道途:凶蛮无羁</t>
+  </si>
+  <si>
+    <t>凶蛮无羁Reckless Abandon
+第6级战狂道途特性
+若你在狂暴中使用鲁莽攻击，你可以得到等同你体质调整值的临时生命（最少1点）。当你结束狂暴时它们消失。</t>
+  </si>
+  <si>
+    <t>战狂道途:战狂冲锋</t>
+  </si>
+  <si>
+    <t>战狂冲锋Battlerager Charge
+第10级战狂道途特性
+你在狂暴中可以用一个附赠动作进行疾走。</t>
+  </si>
+  <si>
+    <t>战狂道途:钉刺反冲</t>
+  </si>
+  <si>
+    <t>钉刺反冲Spiked Retribution
+第14级战狂道途特性
+每当你5尺内有生物用近战攻击命中你，同时你处于狂暴中且并非失能，攻击者将立即受到3点穿刺伤害。你必须穿着钉刺甲才能使用这个能力。</t>
+  </si>
+  <si>
+    <t>奥秘领域:简述</t>
+  </si>
+  <si>
+    <t>奥秘领域Arcana Domain
+牧师 神圣领域
+魔法在制造毁灭的同时也带来新生。作为一种能量，它弥散在多元宇宙的每一个角落。而掌管奥秘领域的神祗知晓魔法的秘密和潜能。对于一些神而言，魔法知识是一种重要的理解现实本质的途径；而另一些神单单只把魔法视为纯粹的能量，并拿它用来做他们认为适当做的事情。
+这一领域的神祗往往和知识领域有联系，毕竟学习和奥术力量的关系往往亲密无间。在这个范围中，掌管这个领域的神祗包括阿祖斯和密斯特拉，还有精灵之神柯瑞隆。在其他世界，这个领域包括赫卡忒，麦斯麦索威，还有伊西斯；克莱恩的三月神索林那瑞，努林塔瑞和努塔瑞；灰鹰的博卡布，维克那和维婕斯。
+请查询 奥术传承、法术破坏者、强力施法、奥术精通、引导神力:奥秘阻绝 以获取更多信息。</t>
+  </si>
+  <si>
+    <t>领域法术:奥秘领域法术</t>
+  </si>
+  <si>
+    <t>奥秘领域法术Arcana Domain Spells
+牧师等级   法术
+1st 侦测魔法，魔法飞弹
+3rd 魔化武器，涅斯图魔法灵光
+5th 解除魔法，防护法阵
+7th 秘法眼，李欧蒙秘藏箱
+9th 异界誓缚，传送法阵</t>
+  </si>
+  <si>
+    <t>奥秘领域:奥术传承</t>
+  </si>
+  <si>
+    <t>奥术传承Arcane Initiate
+第1级奥秘领域特性
+你得到奥秘技能的熟练，并且你可以从法师法术列表选择两个戏法掌握。对于你而言，这些戏法是牧师戏法。</t>
+  </si>
+  <si>
+    <t>奥秘领域:引导神力:奥秘阻绝</t>
+  </si>
+  <si>
+    <t>引导神力：奥秘阻绝Channel Divinity: Arcane Abjuration
+第2级奥秘领域特性(引导神力)
+你可以使用你的引导神力来抵御外世界生物。
+以一个动作，你可以展示你的圣徽，同时你选择一个30尺内能看见或者听见你声音的天界，元素，精类或者邪魔类生物进行一次感知豁免。如果他未通过，他在1分钟之内被驱散直到他受到任何伤害。
+一个被驱散的生物必须使用他的回合尽力远离你，并且无法主动靠近你30尺以内。同时他们无法使用反应。在他们行动中，只能使用疾走或者从任何妨碍他们移动的效果中挣脱出来。如果没有任何地方移动，该生物使用闪避动作。
+从5级起，如果一个挑战等级小于等于表内数值且不是这个位面原住民的生物在对抗你的奥秘阻绝能力时豁免失败，他将在1分钟之内被放逐（如同驱逐术，但不需要专注）。
+牧师等级 被放逐的生物CR
+  5th                 1/2
+  8th                  1
+ 11th                 2
+ 14th                 3
+ 17th                 4</t>
+  </si>
+  <si>
+    <t>奥秘领域:破法者</t>
+  </si>
+  <si>
+    <t>奥秘领域:法术破坏者</t>
+  </si>
+  <si>
+    <t>破法者Spell Breaker
+第6级奥秘领域特性
+每次你使用1环或者更高环数的法术恢复了一名盟友的生命值，你同时可以选择作用于此生物的一个法术终止。被终止的法术等级不能高于你用来施放恢复法术所占用的法术位。</t>
+  </si>
+  <si>
+    <t>奥秘领域:强力施法</t>
+  </si>
+  <si>
+    <t>强力施法Potent Spellcasting
+第8级奥秘领域特性
+在你的任何牧师戏法造成的伤害中加上你的感知加值。</t>
+  </si>
+  <si>
+    <t>奥秘领域:奥术精通</t>
+  </si>
+  <si>
+    <t>奥术精通Arcane Mastery
+第17级奥秘领域特性
+你从法师的施法列表中选择6环、7环、8环、9环法术各一，并将它们加入自己的领域法术列表。你总是准备了它们，并且对你而言它们被视为牧师法术。</t>
+  </si>
+  <si>
+    <t>紫龙骑士(旗将):简述</t>
+  </si>
+  <si>
+    <t>紫龙骑士(旗将)Purple Dragon Knight (Banneret)
+战士 武术范型
+紫龙骑士是来自科米尔王国的战士。他们承诺守护王国的传承，对抗王国领土内的邪恶。他们的任务是作为漫游骑士巡游祖国的土地，他们依靠判断力、英勇无畏、对骑士精神的忠贞来指引他们击败邪恶势力。
+一名紫龙骑士通过在战斗中的英勇表现激发其他人的战力。在一个小村庄内仅有一名骑士也足以让一些兽人们和土匪们不随便打这个村子的主意。一名孤独的骑士是一名技艺娴熟的战士，但是如果一名骑士领导着一队盟友，即使是装备最差的民兵也会转变成一个激昂的战斗团队。
+紫龙骑士们用行动而非言语证明自己。他们永远作为先头部队冲锋在队伍的最前方，用他们无畏的战斗唤醒友军的勇气和信念，正如他们自己所一直拥有的那样。
+限制：限定骑士
+紫龙骑士是一个特殊的、与科米尔地区的骑士绑定的范型。
+爵位 如果你想把它用在其他的战役模组或者是除了紫龙骑士团以外的军阀模型中，把爵位当做是这些范型的通用限制。
+请查询 重整姿态、皇家特使、振奋之潮、意志壁垒 以获取更多信息。</t>
+  </si>
+  <si>
+    <t>紫龙骑士(旗将):重整姿态</t>
+  </si>
+  <si>
+    <t>重整姿态Rallying Cry
+第3级紫龙骑士(旗将)特性
+你学会了如何激励你的盟友来对抗伤害。当你使用你的回气能力，你可以选择在你60尺范围内最多3个盟友，他们每个人都恢复等同于你的战士等级的生命值。他们必须要能看到或者听到你的声音才能获得这个好处。</t>
+  </si>
+  <si>
+    <t>紫龙骑士(旗将):皇家特使</t>
+  </si>
+  <si>
+    <t>皇家特使Royal Envoy
+第7级紫龙骑士(旗将)特性
+你熟练于说服技能。如果你已经对这项技能熟练，你可以选择以下列表中的一项技能熟练：驯养动物，洞悉，威吓，表演。
+你在进行魅力（说服）检定时可以将双倍的熟练值加在上面。你始终获得这个好处，不管你是否从这个能力中得到了对于说服技能的熟练。</t>
+  </si>
+  <si>
+    <t>紫龙骑士(旗将):振奋之潮</t>
+  </si>
+  <si>
+    <t>振奋之潮Inspiring Surge
+第10级紫龙骑士(旗将)特性
+每当你使用你的动作如潮能力时，你可以选择一个在你周围60尺内的盟友，他可以立刻用他的反应进行一次近战或者远程武器攻击。他必须要能看见或者听见你的声音才能获得这个好处。
+从18级起，你可以选择两个盟友。</t>
+  </si>
+  <si>
+    <t>紫龙骑士(旗将):意志壁垒</t>
+  </si>
+  <si>
+    <t>意志壁垒Bulwark
+第15级紫龙骑士(旗将)特性
+你可以延展你的不屈能力作用于你的盟友。每当你决定用不屈重投智力，感知或者魅力豁免并且你未处于失能状态，你可以选择一个在你60尺距离内对同样的效果豁免失败的盟友。如果他能看见你或者听见你的声音，他可以重投豁免骰。他必须采用新的结果。</t>
+  </si>
+  <si>
+    <t>永亡宗:简述</t>
+  </si>
+  <si>
+    <t>永亡宗Way of the Long Death
+武僧 宗派
+永亡宗的武僧迷醉于死亡的结构和意义。他们拘束生物并用精心准备的实验去捕捉，记录，理解他们死亡的瞬间。他们用这些知识去指导他们的武术，从而产生了致命的战斗风格。
+请查询 往生咒、索命镰、握生死、长眠触 以获取更多信息。</t>
+  </si>
+  <si>
+    <t>永亡宗:往生咒</t>
+  </si>
+  <si>
+    <t>往生咒Touch of Death
+第3级永亡宗特性
+你对死亡的研究使你能在临近的生物逝去前抽取他们的生命力。当你使一个5尺距离内的生物生命值下降到0点时，你得到你的感知调整值+武僧等级的临时生命值（最小1点）。</t>
+  </si>
+  <si>
+    <t>永亡宗:索命镰</t>
+  </si>
+  <si>
+    <t>索命镰Hour of Reaping
+第6级永亡宗特性
+你可以展现出你灵魂本质中的死亡阴影，使周围的人感到惊惧和恐慌。以一个动作，你使距离你30尺内的所有能看见你的生物立即进行一次感知豁免。若豁免失败，他们将对你恐慌直到你的下回合结束。</t>
+  </si>
+  <si>
+    <t>永亡宗:握生死</t>
+  </si>
+  <si>
+    <t>握生死Mastery of Death
+第11级永亡宗特性
+你对死亡的熟悉使你可以避过它的抓捕。每次你的生命值下降为0，你可以花费1点气（无需任何动作）使自己保留1点生命值。</t>
+  </si>
+  <si>
+    <t>永亡宗:永亡触</t>
+  </si>
+  <si>
+    <t>永亡宗:长眠触</t>
+  </si>
+  <si>
+    <t>永亡触Touch of the Long Death
+第17级永亡宗特性
+你可以将死亡的能量传入生物的体内。以一个动作，你触碰一个5尺内的生物，同时花费1到10点气。目标必须进行一次体质豁免，若失败将受到每点被耗费的气2d10的黯蚀伤害。成功通过豁免可以使这个伤害降低到一半。</t>
+  </si>
+  <si>
+    <t>王冠之誓:简述</t>
+  </si>
+  <si>
+    <t>王冠之誓Oath of the Crown
+圣武士 神圣誓言
+王冠之誓，是一种对于文明的崇高理想。它通常体现为一种对民族精神的认同，一种对君王的效忠，或者是一种对于律法和规则的维护。遵循王冠之誓的圣武士们献身于整个社会，致力使社会整体遵循于法律。他们是秩序社会最后的守护者，时刻提防着混乱和野蛮的浪潮将文明摧毁；一般人们会称呼他们为守护者，典范或者是哨兵。通常，会立下这个誓言的圣武士是一个效忠于国家或者君王的骑士，并且遵守这个誓言也是他们进入这个社会等级的一部分条件。
+请查询 王冠圣誓法术、神圣誓忠、顽强精神、崇高卫士、引导神力:捍卫挑战、引导神力:扭转局势 以获取更多信息。</t>
+  </si>
+  <si>
+    <t>王冠之誓:王冠之信条</t>
+  </si>
+  <si>
+    <t>王冠之信条
+王冠的信条通常由圣武士们所效忠的对象制定。不过，通常这些信条会强调如下几项。
+律法：律法至上。它是文明的基石并且必须被庄重对待。
+忠诚：言出必行。失去了忠诚，誓言和律法将毫无意义。
+勇气：无所畏惧。你必须愿意在秩序被动摇时挺身而出，即使胜算渺茫。如果你不行动，那么谁会？
+责任：恪尽职守。你必须认识到你行动的重要性并为之承担后果，你要尽你最大努力完成你的责任和义务。</t>
+  </si>
+  <si>
+    <t>王冠之誓:王冠圣誓法术</t>
+  </si>
+  <si>
+    <t>王冠圣誓法术Oath of Crown Spells
+第3级王冠之誓特性
+3rd  命令术，强制决斗。
+5th  守护之链，诚实之域
+9th  活力灵光，灵体卫士
+13th 放逐术，信仰守卫
+17th 威力法阵，指使术</t>
+  </si>
+  <si>
+    <t>王冠之誓:引导神力:捍卫挑战</t>
+  </si>
+  <si>
+    <t>引导神力：捍卫挑战Channel Divinity: Champion Challenge
+第3级王冠之誓特性(引导神力)
+以一个附赠动作，你发出挑战逼迫其他生物与你战斗。你可以选择30尺内任意数量你可以看见的生物，他们每一个都必须要通过一次感知豁免。如果豁免失败，那个生物将不能自愿从你周围30尺范围离开。如果你死亡，或者你失能，或者生物与你距离超过30尺，则此效果结束。</t>
+  </si>
+  <si>
+    <t>王冠之誓:引导神力:扭转局势</t>
+  </si>
+  <si>
+    <t>引导神力：扭转局势Channel Divinity: Turn the Tide
+第3级王冠之誓特性(引导神力)
+以一个附赠动作，你可以引导神力支撑受伤的生物继续战斗。你可以选择你周围30尺内任意数量可以听见你说话的生物，如果他们生命值在一半以下，他们将立即恢复1d6+你的魅力调整值（最小为1点）的生命值。</t>
+  </si>
+  <si>
+    <t>王冠之誓:神圣誓忠</t>
+  </si>
+  <si>
+    <t>神圣誓忠Divine Allegiance
+第7级王冠之誓特性
+如果一个在你周围5尺内的生物受到伤害，你可以使用你的反应魔法地代替目标生物承受这一次伤害，使目标不再受伤。你不能用任何方式减少或者阻止这个伤害。</t>
+  </si>
+  <si>
+    <t>王冠之誓:顽强精神</t>
+  </si>
+  <si>
+    <t>顽强精神Unyielding Spirit
+第15级王冠之誓特性
+你在避免陷入震慑或者麻痹状态的豁免骰中得到优势。</t>
+  </si>
+  <si>
+    <t>王冠之誓:崇高卫士</t>
+  </si>
+  <si>
+    <t>崇高卫士Exalted Champion
+第20级王冠之誓特性
+对于那些献身于你所遵从的事业的人而言，你已经成为了一个鼓舞人心的完美典范。你可以用一个动作在接下来1个小时里得到如下好处：
+你抵抗由非魔法武器造成的钝击、穿刺和挥砍伤害。
+在你30尺距离内的盟友在进行死亡豁免时具有优势。
+你和你30尺距离内的盟友在感知豁免上具有优势。
+如果你死亡或者进入失能状态，这个效果将提前结束。一旦你使用了这个能力，在你完成一次长休息之前你不能再次使用。</t>
+  </si>
+  <si>
+    <t>不朽者:简述</t>
+  </si>
+  <si>
+    <t>不朽者The Undying
+邪术师 异界宗主
+你的宗主早已破译了有关无穷生命的奥秘，死亡对于他而言不再有任何威胁。他不介意和一个凡人——在他看来寿命有如四季般更替、有如昼夜般闪烁的凡人分享他的力量，作为服务于他的一点奖赏。
+这类存在包括万隐万秘之主宰维克那，邪恶者伊乌兹，不朽殿的艾伦诺，吉斯洋基人的君王维拉基斯，还有不死的黑袍巫师费斯坦但提勒斯。
+请查询 扩展法术列表、历经死亡、反抗死亡、不朽之理、永恒生命 以获取更多信息。</t>
+  </si>
+  <si>
+    <t>不朽者:扩展法术列表</t>
+  </si>
+  <si>
+    <t>扩展法术列表Expanded Spell List
+第1级不朽者宗主特性
+1st 虚假生命，致病射线
+2nd 目盲术/耳聋术，沉默术
+3rd 假死术，死者交谈
+4th 生命灵光，防死结界
+5th 疫病术，通晓传奇</t>
+  </si>
+  <si>
+    <t>不朽者:历经死亡</t>
+  </si>
+  <si>
+    <t>历经死亡Among the Dead
+第1级不朽者宗主特性
+你学会戏法维生术，并将它视作一个邪术师戏法。你同时在对任何疾病的豁免上具有优势。
+此外，不死生物将更难伤害你。若有不死生物直接指定你为攻击或者有害法术的目标，这个生物必须进行一次感知豁免来对抗你的施法DC（但他不需要在使用包括你在内的区域能力时进行豁免，比如火球术）。若失败，这个生物必须选择一个新的目标，如果他没有除你以外的目标可以选择则他失去这次法术或者攻击。若他成功通过了豁免，或者你以他为目标进行攻击或者施放有害法术，那么这个不死生物在接下来24小时里对这个效果免疫。</t>
+  </si>
+  <si>
+    <t>不朽者:反抗死亡</t>
+  </si>
+  <si>
+    <t>反抗死亡Defy Death
+第6级不朽者宗主特性
+你为成功欺骗了死亡而感到振奋。当你成功进行一次死亡豁免，或者在你使用维生术帮助其他生物稳定伤势的时候，你可以立即回复1d8+你的体质调整值（最少为1点）的生命值。
+一旦你使用了这个能力，直到一次长休息之前你不能再次使用。</t>
+  </si>
+  <si>
+    <t>不朽者:不朽之理</t>
+  </si>
+  <si>
+    <t>不朽之理Undying Nature
+第10级不朽者宗主特性
+你可以无限制地屏住呼吸，并且你不再需要食物、水和睡眠，虽然你仍旧需要休息来恢复疲惫并且从长/短休息中获得收益。
+并且，你的年龄增长速度被放慢。每过去10年，你的身体只会衰老1年，并且你免疫魔法衰老。</t>
+  </si>
+  <si>
+    <t>不朽者:永恒生命</t>
+  </si>
+  <si>
+    <t>永恒生命Indestructible Life
+第14级不朽者宗主特性
+你从你的宗主处窥探到一些有关于永恒的奥秘。在你的回合，你可以使用一个附赠动作恢复1d8+邪术师等级的生命值。此外，如果你在使用这个能力的同时把自己一部分被切断的躯体放置在断口处，那部分伤口将会愈合。
+一旦你使用了这个能力，直到一次长/短休息之前你不能再次使用。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -794,14 +1082,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -841,6 +1121,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -891,6 +1186,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -898,7 +1200,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -918,7 +1227,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -930,7 +1239,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -942,13 +1263,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -960,7 +1317,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -972,37 +1365,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1014,66 +1377,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1087,6 +1390,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1109,21 +1418,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1156,6 +1450,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1212,156 +1521,157 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1369,59 +1679,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1722,25 +2034,23 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD2"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="2" width="20" style="2" customWidth="1"/>
-    <col min="3" max="3" width="93.2181818181818" style="6" customWidth="1"/>
-    <col min="4" max="4" width="29.3363636363636" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="18.1833333333333" customWidth="1"/>
+    <col min="3" max="3" width="103.5" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -1749,87 +2059,63 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A4" s="3" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="4"/>
+      <c r="F4" s="5"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="4"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="F5" s="5"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="F7" s="4"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="14.4" customHeight="1" spans="6:6">
+      <c r="F7" s="5"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="F8" s="4"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="F8" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
   <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
@@ -1838,103 +2124,378 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+      <selection activeCell="A28" sqref="A$1:A$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="18.1818181818182" customWidth="1"/>
-    <col min="3" max="3" width="103.5" style="2" customWidth="1"/>
+    <col min="1" max="1" width="15.0916666666667" customWidth="1"/>
+    <col min="2" max="2" width="14.375" customWidth="1"/>
+    <col min="3" max="3" width="117.541666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A3" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A4" s="3" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3" t="s">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="F6" s="4"/>
+      <c r="B6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="5"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="F7" s="4"/>
+      <c r="A7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="5"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="F8" s="4"/>
+      <c r="A8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="5"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="F9" s="4"/>
+      <c r="A9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A18" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A19" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A20" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A22" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A24" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A25" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A26" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A27" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A28" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A29" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="39" s="3" customFormat="1" ht="14.4" customHeight="1" spans="2:2">
+      <c r="B39" s="7"/>
+    </row>
+    <row r="40" s="3" customFormat="1" ht="14.4" customHeight="1" spans="2:2">
+      <c r="B40" s="7"/>
+    </row>
+    <row r="41" s="3" customFormat="1" ht="14.4" customHeight="1" spans="2:2">
+      <c r="B41" s="7"/>
+    </row>
+    <row r="42" s="3" customFormat="1" ht="14.4" customHeight="1" spans="2:2">
+      <c r="B42" s="7"/>
+    </row>
+    <row r="43" s="3" customFormat="1" ht="14.4" customHeight="1" spans="2:2">
+      <c r="B43" s="7"/>
+    </row>
+    <row r="44" s="3" customFormat="1" ht="14.4" customHeight="1" spans="2:2">
+      <c r="B44" s="7"/>
+    </row>
+    <row r="45" s="3" customFormat="1" ht="14.4" customHeight="1" spans="2:2">
+      <c r="B45" s="7"/>
+    </row>
+    <row r="46" s="3" customFormat="1" ht="14.4" customHeight="1" spans="2:2">
+      <c r="B46" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1946,412 +2507,563 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD38"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="15.0909090909091" customWidth="1"/>
-    <col min="3" max="3" width="117.545454545455" customWidth="1"/>
+    <col min="1" max="1" width="25.25" customWidth="1"/>
+    <col min="3" max="3" width="117.541666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="4"/>
+      <c r="A2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="4"/>
+      <c r="A3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="4"/>
+      <c r="A4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="4"/>
+      <c r="A5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="4"/>
+      <c r="A6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="4"/>
+      <c r="A7" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A8" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="4"/>
+      <c r="A8" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="4"/>
+      <c r="A9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" s="4"/>
+      <c r="A10" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
     </row>
     <row r="11" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A11" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="4"/>
+      <c r="A11" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A12" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" s="4"/>
+      <c r="A12" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
     </row>
     <row r="13" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A13" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" s="4"/>
+      <c r="A13" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A14" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" s="4"/>
+      <c r="A14" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
     </row>
     <row r="15" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A15" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" s="4"/>
+      <c r="A15" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
     </row>
     <row r="16" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A16" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" s="4"/>
+      <c r="A16" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
     </row>
     <row r="17" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A17" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F17" s="4"/>
+      <c r="A17" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
     </row>
     <row r="18" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A18" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F18" s="4"/>
+      <c r="A18" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
     </row>
     <row r="19" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A19" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F19" s="4"/>
+      <c r="A19" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
     </row>
     <row r="20" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A20" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F20" s="4"/>
+      <c r="A20" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
     </row>
     <row r="21" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A21" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F21" s="4"/>
+      <c r="A21" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
     </row>
     <row r="22" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A22" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F22" s="4"/>
+      <c r="A22" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
     </row>
     <row r="23" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A23" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F23" s="4"/>
+      <c r="A23" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
     </row>
     <row r="24" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A24" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F24" s="4"/>
+      <c r="A24" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
     </row>
     <row r="25" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A25" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F25" s="4"/>
+      <c r="A25" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
     </row>
     <row r="26" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A26" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F26" s="4"/>
+      <c r="A26" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
     </row>
     <row r="27" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A27" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F27" s="4"/>
+      <c r="A27" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
     </row>
     <row r="28" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A28" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F28" s="4"/>
+      <c r="A28" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
     </row>
     <row r="29" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A29" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F29" s="4"/>
+      <c r="A29" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
     </row>
     <row r="30" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="F30" s="4"/>
+      <c r="A30" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
     </row>
     <row r="31" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="F31" s="4"/>
+      <c r="A31" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
     </row>
     <row r="32" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="F32" s="4"/>
+      <c r="A32" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
     </row>
     <row r="33" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="F33" s="4"/>
+      <c r="A33" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
     </row>
     <row r="34" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="F34" s="4"/>
+      <c r="A34" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
     </row>
     <row r="35" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="F35" s="4"/>
+      <c r="A35" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
     </row>
     <row r="36" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="F36" s="4"/>
+      <c r="A36" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
     </row>
     <row r="37" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="F37" s="4"/>
+      <c r="A37" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
     </row>
     <row r="38" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="F38" s="4"/>
-    </row>
-    <row r="39" s="2" customFormat="1" ht="14.4" customHeight="1" spans="2:2">
-      <c r="B39" s="5"/>
-    </row>
-    <row r="40" s="2" customFormat="1" ht="14.4" customHeight="1" spans="2:2">
-      <c r="B40" s="5"/>
-    </row>
-    <row r="41" s="2" customFormat="1" ht="14.4" customHeight="1" spans="2:2">
-      <c r="B41" s="5"/>
-    </row>
-    <row r="42" s="2" customFormat="1" ht="14.4" customHeight="1" spans="2:2">
-      <c r="B42" s="5"/>
-    </row>
-    <row r="43" s="2" customFormat="1" ht="14.4" customHeight="1" spans="2:2">
-      <c r="B43" s="5"/>
-    </row>
-    <row r="44" s="2" customFormat="1" ht="14.4" customHeight="1" spans="2:2">
-      <c r="B44" s="5"/>
-    </row>
-    <row r="45" s="2" customFormat="1" ht="14.4" customHeight="1" spans="2:2">
-      <c r="B45" s="5"/>
-    </row>
-    <row r="46" s="2" customFormat="1" ht="14.4" customHeight="1" spans="2:2">
-      <c r="B46" s="5"/>
-    </row>
-    <row r="47" s="2" customFormat="1" ht="14.4" customHeight="1" spans="2:2">
-      <c r="B47" s="5"/>
-    </row>
-    <row r="48" s="2" customFormat="1" ht="14.4" customHeight="1" spans="2:2">
-      <c r="B48" s="5"/>
-    </row>
-    <row r="49" s="2" customFormat="1" ht="14.4" customHeight="1" spans="2:2">
-      <c r="B49" s="5"/>
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+    </row>
+    <row r="54" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
